--- a/outputs/enrichment_outputs/vwr_enrichment_ppe_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_ppe_output.xlsx
@@ -1186,22 +1186,20 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>0202026</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>MP EcoChrom Alumina N is an am</t>
-        </is>
+          <t>0210000801</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v/>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>MP EcoChrom Alumina N is an amphoteric oxide It is commonly referred to as alumina αalumina aloxide or corundum in its crystalline form as well as many other names reflecting its widespread occurrence in nature and industry An oxide of aluminum occurring in nature as various minerals such as bauxite corundum etc It is used as an adsorbent desiccating agent and catalyst and in the manufacture of dental cements and refractories</t>
+          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
         </is>
       </c>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>MP Alumina N, neutral pH, 50 kg MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J5" s="6" t="n">
@@ -1209,7 +1207,7 @@
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>50 kg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L5" s="7" t="n">
@@ -1256,14 +1254,16 @@
       </c>
       <c r="Z5" s="7" t="inlineStr">
         <is>
-          <t>1344-28-1</t>
+          <t>51963-61-2</t>
         </is>
       </c>
       <c r="AA5" s="6" t="n">
         <v/>
       </c>
-      <c r="AB5" s="6" t="n">
-        <v/>
+      <c r="AB5" s="6" t="inlineStr">
+        <is>
+          <t>~99%</t>
+        </is>
       </c>
       <c r="AC5" s="6" t="n">
         <v/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AE5" s="6" t="inlineStr">
         <is>
-          <t>101.96</t>
+          <t>605.23</t>
         </is>
       </c>
       <c r="AF5" s="6" t="n">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="AJ5" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK5" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -1317,18 +1317,20 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>0202778</t>
+          <t>0210000805</t>
         </is>
       </c>
       <c r="G6" s="6" t="n">
         <v/>
       </c>
-      <c r="H6" s="6" t="n">
-        <v/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
+        </is>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>MP Silitech 18-32 μm, 60, 25 kg MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J6" s="6" t="n">
@@ -1336,7 +1338,7 @@
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>25 kg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L6" s="7" t="n">
@@ -1383,14 +1385,16 @@
       </c>
       <c r="Z6" s="7" t="inlineStr">
         <is>
-          <t>7631-86-9</t>
+          <t>51963-61-2</t>
         </is>
       </c>
       <c r="AA6" s="6" t="n">
         <v/>
       </c>
-      <c r="AB6" s="6" t="n">
-        <v/>
+      <c r="AB6" s="6" t="inlineStr">
+        <is>
+          <t>~99%</t>
+        </is>
       </c>
       <c r="AC6" s="6" t="n">
         <v/>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="AE6" s="6" t="inlineStr">
         <is>
-          <t>60.08</t>
+          <t>605.23</t>
         </is>
       </c>
       <c r="AF6" s="6" t="n">
@@ -1417,12 +1421,12 @@
       </c>
       <c r="AJ6" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK6" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1448,7 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>0210000801</t>
+          <t>0210000810</t>
         </is>
       </c>
       <c r="G7" s="6" t="n">
@@ -1457,7 +1461,7 @@
       </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 1 g MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J7" s="6" t="n">
@@ -1465,7 +1469,7 @@
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L7" s="7" t="n">
@@ -1575,20 +1579,18 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>0210000805</t>
+          <t>02100109.2</t>
         </is>
       </c>
       <c r="G8" s="6" t="n">
         <v/>
       </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
-        </is>
+      <c r="H8" s="6" t="n">
+        <v/>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 5 g MP Biomedical</t>
+          <t>N-Acetyl-D-mannosamine, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J8" s="6" t="n">
@@ -1596,7 +1598,7 @@
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L8" s="7" t="n">
@@ -1643,7 +1645,7 @@
       </c>
       <c r="Z8" s="7" t="inlineStr">
         <is>
-          <t>51963-61-2</t>
+          <t>4773-29-9</t>
         </is>
       </c>
       <c r="AA8" s="7" t="n">
@@ -1651,7 +1653,7 @@
       </c>
       <c r="AB8" s="14" t="inlineStr">
         <is>
-          <t>~99%</t>
+          <t>~95%</t>
         </is>
       </c>
       <c r="AC8" s="14" t="n">
@@ -1662,7 +1664,7 @@
       </c>
       <c r="AE8" s="6" t="inlineStr">
         <is>
-          <t>605.23</t>
+          <t>239.2</t>
         </is>
       </c>
       <c r="AF8" s="6" t="n">
@@ -1706,20 +1708,22 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>0210000810</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v/>
+          <t>0210019125</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Adenine Hydrochloride</t>
+        </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
+          <t>Adenine Hydrochloride</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 10 g MP Biomedical</t>
+          <t>Adenine hydrochloride, ~ 99%, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J9" s="6" t="n">
@@ -1727,7 +1731,7 @@
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L9" s="7" t="n">
@@ -1774,7 +1778,7 @@
       </c>
       <c r="Z9" s="7" t="inlineStr">
         <is>
-          <t>51963-61-2</t>
+          <t>6055-72-7</t>
         </is>
       </c>
       <c r="AA9" s="6" t="n">
@@ -1782,7 +1786,7 @@
       </c>
       <c r="AB9" s="6" t="inlineStr">
         <is>
-          <t>~99%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="AC9" s="6" t="n">
@@ -1793,7 +1797,7 @@
       </c>
       <c r="AE9" s="6" t="inlineStr">
         <is>
-          <t>605.23</t>
+          <t>189.603 g/mol</t>
         </is>
       </c>
       <c r="AF9" s="6" t="n">
@@ -1810,12 +1814,12 @@
       </c>
       <c r="AJ9" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK9" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -1837,18 +1841,22 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>02100109.2</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v/>
+          <t>0210042780</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Potassium Tellurite</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>Potassium Tellurite</t>
+        </is>
       </c>
       <c r="I10" s="6" t="inlineStr">
         <is>
-          <t>N-Acetyl-D-mannosamine, 250 mg MP Biomedical</t>
+          <t>Potassium tellurite, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J10" s="6" t="n">
@@ -1856,7 +1864,7 @@
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L10" s="7" t="n">
@@ -1903,16 +1911,14 @@
       </c>
       <c r="Z10" s="7" t="inlineStr">
         <is>
-          <t>4773-29-9</t>
+          <t>7790-58-1</t>
         </is>
       </c>
       <c r="AA10" s="6" t="n">
         <v/>
       </c>
-      <c r="AB10" s="6" t="inlineStr">
-        <is>
-          <t>~95%</t>
-        </is>
+      <c r="AB10" s="6" t="n">
+        <v/>
       </c>
       <c r="AC10" s="6" t="n">
         <v/>
@@ -1922,7 +1928,7 @@
       </c>
       <c r="AE10" s="6" t="inlineStr">
         <is>
-          <t>239.2</t>
+          <t>253.794 g/mol</t>
         </is>
       </c>
       <c r="AF10" s="6" t="n">
@@ -1939,12 +1945,12 @@
       </c>
       <c r="AJ10" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK10" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -1966,22 +1972,20 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>0210019125</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>Adenine Hydrochloride</t>
-        </is>
+          <t>0210082410</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v/>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
+          <t>Lactic acid is an alpha hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase LDH Lactate is one of the main components of Ringerprimes lactate or lactated Ringerprimes solution It is a fermentation acid from milk or carbohydrates</t>
         </is>
       </c>
       <c r="I11" s="6" t="inlineStr">
         <is>
-          <t>Adenine hydrochloride, ~ 99%, 25 g MP Biomedical</t>
+          <t>DL- Lactic acid (lithium salt), 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J11" s="6" t="n">
@@ -1989,7 +1993,7 @@
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L11" s="7" t="n">
@@ -2036,16 +2040,14 @@
       </c>
       <c r="Z11" s="7" t="inlineStr">
         <is>
-          <t>6055-72-7</t>
+          <t>867-55-0</t>
         </is>
       </c>
       <c r="AA11" s="6" t="n">
         <v/>
       </c>
-      <c r="AB11" s="6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
+      <c r="AB11" s="6" t="n">
+        <v/>
       </c>
       <c r="AC11" s="6" t="n">
         <v/>
@@ -2055,7 +2057,7 @@
       </c>
       <c r="AE11" s="6" t="inlineStr">
         <is>
-          <t>189.603 g/mol</t>
+          <t>96.01</t>
         </is>
       </c>
       <c r="AF11" s="6" t="n">
@@ -2099,22 +2101,22 @@
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>0210042780</t>
+          <t>0210090450</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t xml:space="preserve">Oleoyl Coenzyme A Dipotassium </t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>Potassium tellurite, 100 g MP Biomedical</t>
+          <t>Oleoyl coenzyme A, dipotassium salt, 50 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J12" s="6" t="n">
@@ -2122,7 +2124,7 @@
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="L12" s="7" t="n">
@@ -2149,8 +2151,10 @@
       <c r="S12" s="6" t="n">
         <v/>
       </c>
-      <c r="T12" s="6" t="n">
-        <v/>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>enzyme</t>
+        </is>
       </c>
       <c r="U12" s="6" t="n">
         <v/>
@@ -2169,14 +2173,16 @@
       </c>
       <c r="Z12" s="7" t="inlineStr">
         <is>
-          <t>7790-58-1</t>
+          <t>1716-06-9</t>
         </is>
       </c>
       <c r="AA12" s="6" t="n">
         <v/>
       </c>
-      <c r="AB12" s="6" t="n">
-        <v/>
+      <c r="AB12" s="6" t="inlineStr">
+        <is>
+          <t>≥90%</t>
+        </is>
       </c>
       <c r="AC12" s="6" t="n">
         <v/>
@@ -2186,7 +2192,7 @@
       </c>
       <c r="AE12" s="6" t="inlineStr">
         <is>
-          <t>253.794 g/mol</t>
+          <t>1031.986 g/mol</t>
         </is>
       </c>
       <c r="AF12" s="6" t="n">
@@ -2203,12 +2209,12 @@
       </c>
       <c r="AJ12" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK12" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -2230,20 +2236,22 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>0210082410</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v/>
+          <t>0210137980</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>Cholesteryl Hydrogen Succinate</t>
+        </is>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>Lactic acid is an alpha hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase LDH Lactate is one of the main components of Ringerprimes lactate or lactated Ringerprimes solution It is a fermentation acid from milk or carbohydrates</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
         <is>
-          <t>DL- Lactic acid (lithium salt), 10 g MP Biomedical</t>
+          <t>Cholesteryl hydrogen succinate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J13" s="6" t="n">
@@ -2251,7 +2259,7 @@
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L13" s="7" t="n">
@@ -2298,7 +2306,7 @@
       </c>
       <c r="Z13" s="7" t="inlineStr">
         <is>
-          <t>867-55-0</t>
+          <t>1510-21-0</t>
         </is>
       </c>
       <c r="AA13" s="6" t="n">
@@ -2315,7 +2323,7 @@
       </c>
       <c r="AE13" s="6" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>486.737 g/mol</t>
         </is>
       </c>
       <c r="AF13" s="6" t="n">
@@ -2359,22 +2367,22 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>0210090450</t>
+          <t>0210192780</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oleoyl Coenzyme A Dipotassium </t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>Oleoyl coenzyme A, dipotassium salt, 50 mg MP Biomedical</t>
+          <t>HEPPS, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J14" s="6" t="n">
@@ -2382,7 +2390,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L14" s="7" t="n">
@@ -2409,10 +2417,8 @@
       <c r="S14" s="6" t="n">
         <v/>
       </c>
-      <c r="T14" s="6" t="inlineStr">
-        <is>
-          <t>enzyme</t>
-        </is>
+      <c r="T14" s="6" t="n">
+        <v/>
       </c>
       <c r="U14" s="6" t="n">
         <v/>
@@ -2431,16 +2437,14 @@
       </c>
       <c r="Z14" s="7" t="inlineStr">
         <is>
-          <t>1716-06-9</t>
+          <t>16052-06-5</t>
         </is>
       </c>
       <c r="AA14" s="6" t="n">
         <v/>
       </c>
-      <c r="AB14" s="6" t="inlineStr">
-        <is>
-          <t>≥90%</t>
-        </is>
+      <c r="AB14" s="6" t="n">
+        <v/>
       </c>
       <c r="AC14" s="6" t="n">
         <v/>
@@ -2450,7 +2454,7 @@
       </c>
       <c r="AE14" s="6" t="inlineStr">
         <is>
-          <t>1031.986 g/mol</t>
+          <t>252.329 g/mol</t>
         </is>
       </c>
       <c r="AF14" s="6" t="n">
@@ -2467,12 +2471,12 @@
       </c>
       <c r="AJ14" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK14" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -2494,22 +2498,22 @@
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
-          <t>0210137980</t>
+          <t>0210192783</t>
         </is>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>Cholesteryl hydrogen succinate, 100 g MP Biomedical</t>
+          <t>HEPPS, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J15" s="6" t="n">
@@ -2517,7 +2521,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L15" s="7" t="n">
@@ -2564,7 +2568,7 @@
       </c>
       <c r="Z15" s="7" t="inlineStr">
         <is>
-          <t>1510-21-0</t>
+          <t>16052-06-5</t>
         </is>
       </c>
       <c r="AA15" s="6" t="n">
@@ -2581,7 +2585,7 @@
       </c>
       <c r="AE15" s="6" t="inlineStr">
         <is>
-          <t>486.737 g/mol</t>
+          <t>252.329 g/mol</t>
         </is>
       </c>
       <c r="AF15" s="6" t="n">
@@ -2625,7 +2629,7 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>0210192780</t>
+          <t>0210192791</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
@@ -2640,7 +2644,7 @@
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 100 g MP Biomedical</t>
+          <t>HEPPS, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J16" s="6" t="n">
@@ -2648,7 +2652,7 @@
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L16" s="7" t="n">
@@ -2756,22 +2760,22 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>0210192783</t>
+          <t>0210225610</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 250 g MP Biomedical</t>
+          <t>α-D-(+)-Melibiose monohydrate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J17" s="6" t="n">
@@ -2779,7 +2783,7 @@
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L17" s="7" t="n">
@@ -2826,7 +2830,7 @@
       </c>
       <c r="Z17" s="7" t="inlineStr">
         <is>
-          <t>16052-06-5</t>
+          <t>585-99-9</t>
         </is>
       </c>
       <c r="AA17" s="6" t="n">
@@ -2843,7 +2847,7 @@
       </c>
       <c r="AE17" s="6" t="inlineStr">
         <is>
-          <t>252.329 g/mol</t>
+          <t>342.297 g/mol</t>
         </is>
       </c>
       <c r="AF17" s="6" t="n">
@@ -2887,22 +2891,22 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>0210192791</t>
+          <t>0210225625</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 1 kg MP Biomedical</t>
+          <t>α-D-(+)-Melibiose monohydrate, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J18" s="6" t="n">
@@ -2910,7 +2914,7 @@
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L18" s="7" t="n">
@@ -2957,7 +2961,7 @@
       </c>
       <c r="Z18" s="7" t="inlineStr">
         <is>
-          <t>16052-06-5</t>
+          <t>585-99-9</t>
         </is>
       </c>
       <c r="AA18" s="6" t="n">
@@ -2974,7 +2978,7 @@
       </c>
       <c r="AE18" s="6" t="inlineStr">
         <is>
-          <t>252.329 g/mol</t>
+          <t>342.297 g/mol</t>
         </is>
       </c>
       <c r="AF18" s="6" t="n">
@@ -3018,22 +3022,22 @@
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
-          <t>0210225610</t>
+          <t>0210226091</t>
         </is>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Tri</t>
         </is>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose monohydrate, 10 g MP Biomedical</t>
+          <t>Menadione sodium bisulfite, trihydrate, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J19" s="6" t="n">
@@ -3041,7 +3045,7 @@
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L19" s="7" t="n">
@@ -3088,14 +3092,16 @@
       </c>
       <c r="Z19" s="7" t="inlineStr">
         <is>
-          <t>585-99-9</t>
+          <t>130-37-0</t>
         </is>
       </c>
       <c r="AA19" s="6" t="n">
         <v/>
       </c>
-      <c r="AB19" s="6" t="n">
-        <v/>
+      <c r="AB19" s="6" t="inlineStr">
+        <is>
+          <t>&gt;95%</t>
+        </is>
       </c>
       <c r="AC19" s="6" t="n">
         <v/>
@@ -3105,7 +3111,7 @@
       </c>
       <c r="AE19" s="6" t="inlineStr">
         <is>
-          <t>342.297 g/mol</t>
+          <t>276.238 g/mol</t>
         </is>
       </c>
       <c r="AF19" s="6" t="n">
@@ -3122,12 +3128,12 @@
       </c>
       <c r="AJ19" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK19" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3155,20 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>0210225625</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>αDMelibiose Monohydrate</t>
-        </is>
+          <t>0210237190</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v/>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Purity 9095Sequestrant for metal ions</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose monohydrate, 25 g MP Biomedical</t>
+          <t>Mucic acid, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J20" s="6" t="n">
@@ -3172,7 +3176,7 @@
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L20" s="7" t="n">
@@ -3219,7 +3223,7 @@
       </c>
       <c r="Z20" s="7" t="inlineStr">
         <is>
-          <t>585-99-9</t>
+          <t>526-99-8</t>
         </is>
       </c>
       <c r="AA20" s="6" t="n">
@@ -3236,7 +3240,7 @@
       </c>
       <c r="AE20" s="6" t="inlineStr">
         <is>
-          <t>342.297 g/mol</t>
+          <t>210.1</t>
         </is>
       </c>
       <c r="AF20" s="6" t="n">
@@ -3253,12 +3257,12 @@
       </c>
       <c r="AJ20" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK20" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3284,22 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>0210226091</t>
+          <t>0210245090</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Tri</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>Menadione sodium bisulfite, trihydrate, 1 kg MP Biomedical</t>
+          <t>Ninhydrin, monohydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J21" s="6" t="n">
@@ -3303,7 +3307,7 @@
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L21" s="7" t="n">
@@ -3350,16 +3354,14 @@
       </c>
       <c r="Z21" s="7" t="inlineStr">
         <is>
-          <t>130-37-0</t>
+          <t>485-47-2</t>
         </is>
       </c>
       <c r="AA21" s="6" t="n">
         <v/>
       </c>
-      <c r="AB21" s="6" t="inlineStr">
-        <is>
-          <t>&gt;95%</t>
-        </is>
+      <c r="AB21" s="6" t="n">
+        <v/>
       </c>
       <c r="AC21" s="6" t="n">
         <v/>
@@ -3369,7 +3371,7 @@
       </c>
       <c r="AE21" s="6" t="inlineStr">
         <is>
-          <t>276.238 g/mol</t>
+          <t>178.143 g/mol</t>
         </is>
       </c>
       <c r="AF21" s="6" t="n">
@@ -3386,12 +3388,12 @@
       </c>
       <c r="AJ21" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK21" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -3413,20 +3415,22 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>0210237190</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v/>
+          <t>0210280825</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>Resorcinol</t>
+        </is>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>Purity 9095Sequestrant for metal ions</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
-          <t>Mucic acid, 500 g MP Biomedical</t>
+          <t>Resorcinol, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J22" s="6" t="n">
@@ -3434,7 +3438,7 @@
       </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L22" s="7" t="n">
@@ -3481,14 +3485,16 @@
       </c>
       <c r="Z22" s="7" t="inlineStr">
         <is>
-          <t>526-99-8</t>
+          <t>108-46-3</t>
         </is>
       </c>
       <c r="AA22" s="6" t="n">
         <v/>
       </c>
-      <c r="AB22" s="6" t="n">
-        <v/>
+      <c r="AB22" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC22" s="6" t="n">
         <v/>
@@ -3498,7 +3504,7 @@
       </c>
       <c r="AE22" s="6" t="inlineStr">
         <is>
-          <t>210.1</t>
+          <t>110.112 g/mol</t>
         </is>
       </c>
       <c r="AF22" s="6" t="n">
@@ -3515,12 +3521,12 @@
       </c>
       <c r="AJ22" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK22" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3548,22 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>0210245090</t>
+          <t>0210280890</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin, monohydrate, 500 g MP Biomedical</t>
+          <t>Resorcinol, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J23" s="6" t="n">
@@ -3612,14 +3618,16 @@
       </c>
       <c r="Z23" s="7" t="inlineStr">
         <is>
-          <t>485-47-2</t>
+          <t>108-46-3</t>
         </is>
       </c>
       <c r="AA23" s="6" t="n">
         <v/>
       </c>
-      <c r="AB23" s="6" t="n">
-        <v/>
+      <c r="AB23" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC23" s="6" t="n">
         <v/>
@@ -3629,7 +3637,7 @@
       </c>
       <c r="AE23" s="6" t="inlineStr">
         <is>
-          <t>178.143 g/mol</t>
+          <t>110.112 g/mol</t>
         </is>
       </c>
       <c r="AF23" s="6" t="n">
@@ -3673,22 +3681,22 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>0210280825</t>
+          <t>02102897.5</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol, 25 g MP Biomedical</t>
+          <t>Cholic acid, sodium salt, ≥98.5%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J24" s="6" t="n">
@@ -3696,7 +3704,7 @@
       </c>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L24" s="7" t="n">
@@ -3743,7 +3751,7 @@
       </c>
       <c r="Z24" s="7" t="inlineStr">
         <is>
-          <t>108-46-3</t>
+          <t>361-09-1</t>
         </is>
       </c>
       <c r="AA24" s="6" t="n">
@@ -3751,7 +3759,7 @@
       </c>
       <c r="AB24" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC24" s="6" t="n">
@@ -3760,10 +3768,8 @@
       <c r="AD24" s="6" t="n">
         <v/>
       </c>
-      <c r="AE24" s="6" t="inlineStr">
-        <is>
-          <t>110.112 g/mol</t>
-        </is>
+      <c r="AE24" s="6" t="n">
+        <v/>
       </c>
       <c r="AF24" s="6" t="n">
         <v/>
@@ -3806,22 +3812,22 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>0210280890</t>
+          <t>0210301205</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol, 500 g MP Biomedical</t>
+          <t>Tetracycline, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J25" s="6" t="n">
@@ -3829,7 +3835,7 @@
       </c>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L25" s="7" t="n">
@@ -3876,16 +3882,14 @@
       </c>
       <c r="Z25" s="7" t="inlineStr">
         <is>
-          <t>108-46-3</t>
+          <t>60-54-8</t>
         </is>
       </c>
       <c r="AA25" s="6" t="n">
         <v/>
       </c>
-      <c r="AB25" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB25" s="6" t="n">
+        <v/>
       </c>
       <c r="AC25" s="6" t="n">
         <v/>
@@ -3895,7 +3899,7 @@
       </c>
       <c r="AE25" s="6" t="inlineStr">
         <is>
-          <t>110.112 g/mol</t>
+          <t>444.44 g/mol</t>
         </is>
       </c>
       <c r="AF25" s="6" t="n">
@@ -3912,12 +3916,12 @@
       </c>
       <c r="AJ25" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK25" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3943,22 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>02102897.5</t>
+          <t>0210371250</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin 30 Solution</t>
         </is>
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin 30 Solution</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
         <is>
-          <t>Cholic acid, sodium salt, ≥98.5%, 500 g MP Biomedical</t>
+          <t>Albumin, human, 30% solution, 50 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J26" s="6" t="n">
@@ -3962,7 +3966,7 @@
       </c>
       <c r="K26" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>50 mL</t>
         </is>
       </c>
       <c r="L26" s="7" t="n">
@@ -4009,16 +4013,14 @@
       </c>
       <c r="Z26" s="7" t="inlineStr">
         <is>
-          <t>361-09-1</t>
+          <t>70024-90-7</t>
         </is>
       </c>
       <c r="AA26" s="6" t="n">
         <v/>
       </c>
-      <c r="AB26" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB26" s="6" t="n">
+        <v/>
       </c>
       <c r="AC26" s="6" t="n">
         <v/>
@@ -4026,8 +4028,10 @@
       <c r="AD26" s="6" t="n">
         <v/>
       </c>
-      <c r="AE26" s="6" t="n">
-        <v/>
+      <c r="AE26" s="6" t="inlineStr">
+        <is>
+          <t>188.02 g/mol</t>
+        </is>
       </c>
       <c r="AF26" s="6" t="n">
         <v/>
@@ -4043,12 +4047,12 @@
       </c>
       <c r="AJ26" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK26" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4074,22 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>0210301205</t>
+          <t>0210488691</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss Carrageenan</t>
         </is>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss Carrageenan</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline, 5 g MP Biomedical</t>
+          <t>Irish moss (carrageenan), 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J27" s="6" t="n">
@@ -4093,7 +4097,7 @@
       </c>
       <c r="K27" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L27" s="7" t="n">
@@ -4140,7 +4144,7 @@
       </c>
       <c r="Z27" s="7" t="inlineStr">
         <is>
-          <t>60-54-8</t>
+          <t>9000-07-1</t>
         </is>
       </c>
       <c r="AA27" s="6" t="n">
@@ -4155,10 +4159,8 @@
       <c r="AD27" s="6" t="n">
         <v/>
       </c>
-      <c r="AE27" s="6" t="inlineStr">
-        <is>
-          <t>444.44 g/mol</t>
-        </is>
+      <c r="AE27" s="6" t="n">
+        <v/>
       </c>
       <c r="AF27" s="6" t="n">
         <v/>
@@ -4174,12 +4176,12 @@
       </c>
       <c r="AJ27" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK27" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -4201,22 +4203,22 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>0210371250</t>
+          <t>0210563301</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t>Albumin 30 Solution</t>
+          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>Albumin 30 Solution</t>
+          <t>8Anilino1Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="I28" s="6" t="inlineStr">
         <is>
-          <t>Albumin, human, 30% solution, 50 mL MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J28" s="6" t="n">
@@ -4224,7 +4226,7 @@
       </c>
       <c r="K28" s="6" t="inlineStr">
         <is>
-          <t>50 mL</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L28" s="7" t="n">
@@ -4271,7 +4273,7 @@
       </c>
       <c r="Z28" s="7" t="inlineStr">
         <is>
-          <t>70024-90-7</t>
+          <t>82-76-8</t>
         </is>
       </c>
       <c r="AA28" s="6" t="n">
@@ -4288,7 +4290,7 @@
       </c>
       <c r="AE28" s="6" t="inlineStr">
         <is>
-          <t>188.02 g/mol</t>
+          <t>299.344 g/mol</t>
         </is>
       </c>
       <c r="AF28" s="6" t="n">
@@ -4305,12 +4307,12 @@
       </c>
       <c r="AJ28" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK28" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -4332,22 +4334,22 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>0210488691</t>
+          <t>0210563310</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>Irish Moss Carrageenan</t>
+          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
         </is>
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>Irish Moss Carrageenan</t>
+          <t>8Anilino1Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
         <is>
-          <t>Irish moss (carrageenan), 1 kg MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J29" s="6" t="n">
@@ -4355,7 +4357,7 @@
       </c>
       <c r="K29" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L29" s="7" t="n">
@@ -4402,7 +4404,7 @@
       </c>
       <c r="Z29" s="7" t="inlineStr">
         <is>
-          <t>9000-07-1</t>
+          <t>82-76-8</t>
         </is>
       </c>
       <c r="AA29" s="6" t="n">
@@ -4417,8 +4419,10 @@
       <c r="AD29" s="6" t="n">
         <v/>
       </c>
-      <c r="AE29" s="6" t="n">
-        <v/>
+      <c r="AE29" s="6" t="inlineStr">
+        <is>
+          <t>299.344 g/mol</t>
+        </is>
       </c>
       <c r="AF29" s="6" t="n">
         <v/>
@@ -4461,7 +4465,7 @@
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>0210563301</t>
+          <t>0210563325</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -4476,7 +4480,7 @@
       </c>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 1 g MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J30" s="6" t="n">
@@ -4484,7 +4488,7 @@
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L30" s="7" t="n">
@@ -4592,22 +4596,22 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>0210563310</t>
+          <t>02150156.5</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
+          <t>Sodium Potassium Tartrate Tetr</t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>8Anilino1Naphthalene Sulfonic Acid</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 10 g MP Biomedical</t>
+          <t>Sodium potassium tartrate tetrahydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J31" s="6" t="n">
@@ -4615,7 +4619,7 @@
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L31" s="7" t="n">
@@ -4662,14 +4666,16 @@
       </c>
       <c r="Z31" s="7" t="inlineStr">
         <is>
-          <t>82-76-8</t>
+          <t>6381-59-5</t>
         </is>
       </c>
       <c r="AA31" s="6" t="n">
         <v/>
       </c>
-      <c r="AB31" s="6" t="n">
-        <v/>
+      <c r="AB31" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC31" s="6" t="n">
         <v/>
@@ -4679,7 +4685,7 @@
       </c>
       <c r="AE31" s="6" t="inlineStr">
         <is>
-          <t>299.344 g/mol</t>
+          <t>282.218 g/mol</t>
         </is>
       </c>
       <c r="AF31" s="6" t="n">
@@ -4723,22 +4729,22 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>0210563325</t>
+          <t>0215047783</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
+          <t>CAS Number 9041934</t>
         </is>
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>8Anilino1Naphthalene Sulfonic Acid</t>
+          <t>Broad spectrum nucleoside antibiotic Inhibits protein synthesis in prokaryotic and eukaryotic organisms Suitable for selection of cells carrying plasmids conferring blasticidin resistance</t>
         </is>
       </c>
       <c r="I32" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 25 g MP Biomedical</t>
+          <t>Blasticidin S hydrochloride, phytopure&amp;trade;, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J32" s="6" t="n">
@@ -4746,7 +4752,7 @@
       </c>
       <c r="K32" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L32" s="7" t="n">
@@ -4793,7 +4799,7 @@
       </c>
       <c r="Z32" s="7" t="inlineStr">
         <is>
-          <t>82-76-8</t>
+          <t>3513-03-9</t>
         </is>
       </c>
       <c r="AA32" s="6" t="n">
@@ -4810,7 +4816,7 @@
       </c>
       <c r="AE32" s="6" t="inlineStr">
         <is>
-          <t>299.344 g/mol</t>
+          <t>458.90</t>
         </is>
       </c>
       <c r="AF32" s="6" t="n">
@@ -4825,15 +4831,11 @@
       <c r="AI32" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ32" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
-      </c>
-      <c r="AK32" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
+      <c r="AJ32" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK32" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="21">
@@ -4854,22 +4856,22 @@
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>02150156.5</t>
+          <t>0215082501</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetr</t>
+          <t>33Diaminobenzidine Tetrahydroc</t>
         </is>
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>33Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="I33" s="6" t="inlineStr">
         <is>
-          <t>Sodium potassium tartrate tetrahydrate, 500 g MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J33" s="6" t="n">
@@ -4877,7 +4879,7 @@
       </c>
       <c r="K33" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L33" s="7" t="n">
@@ -4924,16 +4926,14 @@
       </c>
       <c r="Z33" s="7" t="inlineStr">
         <is>
-          <t>6381-59-5</t>
+          <t>7411-49-6</t>
         </is>
       </c>
       <c r="AA33" s="6" t="n">
         <v/>
       </c>
-      <c r="AB33" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB33" s="6" t="n">
+        <v/>
       </c>
       <c r="AC33" s="6" t="n">
         <v/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="AE33" s="6" t="inlineStr">
         <is>
-          <t>282.218 g/mol</t>
+          <t>360.104 g/mol</t>
         </is>
       </c>
       <c r="AF33" s="6" t="n">
@@ -4960,12 +4960,12 @@
       </c>
       <c r="AJ33" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK33" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -4987,22 +4987,22 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>0215047783</t>
+          <t>0215082505</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 9041934</t>
+          <t>33Diaminobenzidine Tetrahydroc</t>
         </is>
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>Broad spectrum nucleoside antibiotic Inhibits protein synthesis in prokaryotic and eukaryotic organisms Suitable for selection of cells carrying plasmids conferring blasticidin resistance</t>
+          <t>33Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>Blasticidin S hydrochloride, phytopure&amp;trade;, 250 mg MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J34" s="6" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L34" s="7" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="Z34" s="7" t="inlineStr">
         <is>
-          <t>3513-03-9</t>
+          <t>7411-49-6</t>
         </is>
       </c>
       <c r="AA34" s="6" t="n">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="AE34" s="6" t="inlineStr">
         <is>
-          <t>458.90</t>
+          <t>360.104 g/mol</t>
         </is>
       </c>
       <c r="AF34" s="6" t="n">
@@ -5089,11 +5089,15 @@
       <c r="AI34" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ34" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK34" s="6" t="n">
-        <v/>
+      <c r="AJ34" s="6" t="inlineStr">
+        <is>
+          <t>-30C to -2C</t>
+        </is>
+      </c>
+      <c r="AK34" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="21">
@@ -5114,7 +5118,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>0215082501</t>
+          <t>0215082510</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -5129,7 +5133,7 @@
       </c>
       <c r="I35" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 1 g MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J35" s="6" t="n">
@@ -5137,7 +5141,7 @@
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L35" s="7" t="n">
@@ -5245,22 +5249,22 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>0215082505</t>
+          <t>02151187.1</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydroc</t>
+          <t>Glucose6Phosphate Dehydrogenas</t>
         </is>
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose6Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="I36" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 5 g MP Biomedical</t>
+          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 100 U MP Biomedical</t>
         </is>
       </c>
       <c r="J36" s="6" t="n">
@@ -5268,7 +5272,7 @@
       </c>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 U</t>
         </is>
       </c>
       <c r="L36" s="7" t="n">
@@ -5315,7 +5319,7 @@
       </c>
       <c r="Z36" s="7" t="inlineStr">
         <is>
-          <t>7411-49-6</t>
+          <t>9001-40-5</t>
         </is>
       </c>
       <c r="AA36" s="6" t="n">
@@ -5330,10 +5334,8 @@
       <c r="AD36" s="6" t="n">
         <v/>
       </c>
-      <c r="AE36" s="6" t="inlineStr">
-        <is>
-          <t>360.104 g/mol</t>
-        </is>
+      <c r="AE36" s="6" t="n">
+        <v/>
       </c>
       <c r="AF36" s="6" t="n">
         <v/>
@@ -5354,7 +5356,7 @@
       </c>
       <c r="AK36" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -5376,22 +5378,22 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>0215082510</t>
+          <t>02151187.5</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydroc</t>
+          <t>Glucose6Phosphate Dehydrogenas</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose6Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="I37" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 10 g MP Biomedical</t>
+          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 500 U MP Biomedical</t>
         </is>
       </c>
       <c r="J37" s="6" t="n">
@@ -5399,7 +5401,7 @@
       </c>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>500 U</t>
         </is>
       </c>
       <c r="L37" s="7" t="n">
@@ -5446,7 +5448,7 @@
       </c>
       <c r="Z37" s="7" t="inlineStr">
         <is>
-          <t>7411-49-6</t>
+          <t>9001-40-5</t>
         </is>
       </c>
       <c r="AA37" s="6" t="n">
@@ -5461,10 +5463,8 @@
       <c r="AD37" s="6" t="n">
         <v/>
       </c>
-      <c r="AE37" s="6" t="inlineStr">
-        <is>
-          <t>360.104 g/mol</t>
-        </is>
+      <c r="AE37" s="6" t="n">
+        <v/>
       </c>
       <c r="AF37" s="6" t="n">
         <v/>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="AK37" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -5507,22 +5507,22 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>02151187.1</t>
+          <t>0215139383</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenas</t>
+          <t>αKetoglutaric Acid Disodium Sa</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenase</t>
+          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="I38" s="6" t="inlineStr">
         <is>
-          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 100 U MP Biomedical</t>
+          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J38" s="6" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>100 U</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L38" s="7" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="Z38" s="7" t="inlineStr">
         <is>
-          <t>9001-40-5</t>
+          <t>328-50-7</t>
         </is>
       </c>
       <c r="AA38" s="6" t="n">
@@ -5592,8 +5592,10 @@
       <c r="AD38" s="6" t="n">
         <v/>
       </c>
-      <c r="AE38" s="6" t="n">
-        <v/>
+      <c r="AE38" s="6" t="inlineStr">
+        <is>
+          <t>146.098 g/mol</t>
+        </is>
       </c>
       <c r="AF38" s="6" t="n">
         <v/>
@@ -5609,12 +5611,12 @@
       </c>
       <c r="AJ38" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK38" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5638,22 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>02151187.5</t>
+          <t>0215139390</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenas</t>
+          <t>αKetoglutaric Acid Disodium Sa</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenase</t>
+          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="I39" s="6" t="inlineStr">
         <is>
-          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 500 U MP Biomedical</t>
+          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J39" s="6" t="n">
@@ -5659,7 +5661,7 @@
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>500 U</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L39" s="7" t="n">
@@ -5706,7 +5708,7 @@
       </c>
       <c r="Z39" s="7" t="inlineStr">
         <is>
-          <t>9001-40-5</t>
+          <t>328-50-7</t>
         </is>
       </c>
       <c r="AA39" s="6" t="n">
@@ -5721,8 +5723,10 @@
       <c r="AD39" s="6" t="n">
         <v/>
       </c>
-      <c r="AE39" s="6" t="n">
-        <v/>
+      <c r="AE39" s="6" t="inlineStr">
+        <is>
+          <t>146.098 g/mol</t>
+        </is>
       </c>
       <c r="AF39" s="6" t="n">
         <v/>
@@ -5738,12 +5742,12 @@
       </c>
       <c r="AJ39" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK39" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -5765,22 +5769,22 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>0215139383</t>
+          <t>0215156180</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Sa</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="I40" s="6" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 250 g MP Biomedical</t>
+          <t>Lithium bromide, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J40" s="6" t="n">
@@ -5788,7 +5792,7 @@
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L40" s="7" t="n">
@@ -5835,7 +5839,7 @@
       </c>
       <c r="Z40" s="7" t="inlineStr">
         <is>
-          <t>328-50-7</t>
+          <t>7550-35-8</t>
         </is>
       </c>
       <c r="AA40" s="6" t="n">
@@ -5852,7 +5856,7 @@
       </c>
       <c r="AE40" s="6" t="inlineStr">
         <is>
-          <t>146.098 g/mol</t>
+          <t>86.844 g/mol</t>
         </is>
       </c>
       <c r="AF40" s="6" t="n">
@@ -5869,12 +5873,12 @@
       </c>
       <c r="AJ40" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK40" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -5896,22 +5900,22 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>0215139390</t>
+          <t>0215156190</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Sa</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="I41" s="6" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 500 g MP Biomedical</t>
+          <t>Lithium bromide, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J41" s="6" t="n">
@@ -5966,7 +5970,7 @@
       </c>
       <c r="Z41" s="7" t="inlineStr">
         <is>
-          <t>328-50-7</t>
+          <t>7550-35-8</t>
         </is>
       </c>
       <c r="AA41" s="6" t="n">
@@ -5983,7 +5987,7 @@
       </c>
       <c r="AE41" s="6" t="inlineStr">
         <is>
-          <t>146.098 g/mol</t>
+          <t>86.844 g/mol</t>
         </is>
       </c>
       <c r="AF41" s="6" t="n">
@@ -6000,12 +6004,12 @@
       </c>
       <c r="AJ41" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK41" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6031,7 @@
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>0215156180</t>
+          <t>0215156191</t>
         </is>
       </c>
       <c r="G42" s="6" t="inlineStr">
@@ -6042,7 +6046,7 @@
       </c>
       <c r="I42" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 100 g MP Biomedical</t>
+          <t>Lithium bromide, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J42" s="6" t="n">
@@ -6050,7 +6054,7 @@
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L42" s="7" t="n">
@@ -6158,22 +6162,22 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>0215156190</t>
+          <t>0215186401</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="I43" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 500 g MP Biomedical</t>
+          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 1 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J43" s="6" t="n">
@@ -6181,7 +6185,7 @@
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="L43" s="7" t="n">
@@ -6228,14 +6232,16 @@
       </c>
       <c r="Z43" s="7" t="inlineStr">
         <is>
-          <t>7550-35-8</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA43" s="6" t="n">
         <v/>
       </c>
-      <c r="AB43" s="6" t="n">
-        <v/>
+      <c r="AB43" s="6" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
       </c>
       <c r="AC43" s="6" t="n">
         <v/>
@@ -6245,7 +6251,7 @@
       </c>
       <c r="AE43" s="6" t="inlineStr">
         <is>
-          <t>86.844 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF43" s="6" t="n">
@@ -6262,12 +6268,12 @@
       </c>
       <c r="AJ43" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK43" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -6289,22 +6295,22 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>0215156191</t>
+          <t>0215186405</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="I44" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 1 kg MP Biomedical</t>
+          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 5 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J44" s="6" t="n">
@@ -6312,7 +6318,7 @@
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="L44" s="7" t="n">
@@ -6359,14 +6365,16 @@
       </c>
       <c r="Z44" s="7" t="inlineStr">
         <is>
-          <t>7550-35-8</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA44" s="6" t="n">
         <v/>
       </c>
-      <c r="AB44" s="6" t="n">
-        <v/>
+      <c r="AB44" s="6" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
       </c>
       <c r="AC44" s="6" t="n">
         <v/>
@@ -6376,7 +6384,7 @@
       </c>
       <c r="AE44" s="6" t="inlineStr">
         <is>
-          <t>86.844 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF44" s="6" t="n">
@@ -6393,12 +6401,12 @@
       </c>
       <c r="AJ44" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK44" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -6420,22 +6428,22 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>0215186401</t>
+          <t>02151944.2</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 1 mg MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J45" s="6" t="n">
@@ -6443,7 +6451,7 @@
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L45" s="7" t="n">
@@ -6490,7 +6498,7 @@
       </c>
       <c r="Z45" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>7447-40-7</t>
         </is>
       </c>
       <c r="AA45" s="6" t="n">
@@ -6509,7 +6517,7 @@
       </c>
       <c r="AE45" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>74.548 g/mol</t>
         </is>
       </c>
       <c r="AF45" s="6" t="n">
@@ -6526,12 +6534,12 @@
       </c>
       <c r="AJ45" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK45" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6561,22 @@
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>0215186405</t>
+          <t>02151944.5</t>
         </is>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 5 mg MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J46" s="6" t="n">
@@ -6576,7 +6584,7 @@
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L46" s="7" t="n">
@@ -6623,7 +6631,7 @@
       </c>
       <c r="Z46" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>7447-40-7</t>
         </is>
       </c>
       <c r="AA46" s="6" t="n">
@@ -6642,7 +6650,7 @@
       </c>
       <c r="AE46" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>74.548 g/mol</t>
         </is>
       </c>
       <c r="AF46" s="6" t="n">
@@ -6659,12 +6667,12 @@
       </c>
       <c r="AJ46" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK46" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6694,7 @@
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
-          <t>02151944.2</t>
+          <t>0215194405</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr">
@@ -6701,7 +6709,7 @@
       </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 250 g MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J47" s="6" t="n">
@@ -6709,7 +6717,7 @@
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L47" s="7" t="n">
@@ -6819,22 +6827,22 @@
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>02151944.5</t>
+          <t>0215233591</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromato</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealandsourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality Transferrin HOLO is an ironrich product supplied as a heattreated lyophilised powder</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 500 g MP Biomedical</t>
+          <t>Transferrin, bovine (holo), 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J48" s="6" t="n">
@@ -6842,7 +6850,7 @@
       </c>
       <c r="K48" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L48" s="7" t="n">
@@ -6887,17 +6895,15 @@
       <c r="Y48" s="6" t="n">
         <v/>
       </c>
-      <c r="Z48" s="7" t="inlineStr">
-        <is>
-          <t>7447-40-7</t>
-        </is>
+      <c r="Z48" s="7" t="n">
+        <v/>
       </c>
       <c r="AA48" s="6" t="n">
         <v/>
       </c>
       <c r="AB48" s="6" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>&amp;ge;95% Transferrin w/w protein</t>
         </is>
       </c>
       <c r="AC48" s="6" t="n">
@@ -6908,11 +6914,13 @@
       </c>
       <c r="AE48" s="6" t="inlineStr">
         <is>
-          <t>74.548 g/mol</t>
-        </is>
-      </c>
-      <c r="AF48" s="6" t="n">
-        <v/>
+          <t>Approximately 76,000 - 81,000 (Lit.)</t>
+        </is>
+      </c>
+      <c r="AF48" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein (anhydrous) &amp;ge;95% w/w total protein</t>
+        </is>
       </c>
       <c r="AG48" s="6" t="n">
         <v/>
@@ -6925,12 +6933,12 @@
       </c>
       <c r="AJ48" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK48" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -6952,22 +6960,20 @@
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
-          <t>0215194405</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
-        <is>
-          <t>Potassium Chloride</t>
-        </is>
+          <t>0215245525</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v/>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS 3morpholinopropanesulfonic acid differing by the presence of a hydroxyl group on C2 of the propane moiety</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 5 kg MP Biomedical</t>
+          <t>MOPSO, sodium salt , 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J49" s="6" t="n">
@@ -6975,7 +6981,7 @@
       </c>
       <c r="K49" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L49" s="7" t="n">
@@ -7022,7 +7028,7 @@
       </c>
       <c r="Z49" s="7" t="inlineStr">
         <is>
-          <t>7447-40-7</t>
+          <t>79803-73-9</t>
         </is>
       </c>
       <c r="AA49" s="6" t="n">
@@ -7030,7 +7036,7 @@
       </c>
       <c r="AB49" s="6" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>&amp;ge;99.0%</t>
         </is>
       </c>
       <c r="AC49" s="6" t="n">
@@ -7041,7 +7047,7 @@
       </c>
       <c r="AE49" s="6" t="inlineStr">
         <is>
-          <t>74.548 g/mol</t>
+          <t>247.2</t>
         </is>
       </c>
       <c r="AF49" s="6" t="n">
@@ -7085,22 +7091,22 @@
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
-          <t>0215233591</t>
+          <t>0215245610</t>
         </is>
       </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromato</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="H50" s="6" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealandsourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality Transferrin HOLO is an ironrich product supplied as a heattreated lyophilised powder</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="I50" s="6" t="inlineStr">
         <is>
-          <t>Transferrin, bovine (holo), 1 g MP Biomedical</t>
+          <t>PIPES sesquisodium salt, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J50" s="6" t="n">
@@ -7108,7 +7114,7 @@
       </c>
       <c r="K50" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L50" s="7" t="n">
@@ -7153,16 +7159,16 @@
       <c r="Y50" s="6" t="n">
         <v/>
       </c>
-      <c r="Z50" s="7" t="n">
-        <v/>
+      <c r="Z50" s="7" t="inlineStr">
+        <is>
+          <t>100037-69-2</t>
+        </is>
       </c>
       <c r="AA50" s="6" t="n">
         <v/>
       </c>
-      <c r="AB50" s="6" t="inlineStr">
-        <is>
-          <t>&amp;ge;95% Transferrin w/w protein</t>
-        </is>
+      <c r="AB50" s="6" t="n">
+        <v/>
       </c>
       <c r="AC50" s="6" t="n">
         <v/>
@@ -7172,13 +7178,11 @@
       </c>
       <c r="AE50" s="6" t="inlineStr">
         <is>
-          <t>Approximately 76,000 - 81,000 (Lit.)</t>
-        </is>
-      </c>
-      <c r="AF50" s="6" t="inlineStr">
-        <is>
-          <t>Total Protein (anhydrous) &amp;ge;95% w/w total protein</t>
-        </is>
+          <t>670.665 g/mol</t>
+        </is>
+      </c>
+      <c r="AF50" s="6" t="n">
+        <v/>
       </c>
       <c r="AG50" s="6" t="n">
         <v/>
@@ -7191,12 +7195,12 @@
       </c>
       <c r="AJ50" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK50" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -7218,7 +7222,7 @@
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
-          <t>0215245525</t>
+          <t>0215250305</t>
         </is>
       </c>
       <c r="G51" s="6" t="n">
@@ -7226,12 +7230,12 @@
       </c>
       <c r="H51" s="6" t="inlineStr">
         <is>
-          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS 3morpholinopropanesulfonic acid differing by the presence of a hydroxyl group on C2 of the propane moiety</t>
+          <t>Bromocresol Green is a dye of the triphenylmethane family triarylmethane dyes It binds quantitatively with human albumin forming an intense bluegreen complex with an absorbance maximum at 628 nm</t>
         </is>
       </c>
       <c r="I51" s="6" t="inlineStr">
         <is>
-          <t>MOPSO, sodium salt , 25 g MP Biomedical</t>
+          <t>Bromocresol Green, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J51" s="6" t="n">
@@ -7239,7 +7243,7 @@
       </c>
       <c r="K51" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L51" s="7" t="n">
@@ -7286,16 +7290,14 @@
       </c>
       <c r="Z51" s="7" t="inlineStr">
         <is>
-          <t>79803-73-9</t>
+          <t>62625-32-5</t>
         </is>
       </c>
       <c r="AA51" s="6" t="n">
         <v/>
       </c>
-      <c r="AB51" s="6" t="inlineStr">
-        <is>
-          <t>&amp;ge;99.0%</t>
-        </is>
+      <c r="AB51" s="6" t="n">
+        <v/>
       </c>
       <c r="AC51" s="6" t="n">
         <v/>
@@ -7305,7 +7307,7 @@
       </c>
       <c r="AE51" s="6" t="inlineStr">
         <is>
-          <t>247.2</t>
+          <t>720.0</t>
         </is>
       </c>
       <c r="AF51" s="6" t="n">
@@ -7349,22 +7351,20 @@
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
-          <t>0215245610</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>Pipes Sesquisodium Salt</t>
-        </is>
+          <t>0215250625</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v/>
       </c>
       <c r="H52" s="6" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
         </is>
       </c>
       <c r="I52" s="6" t="inlineStr">
         <is>
-          <t>PIPES sesquisodium salt, 10 g MP Biomedical</t>
+          <t>Bromophenol blue, sodium salt, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J52" s="6" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="K52" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L52" s="7" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="Z52" s="7" t="inlineStr">
         <is>
-          <t>100037-69-2</t>
+          <t>34725-61-6</t>
         </is>
       </c>
       <c r="AA52" s="6" t="n">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="AE52" s="6" t="inlineStr">
         <is>
-          <t>670.665 g/mol</t>
+          <t>692.0</t>
         </is>
       </c>
       <c r="AF52" s="6" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
-          <t>0215250305</t>
+          <t>0215250650</t>
         </is>
       </c>
       <c r="G53" s="6" t="n">
@@ -7488,12 +7488,12 @@
       </c>
       <c r="H53" s="6" t="inlineStr">
         <is>
-          <t>Bromocresol Green is a dye of the triphenylmethane family triarylmethane dyes It binds quantitatively with human albumin forming an intense bluegreen complex with an absorbance maximum at 628 nm</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
         </is>
       </c>
       <c r="I53" s="6" t="inlineStr">
         <is>
-          <t>Bromocresol Green, 5 g MP Biomedical</t>
+          <t>Bromophenol blue, sodium salt, 50 g MP Biomedical</t>
         </is>
       </c>
       <c r="J53" s="6" t="n">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="K53" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="L53" s="7" t="n">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="Z53" s="7" t="inlineStr">
         <is>
-          <t>62625-32-5</t>
+          <t>34725-61-6</t>
         </is>
       </c>
       <c r="AA53" s="6" t="n">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="AE53" s="6" t="inlineStr">
         <is>
-          <t>720.0</t>
+          <t>692.0</t>
         </is>
       </c>
       <c r="AF53" s="6" t="n">
@@ -7609,20 +7609,22 @@
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>0215250625</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="n">
-        <v/>
+          <t>0215252191</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>Ethylenediamine Tetraacetic Ac</t>
+        </is>
       </c>
       <c r="H54" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="I54" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue, sodium salt, 25 g MP Biomedical</t>
+          <t>Ethylenediamine, tetraacetic acid, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J54" s="6" t="n">
@@ -7630,7 +7632,7 @@
       </c>
       <c r="K54" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L54" s="7" t="n">
@@ -7677,14 +7679,16 @@
       </c>
       <c r="Z54" s="7" t="inlineStr">
         <is>
-          <t>34725-61-6</t>
+          <t>6381-92-6</t>
         </is>
       </c>
       <c r="AA54" s="6" t="n">
         <v/>
       </c>
-      <c r="AB54" s="6" t="n">
-        <v/>
+      <c r="AB54" s="6" t="inlineStr">
+        <is>
+          <t>≥99.4%</t>
+        </is>
       </c>
       <c r="AC54" s="6" t="n">
         <v/>
@@ -7694,7 +7698,7 @@
       </c>
       <c r="AE54" s="6" t="inlineStr">
         <is>
-          <t>692.0</t>
+          <t>372.238 g/mol</t>
         </is>
       </c>
       <c r="AF54" s="6" t="n">
@@ -7738,20 +7742,22 @@
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>0215250650</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="n">
-        <v/>
+          <t>0215255280</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>Oxalic Acid Dihydrate</t>
+        </is>
       </c>
       <c r="H55" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
+          <t>Oxalic Acid Dihydrate</t>
         </is>
       </c>
       <c r="I55" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue, sodium salt, 50 g MP Biomedical</t>
+          <t>Oxalic acid, dihydrate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J55" s="6" t="n">
@@ -7759,7 +7765,7 @@
       </c>
       <c r="K55" s="6" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L55" s="7" t="n">
@@ -7806,7 +7812,7 @@
       </c>
       <c r="Z55" s="7" t="inlineStr">
         <is>
-          <t>34725-61-6</t>
+          <t>6153-56-6</t>
         </is>
       </c>
       <c r="AA55" s="6" t="n">
@@ -7823,7 +7829,7 @@
       </c>
       <c r="AE55" s="6" t="inlineStr">
         <is>
-          <t>692.0</t>
+          <t>126.064 g/mol</t>
         </is>
       </c>
       <c r="AF55" s="6" t="n">
@@ -7867,22 +7873,22 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>0215252191</t>
+          <t>0215263880</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Ac</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="H56" s="6" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="I56" s="6" t="inlineStr">
         <is>
-          <t>Ethylenediamine, tetraacetic acid, 1 kg MP Biomedical</t>
+          <t>Indigo carmine, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J56" s="6" t="n">
@@ -7890,7 +7896,7 @@
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L56" s="7" t="n">
@@ -7937,16 +7943,14 @@
       </c>
       <c r="Z56" s="7" t="inlineStr">
         <is>
-          <t>6381-92-6</t>
+          <t>860-22-0</t>
         </is>
       </c>
       <c r="AA56" s="6" t="n">
         <v/>
       </c>
-      <c r="AB56" s="6" t="inlineStr">
-        <is>
-          <t>≥99.4%</t>
-        </is>
+      <c r="AB56" s="6" t="n">
+        <v/>
       </c>
       <c r="AC56" s="6" t="n">
         <v/>
@@ -7956,7 +7960,7 @@
       </c>
       <c r="AE56" s="6" t="inlineStr">
         <is>
-          <t>372.238 g/mol</t>
+          <t>466.346 g/mol</t>
         </is>
       </c>
       <c r="AF56" s="6" t="n">
@@ -8000,22 +8004,20 @@
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>0215255280</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr">
-        <is>
-          <t>Oxalic Acid Dihydrate</t>
-        </is>
+          <t>0215268105</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v/>
       </c>
       <c r="H57" s="6" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
+          <t>TEMPO reacts preferentially with carboncentered radicals</t>
         </is>
       </c>
       <c r="I57" s="6" t="inlineStr">
         <is>
-          <t>Oxalic acid, dihydrate, 100 g MP Biomedical</t>
+          <t>TEMPO, catalytic oxidant, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J57" s="6" t="n">
@@ -8023,7 +8025,7 @@
       </c>
       <c r="K57" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L57" s="7" t="n">
@@ -8070,7 +8072,7 @@
       </c>
       <c r="Z57" s="7" t="inlineStr">
         <is>
-          <t>6153-56-6</t>
+          <t>2564-83-2</t>
         </is>
       </c>
       <c r="AA57" s="6" t="n">
@@ -8087,7 +8089,7 @@
       </c>
       <c r="AE57" s="6" t="inlineStr">
         <is>
-          <t>126.064 g/mol</t>
+          <t>156.25</t>
         </is>
       </c>
       <c r="AF57" s="6" t="n">
@@ -8104,12 +8106,12 @@
       </c>
       <c r="AJ57" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK57" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -8131,22 +8133,20 @@
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
-          <t>0215263880</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="inlineStr">
-        <is>
-          <t>Indigo Carmine</t>
-        </is>
+          <t>0215268125</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v/>
       </c>
       <c r="H58" s="6" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>TEMPO reacts preferentially with carboncentered radicals</t>
         </is>
       </c>
       <c r="I58" s="6" t="inlineStr">
         <is>
-          <t>Indigo carmine, 100 g MP Biomedical</t>
+          <t>TEMPO, catalytic oxidant, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J58" s="6" t="n">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="K58" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L58" s="7" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="Z58" s="7" t="inlineStr">
         <is>
-          <t>860-22-0</t>
+          <t>2564-83-2</t>
         </is>
       </c>
       <c r="AA58" s="6" t="n">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="AE58" s="6" t="inlineStr">
         <is>
-          <t>466.346 g/mol</t>
+          <t>156.25</t>
         </is>
       </c>
       <c r="AF58" s="6" t="n">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="AJ58" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK58" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -8262,20 +8262,22 @@
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>0215268105</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="n">
-        <v/>
+          <t>0215269090</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>PolyLlysine is a nonspecific a</t>
+        </is>
       </c>
       <c r="H59" s="6" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carboncentered radicals</t>
+          <t>PolyLLysine Hydrochloride</t>
         </is>
       </c>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>TEMPO, catalytic oxidant, 5 g MP Biomedical</t>
+          <t>Poly-L-lysine hydrobromide, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J59" s="6" t="n">
@@ -8283,7 +8285,7 @@
       </c>
       <c r="K59" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L59" s="7" t="n">
@@ -8330,7 +8332,7 @@
       </c>
       <c r="Z59" s="7" t="inlineStr">
         <is>
-          <t>2564-83-2</t>
+          <t>26124-78-7</t>
         </is>
       </c>
       <c r="AA59" s="6" t="n">
@@ -8345,10 +8347,8 @@
       <c r="AD59" s="6" t="n">
         <v/>
       </c>
-      <c r="AE59" s="6" t="inlineStr">
-        <is>
-          <t>156.25</t>
-        </is>
+      <c r="AE59" s="6" t="n">
+        <v/>
       </c>
       <c r="AF59" s="6" t="n">
         <v/>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="AJ59" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK59" s="6" t="inlineStr">
@@ -8391,20 +8391,22 @@
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
-          <t>0215268125</t>
-        </is>
-      </c>
-      <c r="G60" s="6" t="n">
-        <v/>
+          <t>0215394601</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>Stachyose Tetrahydrate</t>
+        </is>
       </c>
       <c r="H60" s="6" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carboncentered radicals</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="I60" s="6" t="inlineStr">
         <is>
-          <t>TEMPO, catalytic oxidant, 25 g MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 1 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J60" s="6" t="n">
@@ -8412,7 +8414,7 @@
       </c>
       <c r="K60" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="L60" s="7" t="n">
@@ -8459,7 +8461,7 @@
       </c>
       <c r="Z60" s="7" t="inlineStr">
         <is>
-          <t>2564-83-2</t>
+          <t>10094-58-3</t>
         </is>
       </c>
       <c r="AA60" s="6" t="n">
@@ -8476,7 +8478,7 @@
       </c>
       <c r="AE60" s="6" t="inlineStr">
         <is>
-          <t>156.25</t>
+          <t>738.639 g/mol</t>
         </is>
       </c>
       <c r="AF60" s="6" t="n">
@@ -8493,12 +8495,12 @@
       </c>
       <c r="AJ60" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK60" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -8520,22 +8522,22 @@
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
-          <t>0215269090</t>
+          <t>0215394680</t>
         </is>
       </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
-          <t>PolyLlysine is a nonspecific a</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="H61" s="6" t="inlineStr">
         <is>
-          <t>PolyLLysine Hydrochloride</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Poly-L-lysine hydrobromide, 500 mg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 100 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J61" s="6" t="n">
@@ -8543,7 +8545,7 @@
       </c>
       <c r="K61" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="L61" s="7" t="n">
@@ -8590,7 +8592,7 @@
       </c>
       <c r="Z61" s="7" t="inlineStr">
         <is>
-          <t>26124-78-7</t>
+          <t>10094-58-3</t>
         </is>
       </c>
       <c r="AA61" s="6" t="n">
@@ -8605,8 +8607,10 @@
       <c r="AD61" s="6" t="n">
         <v/>
       </c>
-      <c r="AE61" s="6" t="n">
-        <v/>
+      <c r="AE61" s="6" t="inlineStr">
+        <is>
+          <t>738.639 g/mol</t>
+        </is>
       </c>
       <c r="AF61" s="6" t="n">
         <v/>
@@ -8622,12 +8626,12 @@
       </c>
       <c r="AJ61" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK61" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8653,7 @@
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
-          <t>0215394601</t>
+          <t>0215394690</t>
         </is>
       </c>
       <c r="G62" s="6" t="inlineStr">
@@ -8664,7 +8668,7 @@
       </c>
       <c r="I62" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 1 mg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J62" s="6" t="n">
@@ -8672,7 +8676,7 @@
       </c>
       <c r="K62" s="6" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L62" s="7" t="n">
@@ -8780,7 +8784,7 @@
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
-          <t>0215394680</t>
+          <t>0215394691</t>
         </is>
       </c>
       <c r="G63" s="6" t="inlineStr">
@@ -8795,7 +8799,7 @@
       </c>
       <c r="I63" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 100 mg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J63" s="6" t="n">
@@ -8803,7 +8807,7 @@
       </c>
       <c r="K63" s="6" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L63" s="7" t="n">
@@ -8911,22 +8915,22 @@
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
-          <t>0215394690</t>
+          <t>02154263.2</t>
         </is>
       </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="H64" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="I64" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 500 mg MP Biomedical</t>
+          <t>Bumetanide, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J64" s="6" t="n">
@@ -8934,7 +8938,7 @@
       </c>
       <c r="K64" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L64" s="7" t="n">
@@ -8981,14 +8985,16 @@
       </c>
       <c r="Z64" s="7" t="inlineStr">
         <is>
-          <t>10094-58-3</t>
+          <t>28395-03-1</t>
         </is>
       </c>
       <c r="AA64" s="6" t="n">
         <v/>
       </c>
-      <c r="AB64" s="6" t="n">
-        <v/>
+      <c r="AB64" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC64" s="6" t="n">
         <v/>
@@ -8998,7 +9004,7 @@
       </c>
       <c r="AE64" s="6" t="inlineStr">
         <is>
-          <t>738.639 g/mol</t>
+          <t>364.416 g/mol</t>
         </is>
       </c>
       <c r="AF64" s="6" t="n">
@@ -9015,12 +9021,12 @@
       </c>
       <c r="AJ64" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK64" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9042,22 +9048,22 @@
       </c>
       <c r="F65" s="6" t="inlineStr">
         <is>
-          <t>0215394691</t>
+          <t>0215457180</t>
         </is>
       </c>
       <c r="G65" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t xml:space="preserve">Epidermal Growth Factor Human </t>
         </is>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Epidermal Growth Factor Human Recombinant</t>
         </is>
       </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 1 g MP Biomedical</t>
+          <t>Epidermal growth factor, human, recombinant, ≥98%, 100 μg MP Biomedical</t>
         </is>
       </c>
       <c r="J65" s="6" t="n">
@@ -9065,7 +9071,7 @@
       </c>
       <c r="K65" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>100 μg</t>
         </is>
       </c>
       <c r="L65" s="7" t="n">
@@ -9089,8 +9095,10 @@
       <c r="R65" s="6" t="n">
         <v/>
       </c>
-      <c r="S65" s="6" t="n">
-        <v/>
+      <c r="S65" s="6" t="inlineStr">
+        <is>
+          <t>recombinant</t>
+        </is>
       </c>
       <c r="T65" s="6" t="n">
         <v/>
@@ -9112,14 +9120,16 @@
       </c>
       <c r="Z65" s="7" t="inlineStr">
         <is>
-          <t>10094-58-3</t>
+          <t>62229-50-9</t>
         </is>
       </c>
       <c r="AA65" s="6" t="n">
         <v/>
       </c>
-      <c r="AB65" s="6" t="n">
-        <v/>
+      <c r="AB65" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC65" s="6" t="n">
         <v/>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="AE65" s="6" t="inlineStr">
         <is>
-          <t>738.639 g/mol</t>
+          <t>6045.723 g/mol</t>
         </is>
       </c>
       <c r="AF65" s="6" t="n">
@@ -9146,12 +9156,12 @@
       </c>
       <c r="AJ65" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK65" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9173,22 +9183,22 @@
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
-          <t>02154263.2</t>
+          <t>0215485580</t>
         </is>
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="I66" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide, 250 mg MP Biomedical</t>
+          <t>Biebrich Scarlet, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J66" s="6" t="n">
@@ -9196,7 +9206,7 @@
       </c>
       <c r="K66" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L66" s="7" t="n">
@@ -9243,16 +9253,14 @@
       </c>
       <c r="Z66" s="7" t="inlineStr">
         <is>
-          <t>28395-03-1</t>
+          <t>4196-99-0</t>
         </is>
       </c>
       <c r="AA66" s="6" t="n">
         <v/>
       </c>
-      <c r="AB66" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB66" s="6" t="n">
+        <v/>
       </c>
       <c r="AC66" s="6" t="n">
         <v/>
@@ -9262,7 +9270,7 @@
       </c>
       <c r="AE66" s="6" t="inlineStr">
         <is>
-          <t>364.416 g/mol</t>
+          <t>556.475 g/mol</t>
         </is>
       </c>
       <c r="AF66" s="6" t="n">
@@ -9279,12 +9287,12 @@
       </c>
       <c r="AJ66" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK66" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9306,22 +9314,22 @@
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
-          <t>0215457180</t>
+          <t>0215624380</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epidermal Growth Factor Human </t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor Human Recombinant</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="I67" s="6" t="inlineStr">
         <is>
-          <t>Epidermal growth factor, human, recombinant, ≥98%, 100 μg MP Biomedical</t>
+          <t>Phosphotungstic acid, hydrate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J67" s="6" t="n">
@@ -9329,7 +9337,7 @@
       </c>
       <c r="K67" s="6" t="inlineStr">
         <is>
-          <t>100 μg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L67" s="7" t="n">
@@ -9353,10 +9361,8 @@
       <c r="R67" s="6" t="n">
         <v/>
       </c>
-      <c r="S67" s="6" t="inlineStr">
-        <is>
-          <t>recombinant</t>
-        </is>
+      <c r="S67" s="6" t="n">
+        <v/>
       </c>
       <c r="T67" s="6" t="n">
         <v/>
@@ -9378,16 +9384,14 @@
       </c>
       <c r="Z67" s="7" t="inlineStr">
         <is>
-          <t>62229-50-9</t>
+          <t>12501-23-4</t>
         </is>
       </c>
       <c r="AA67" s="6" t="n">
         <v/>
       </c>
-      <c r="AB67" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB67" s="6" t="n">
+        <v/>
       </c>
       <c r="AC67" s="6" t="n">
         <v/>
@@ -9397,7 +9401,7 @@
       </c>
       <c r="AE67" s="6" t="inlineStr">
         <is>
-          <t>6045.723 g/mol</t>
+          <t>2898.053 g/mol</t>
         </is>
       </c>
       <c r="AF67" s="6" t="n">
@@ -9414,12 +9418,12 @@
       </c>
       <c r="AJ67" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK67" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9441,22 +9445,22 @@
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
-          <t>0215485580</t>
+          <t>0215624383</t>
         </is>
       </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="I68" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet, 100 g MP Biomedical</t>
+          <t>Phosphotungstic acid, hydrate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J68" s="6" t="n">
@@ -9464,7 +9468,7 @@
       </c>
       <c r="K68" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L68" s="7" t="n">
@@ -9511,7 +9515,7 @@
       </c>
       <c r="Z68" s="7" t="inlineStr">
         <is>
-          <t>4196-99-0</t>
+          <t>12501-23-4</t>
         </is>
       </c>
       <c r="AA68" s="6" t="n">
@@ -9528,7 +9532,7 @@
       </c>
       <c r="AE68" s="6" t="inlineStr">
         <is>
-          <t>556.475 g/mol</t>
+          <t>2898.053 g/mol</t>
         </is>
       </c>
       <c r="AF68" s="6" t="n">
@@ -9572,22 +9576,22 @@
       </c>
       <c r="F69" s="6" t="inlineStr">
         <is>
-          <t>0215624380</t>
+          <t>0215653480</t>
         </is>
       </c>
       <c r="G69" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="I69" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic acid, hydrate, 100 g MP Biomedical</t>
+          <t>Transfer ribonucleic acid, 100 U MP Biomedical</t>
         </is>
       </c>
       <c r="J69" s="6" t="n">
@@ -9595,7 +9599,7 @@
       </c>
       <c r="K69" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>100 U</t>
         </is>
       </c>
       <c r="L69" s="7" t="n">
@@ -9642,7 +9646,7 @@
       </c>
       <c r="Z69" s="7" t="inlineStr">
         <is>
-          <t>12501-23-4</t>
+          <t>9014-25-9</t>
         </is>
       </c>
       <c r="AA69" s="6" t="n">
@@ -9657,10 +9661,8 @@
       <c r="AD69" s="6" t="n">
         <v/>
       </c>
-      <c r="AE69" s="6" t="inlineStr">
-        <is>
-          <t>2898.053 g/mol</t>
-        </is>
+      <c r="AE69" s="6" t="n">
+        <v/>
       </c>
       <c r="AF69" s="6" t="n">
         <v/>
@@ -9676,12 +9678,12 @@
       </c>
       <c r="AJ69" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK69" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9703,22 +9705,22 @@
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
-          <t>0215624383</t>
+          <t>0215653494</t>
         </is>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="I70" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic acid, hydrate, 250 g MP Biomedical</t>
+          <t>Transfer ribonucleic acid, 5 KU MP Biomedical</t>
         </is>
       </c>
       <c r="J70" s="6" t="n">
@@ -9726,7 +9728,7 @@
       </c>
       <c r="K70" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>5 KU</t>
         </is>
       </c>
       <c r="L70" s="7" t="n">
@@ -9773,7 +9775,7 @@
       </c>
       <c r="Z70" s="7" t="inlineStr">
         <is>
-          <t>12501-23-4</t>
+          <t>9014-25-9</t>
         </is>
       </c>
       <c r="AA70" s="6" t="n">
@@ -9788,10 +9790,8 @@
       <c r="AD70" s="6" t="n">
         <v/>
       </c>
-      <c r="AE70" s="6" t="inlineStr">
-        <is>
-          <t>2898.053 g/mol</t>
-        </is>
+      <c r="AE70" s="6" t="n">
+        <v/>
       </c>
       <c r="AF70" s="6" t="n">
         <v/>
@@ -9807,12 +9807,12 @@
       </c>
       <c r="AJ70" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK70" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9834,22 +9834,22 @@
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
-          <t>0215653480</t>
+          <t>0215878283</t>
         </is>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number 108321422</t>
         </is>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
         </is>
       </c>
       <c r="I71" s="6" t="inlineStr">
         <is>
-          <t>Transfer ribonucleic acid, 100 U MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J71" s="6" t="n">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="K71" s="6" t="inlineStr">
         <is>
-          <t>100 U</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L71" s="7" t="n">
@@ -9904,14 +9904,16 @@
       </c>
       <c r="Z71" s="7" t="inlineStr">
         <is>
-          <t>9014-25-9</t>
+          <t>108321-42-2</t>
         </is>
       </c>
       <c r="AA71" s="6" t="n">
         <v/>
       </c>
-      <c r="AB71" s="6" t="n">
-        <v/>
+      <c r="AB71" s="6" t="inlineStr">
+        <is>
+          <t>~98%</t>
+        </is>
       </c>
       <c r="AC71" s="6" t="n">
         <v/>
@@ -9919,8 +9921,10 @@
       <c r="AD71" s="6" t="n">
         <v/>
       </c>
-      <c r="AE71" s="6" t="n">
-        <v/>
+      <c r="AE71" s="6" t="inlineStr">
+        <is>
+          <t>692.70</t>
+        </is>
       </c>
       <c r="AF71" s="6" t="n">
         <v/>
@@ -9936,7 +9940,7 @@
       </c>
       <c r="AJ71" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK71" s="6" t="inlineStr">
@@ -9963,22 +9967,22 @@
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
-          <t>0215653494</t>
+          <t>0215878291</t>
         </is>
       </c>
       <c r="G72" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number 108321422</t>
         </is>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
         </is>
       </c>
       <c r="I72" s="6" t="inlineStr">
         <is>
-          <t>Transfer ribonucleic acid, 5 KU MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;,  1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J72" s="6" t="n">
@@ -9986,7 +9990,7 @@
       </c>
       <c r="K72" s="6" t="inlineStr">
         <is>
-          <t>5 KU</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L72" s="7" t="n">
@@ -10033,14 +10037,16 @@
       </c>
       <c r="Z72" s="7" t="inlineStr">
         <is>
-          <t>9014-25-9</t>
+          <t>108321-42-2</t>
         </is>
       </c>
       <c r="AA72" s="6" t="n">
         <v/>
       </c>
-      <c r="AB72" s="6" t="n">
-        <v/>
+      <c r="AB72" s="6" t="inlineStr">
+        <is>
+          <t>~98%</t>
+        </is>
       </c>
       <c r="AC72" s="6" t="n">
         <v/>
@@ -10048,8 +10054,10 @@
       <c r="AD72" s="6" t="n">
         <v/>
       </c>
-      <c r="AE72" s="6" t="n">
-        <v/>
+      <c r="AE72" s="6" t="inlineStr">
+        <is>
+          <t>692.70</t>
+        </is>
       </c>
       <c r="AF72" s="6" t="n">
         <v/>
@@ -10065,7 +10073,7 @@
       </c>
       <c r="AJ72" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK72" s="6" t="inlineStr">
@@ -10092,7 +10100,7 @@
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
-          <t>0215878283</t>
+          <t>0215878294</t>
         </is>
       </c>
       <c r="G73" s="6" t="inlineStr">
@@ -10107,7 +10115,7 @@
       </c>
       <c r="I73" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;, 250 mg MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J73" s="6" t="n">
@@ -10115,7 +10123,7 @@
       </c>
       <c r="K73" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L73" s="7" t="n">
@@ -10225,22 +10233,22 @@
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
-          <t>0215878291</t>
+          <t>0215985925</t>
         </is>
       </c>
       <c r="G74" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 108321422</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="I74" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;,  1 g MP Biomedical</t>
+          <t>Aldolase, 25 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J74" s="6" t="n">
@@ -10248,7 +10256,7 @@
       </c>
       <c r="K74" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="L74" s="7" t="n">
@@ -10295,16 +10303,14 @@
       </c>
       <c r="Z74" s="7" t="inlineStr">
         <is>
-          <t>108321-42-2</t>
+          <t>9024-52-6</t>
         </is>
       </c>
       <c r="AA74" s="6" t="n">
         <v/>
       </c>
-      <c r="AB74" s="6" t="inlineStr">
-        <is>
-          <t>~98%</t>
-        </is>
+      <c r="AB74" s="6" t="n">
+        <v/>
       </c>
       <c r="AC74" s="6" t="n">
         <v/>
@@ -10312,10 +10318,8 @@
       <c r="AD74" s="6" t="n">
         <v/>
       </c>
-      <c r="AE74" s="6" t="inlineStr">
-        <is>
-          <t>692.70</t>
-        </is>
+      <c r="AE74" s="6" t="n">
+        <v/>
       </c>
       <c r="AF74" s="6" t="n">
         <v/>
@@ -10358,22 +10362,22 @@
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
-          <t>0215878294</t>
+          <t>0219014505</t>
         </is>
       </c>
       <c r="G75" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 108321422</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="I75" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;, 5 g MP Biomedical</t>
+          <t>Amoxicillin, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J75" s="6" t="n">
@@ -10428,16 +10432,14 @@
       </c>
       <c r="Z75" s="7" t="inlineStr">
         <is>
-          <t>108321-42-2</t>
+          <t>26787-78-0</t>
         </is>
       </c>
       <c r="AA75" s="6" t="n">
         <v/>
       </c>
-      <c r="AB75" s="6" t="inlineStr">
-        <is>
-          <t>~98%</t>
-        </is>
+      <c r="AB75" s="6" t="n">
+        <v/>
       </c>
       <c r="AC75" s="6" t="n">
         <v/>
@@ -10447,7 +10449,7 @@
       </c>
       <c r="AE75" s="6" t="inlineStr">
         <is>
-          <t>692.70</t>
+          <t>365.404 g/mol</t>
         </is>
       </c>
       <c r="AF75" s="6" t="n">
@@ -10491,22 +10493,22 @@
       </c>
       <c r="F76" s="6" t="inlineStr">
         <is>
-          <t>0215985925</t>
+          <t>0219014510</t>
         </is>
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="I76" s="6" t="inlineStr">
         <is>
-          <t>Aldolase, 25 mg MP Biomedical</t>
+          <t>Amoxicillin, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J76" s="6" t="n">
@@ -10514,7 +10516,7 @@
       </c>
       <c r="K76" s="6" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L76" s="7" t="n">
@@ -10561,7 +10563,7 @@
       </c>
       <c r="Z76" s="7" t="inlineStr">
         <is>
-          <t>9024-52-6</t>
+          <t>26787-78-0</t>
         </is>
       </c>
       <c r="AA76" s="6" t="n">
@@ -10576,8 +10578,10 @@
       <c r="AD76" s="6" t="n">
         <v/>
       </c>
-      <c r="AE76" s="6" t="n">
-        <v/>
+      <c r="AE76" s="6" t="inlineStr">
+        <is>
+          <t>365.404 g/mol</t>
+        </is>
       </c>
       <c r="AF76" s="6" t="n">
         <v/>
@@ -10620,22 +10624,22 @@
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
-          <t>0219014505</t>
+          <t>0219021605</t>
         </is>
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="I77" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin, 5 g MP Biomedical</t>
+          <t>Ibuprofen, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J77" s="6" t="n">
@@ -10690,7 +10694,7 @@
       </c>
       <c r="Z77" s="7" t="inlineStr">
         <is>
-          <t>26787-78-0</t>
+          <t>15687-27-1</t>
         </is>
       </c>
       <c r="AA77" s="6" t="n">
@@ -10707,7 +10711,7 @@
       </c>
       <c r="AE77" s="6" t="inlineStr">
         <is>
-          <t>365.404 g/mol</t>
+          <t>206.285 g/mol</t>
         </is>
       </c>
       <c r="AF77" s="6" t="n">
@@ -10724,12 +10728,12 @@
       </c>
       <c r="AJ77" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK77" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -10751,22 +10755,22 @@
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
-          <t>0219014510</t>
+          <t>0219023791</t>
         </is>
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>DMaltose Monohydrate</t>
         </is>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>DMaltose Monohydrate</t>
         </is>
       </c>
       <c r="I78" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin, 10 g MP Biomedical</t>
+          <t>D-(+)-Maltose monohydrate, ~99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J78" s="6" t="n">
@@ -10774,7 +10778,7 @@
       </c>
       <c r="K78" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L78" s="7" t="n">
@@ -10821,14 +10825,16 @@
       </c>
       <c r="Z78" s="7" t="inlineStr">
         <is>
-          <t>26787-78-0</t>
+          <t>6363-53-7</t>
         </is>
       </c>
       <c r="AA78" s="6" t="n">
         <v/>
       </c>
-      <c r="AB78" s="6" t="n">
-        <v/>
+      <c r="AB78" s="6" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
       </c>
       <c r="AC78" s="6" t="n">
         <v/>
@@ -10838,7 +10844,7 @@
       </c>
       <c r="AE78" s="6" t="inlineStr">
         <is>
-          <t>365.404 g/mol</t>
+          <t>360.312 g/mol</t>
         </is>
       </c>
       <c r="AF78" s="6" t="n">
@@ -10855,12 +10861,12 @@
       </c>
       <c r="AJ78" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK78" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -10882,22 +10888,22 @@
       </c>
       <c r="F79" s="6" t="inlineStr">
         <is>
-          <t>0219021605</t>
+          <t>02190277.1</t>
         </is>
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="I79" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen, 5 g MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 100 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J79" s="6" t="n">
@@ -10905,7 +10911,7 @@
       </c>
       <c r="K79" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="L79" s="7" t="n">
@@ -10952,14 +10958,16 @@
       </c>
       <c r="Z79" s="7" t="inlineStr">
         <is>
-          <t>15687-27-1</t>
+          <t>54827-17-7</t>
         </is>
       </c>
       <c r="AA79" s="6" t="n">
         <v/>
       </c>
-      <c r="AB79" s="6" t="n">
-        <v/>
+      <c r="AB79" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC79" s="6" t="n">
         <v/>
@@ -10969,7 +10977,7 @@
       </c>
       <c r="AE79" s="6" t="inlineStr">
         <is>
-          <t>206.285 g/mol</t>
+          <t>240.35 g/mol</t>
         </is>
       </c>
       <c r="AF79" s="6" t="n">
@@ -11013,22 +11021,22 @@
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
-          <t>0219023791</t>
+          <t>0219027701</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>DMaltose Monohydrate</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>DMaltose Monohydrate</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="I80" s="6" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose monohydrate, ~99%, 1 kg MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J80" s="6" t="n">
@@ -11036,7 +11044,7 @@
       </c>
       <c r="K80" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L80" s="7" t="n">
@@ -11083,7 +11091,7 @@
       </c>
       <c r="Z80" s="7" t="inlineStr">
         <is>
-          <t>6363-53-7</t>
+          <t>54827-17-7</t>
         </is>
       </c>
       <c r="AA80" s="6" t="n">
@@ -11091,7 +11099,7 @@
       </c>
       <c r="AB80" s="6" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC80" s="6" t="n">
@@ -11102,7 +11110,7 @@
       </c>
       <c r="AE80" s="6" t="inlineStr">
         <is>
-          <t>360.312 g/mol</t>
+          <t>240.35 g/mol</t>
         </is>
       </c>
       <c r="AF80" s="6" t="n">
@@ -11146,7 +11154,7 @@
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
-          <t>02190277.1</t>
+          <t>0219027705</t>
         </is>
       </c>
       <c r="G81" s="6" t="inlineStr">
@@ -11161,7 +11169,7 @@
       </c>
       <c r="I81" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 100 mg MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J81" s="6" t="n">
@@ -11169,7 +11177,7 @@
       </c>
       <c r="K81" s="6" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L81" s="7" t="n">
@@ -11279,22 +11287,22 @@
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
-          <t>0219027701</t>
+          <t>0219028425</t>
         </is>
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="I82" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 1 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J82" s="6" t="n">
@@ -11302,7 +11310,7 @@
       </c>
       <c r="K82" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L82" s="7" t="n">
@@ -11349,7 +11357,7 @@
       </c>
       <c r="Z82" s="7" t="inlineStr">
         <is>
-          <t>54827-17-7</t>
+          <t>504-17-6</t>
         </is>
       </c>
       <c r="AA82" s="6" t="n">
@@ -11357,7 +11365,7 @@
       </c>
       <c r="AB82" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC82" s="6" t="n">
@@ -11368,7 +11376,7 @@
       </c>
       <c r="AE82" s="6" t="inlineStr">
         <is>
-          <t>240.35 g/mol</t>
+          <t>144.148 g/mol</t>
         </is>
       </c>
       <c r="AF82" s="6" t="n">
@@ -11412,22 +11420,22 @@
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
-          <t>0219027705</t>
+          <t>0219028480</t>
         </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="I83" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 5 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J83" s="6" t="n">
@@ -11435,7 +11443,7 @@
       </c>
       <c r="K83" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L83" s="7" t="n">
@@ -11482,7 +11490,7 @@
       </c>
       <c r="Z83" s="7" t="inlineStr">
         <is>
-          <t>54827-17-7</t>
+          <t>504-17-6</t>
         </is>
       </c>
       <c r="AA83" s="6" t="n">
@@ -11490,7 +11498,7 @@
       </c>
       <c r="AB83" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC83" s="6" t="n">
@@ -11501,7 +11509,7 @@
       </c>
       <c r="AE83" s="6" t="inlineStr">
         <is>
-          <t>240.35 g/mol</t>
+          <t>144.148 g/mol</t>
         </is>
       </c>
       <c r="AF83" s="6" t="n">
@@ -11545,7 +11553,7 @@
       </c>
       <c r="F84" s="6" t="inlineStr">
         <is>
-          <t>0219028425</t>
+          <t>0219028483</t>
         </is>
       </c>
       <c r="G84" s="6" t="inlineStr">
@@ -11560,7 +11568,7 @@
       </c>
       <c r="I84" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 25 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J84" s="6" t="n">
@@ -11568,7 +11576,7 @@
       </c>
       <c r="K84" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L84" s="7" t="n">
@@ -11678,7 +11686,7 @@
       </c>
       <c r="F85" s="6" t="inlineStr">
         <is>
-          <t>0219028480</t>
+          <t>0219028490</t>
         </is>
       </c>
       <c r="G85" s="6" t="inlineStr">
@@ -11693,7 +11701,7 @@
       </c>
       <c r="I85" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 100 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J85" s="6" t="n">
@@ -11701,7 +11709,7 @@
       </c>
       <c r="K85" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L85" s="7" t="n">
@@ -11811,22 +11819,22 @@
       </c>
       <c r="F86" s="6" t="inlineStr">
         <is>
-          <t>0219028483</t>
+          <t>0219052001</t>
         </is>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="I86" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 250 g MP Biomedical</t>
+          <t>Azure B, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J86" s="6" t="n">
@@ -11834,7 +11842,7 @@
       </c>
       <c r="K86" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L86" s="7" t="n">
@@ -11881,16 +11889,14 @@
       </c>
       <c r="Z86" s="7" t="inlineStr">
         <is>
-          <t>504-17-6</t>
+          <t>531-55-5</t>
         </is>
       </c>
       <c r="AA86" s="6" t="n">
         <v/>
       </c>
-      <c r="AB86" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB86" s="6" t="n">
+        <v/>
       </c>
       <c r="AC86" s="6" t="n">
         <v/>
@@ -11900,7 +11906,7 @@
       </c>
       <c r="AE86" s="6" t="inlineStr">
         <is>
-          <t>144.148 g/mol</t>
+          <t>305.824 g/mol</t>
         </is>
       </c>
       <c r="AF86" s="6" t="n">
@@ -11944,22 +11950,22 @@
       </c>
       <c r="F87" s="6" t="inlineStr">
         <is>
-          <t>0219028490</t>
+          <t>0219052005</t>
         </is>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="I87" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 500 g MP Biomedical</t>
+          <t>Azure B, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J87" s="6" t="n">
@@ -11967,7 +11973,7 @@
       </c>
       <c r="K87" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L87" s="7" t="n">
@@ -12014,16 +12020,14 @@
       </c>
       <c r="Z87" s="7" t="inlineStr">
         <is>
-          <t>504-17-6</t>
+          <t>531-55-5</t>
         </is>
       </c>
       <c r="AA87" s="6" t="n">
         <v/>
       </c>
-      <c r="AB87" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB87" s="6" t="n">
+        <v/>
       </c>
       <c r="AC87" s="6" t="n">
         <v/>
@@ -12033,7 +12037,7 @@
       </c>
       <c r="AE87" s="6" t="inlineStr">
         <is>
-          <t>144.148 g/mol</t>
+          <t>305.824 g/mol</t>
         </is>
       </c>
       <c r="AF87" s="6" t="n">
@@ -12077,22 +12081,22 @@
       </c>
       <c r="F88" s="6" t="inlineStr">
         <is>
-          <t>0219052001</t>
+          <t>0219151490</t>
         </is>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="I88" s="6" t="inlineStr">
         <is>
-          <t>Azure B, 1 g MP Biomedical</t>
+          <t>Ricinoleic acid, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J88" s="6" t="n">
@@ -12100,7 +12104,7 @@
       </c>
       <c r="K88" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L88" s="7" t="n">
@@ -12147,14 +12151,16 @@
       </c>
       <c r="Z88" s="7" t="inlineStr">
         <is>
-          <t>531-55-5</t>
+          <t>141-22-0</t>
         </is>
       </c>
       <c r="AA88" s="6" t="n">
         <v/>
       </c>
-      <c r="AB88" s="6" t="n">
-        <v/>
+      <c r="AB88" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC88" s="6" t="n">
         <v/>
@@ -12164,7 +12170,7 @@
       </c>
       <c r="AE88" s="6" t="inlineStr">
         <is>
-          <t>305.824 g/mol</t>
+          <t>298.467 g/mol</t>
         </is>
       </c>
       <c r="AF88" s="6" t="n">
@@ -12181,12 +12187,12 @@
       </c>
       <c r="AJ88" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK88" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -12208,22 +12214,22 @@
       </c>
       <c r="F89" s="6" t="inlineStr">
         <is>
-          <t>0219052005</t>
+          <t>0219397180</t>
         </is>
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="I89" s="6" t="inlineStr">
         <is>
-          <t>Azure B, 5 g MP Biomedical</t>
+          <t>Triton® X-114, 100 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J89" s="6" t="n">
@@ -12231,7 +12237,7 @@
       </c>
       <c r="K89" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 mL</t>
         </is>
       </c>
       <c r="L89" s="7" t="n">
@@ -12278,7 +12284,7 @@
       </c>
       <c r="Z89" s="7" t="inlineStr">
         <is>
-          <t>531-55-5</t>
+          <t>9036-19-5</t>
         </is>
       </c>
       <c r="AA89" s="6" t="n">
@@ -12295,7 +12301,7 @@
       </c>
       <c r="AE89" s="6" t="inlineStr">
         <is>
-          <t>305.824 g/mol</t>
+          <t>294.435 g/mol</t>
         </is>
       </c>
       <c r="AF89" s="6" t="n">
@@ -12339,22 +12345,22 @@
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
-          <t>0219151490</t>
+          <t>0219397183</t>
         </is>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="I90" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic acid, 500 mg MP Biomedical</t>
+          <t>Triton® X-114, 250 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J90" s="6" t="n">
@@ -12362,7 +12368,7 @@
       </c>
       <c r="K90" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>250 mL</t>
         </is>
       </c>
       <c r="L90" s="7" t="n">
@@ -12409,16 +12415,14 @@
       </c>
       <c r="Z90" s="7" t="inlineStr">
         <is>
-          <t>141-22-0</t>
+          <t>9036-19-5</t>
         </is>
       </c>
       <c r="AA90" s="6" t="n">
         <v/>
       </c>
-      <c r="AB90" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB90" s="6" t="n">
+        <v/>
       </c>
       <c r="AC90" s="6" t="n">
         <v/>
@@ -12428,7 +12432,7 @@
       </c>
       <c r="AE90" s="6" t="inlineStr">
         <is>
-          <t>298.467 g/mol</t>
+          <t>294.435 g/mol</t>
         </is>
       </c>
       <c r="AF90" s="6" t="n">
@@ -12445,12 +12449,12 @@
       </c>
       <c r="AJ90" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK90" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12476,7 @@
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>0219397180</t>
+          <t>0219397191</t>
         </is>
       </c>
       <c r="G91" s="6" t="inlineStr">
@@ -12487,7 +12491,7 @@
       </c>
       <c r="I91" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 100 mL MP Biomedical</t>
+          <t>Triton® X-114, 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J91" s="6" t="n">
@@ -12495,7 +12499,7 @@
       </c>
       <c r="K91" s="6" t="inlineStr">
         <is>
-          <t>100 mL</t>
+          <t>1 L</t>
         </is>
       </c>
       <c r="L91" s="7" t="n">
@@ -12603,22 +12607,22 @@
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>0219397183</t>
+          <t>0219398880</t>
         </is>
       </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Polymerization catalyst used w</t>
         </is>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Ammonium Persulfate</t>
         </is>
       </c>
       <c r="I92" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 250 mL MP Biomedical</t>
+          <t>Ammonium Persulfate, molecular biology reagent MP Biomedical</t>
         </is>
       </c>
       <c r="J92" s="6" t="n">
@@ -12626,7 +12630,7 @@
       </c>
       <c r="K92" s="6" t="inlineStr">
         <is>
-          <t>250 mL</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L92" s="7" t="n">
@@ -12673,14 +12677,16 @@
       </c>
       <c r="Z92" s="7" t="inlineStr">
         <is>
-          <t>9036-19-5</t>
+          <t>7727-54-0</t>
         </is>
       </c>
       <c r="AA92" s="6" t="n">
         <v/>
       </c>
-      <c r="AB92" s="6" t="n">
-        <v/>
+      <c r="AB92" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC92" s="6" t="n">
         <v/>
@@ -12690,7 +12696,7 @@
       </c>
       <c r="AE92" s="6" t="inlineStr">
         <is>
-          <t>294.435 g/mol</t>
+          <t>228.19 g/mol</t>
         </is>
       </c>
       <c r="AF92" s="6" t="n">
@@ -12734,22 +12740,18 @@
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
-          <t>0219397191</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="inlineStr">
-        <is>
-          <t>Triton X114</t>
-        </is>
-      </c>
-      <c r="H93" s="6" t="inlineStr">
-        <is>
-          <t>Triton X114</t>
-        </is>
+          <t>0219401283</t>
+        </is>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H93" s="6" t="n">
+        <v/>
       </c>
       <c r="I93" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 1 L MP Biomedical</t>
+          <t>Sodium acetate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J93" s="6" t="n">
@@ -12757,7 +12759,7 @@
       </c>
       <c r="K93" s="6" t="inlineStr">
         <is>
-          <t>1 L</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L93" s="7" t="n">
@@ -12804,14 +12806,16 @@
       </c>
       <c r="Z93" s="7" t="inlineStr">
         <is>
-          <t>9036-19-5</t>
+          <t>127-09-3</t>
         </is>
       </c>
       <c r="AA93" s="6" t="n">
         <v/>
       </c>
-      <c r="AB93" s="6" t="n">
-        <v/>
+      <c r="AB93" s="6" t="inlineStr">
+        <is>
+          <t>&amp;ge;98%</t>
+        </is>
       </c>
       <c r="AC93" s="6" t="n">
         <v/>
@@ -12821,7 +12825,7 @@
       </c>
       <c r="AE93" s="6" t="inlineStr">
         <is>
-          <t>294.435 g/mol</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="AF93" s="6" t="n">
@@ -12865,22 +12869,18 @@
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
-          <t>0219398880</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr">
-        <is>
-          <t>Polymerization catalyst used w</t>
-        </is>
-      </c>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>Ammonium Persulfate</t>
-        </is>
+          <t>0219401291</t>
+        </is>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H94" s="6" t="n">
+        <v/>
       </c>
       <c r="I94" s="6" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate, molecular biology reagent MP Biomedical</t>
+          <t>Sodium acetate, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J94" s="6" t="n">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="K94" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L94" s="7" t="n">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="Z94" s="7" t="inlineStr">
         <is>
-          <t>7727-54-0</t>
+          <t>127-09-3</t>
         </is>
       </c>
       <c r="AA94" s="6" t="n">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="AB94" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>&amp;ge;98%</t>
         </is>
       </c>
       <c r="AC94" s="6" t="n">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="AE94" s="6" t="inlineStr">
         <is>
-          <t>228.19 g/mol</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="AF94" s="6" t="n">
@@ -12998,18 +12998,22 @@
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
-          <t>0219401283</t>
-        </is>
-      </c>
-      <c r="G95" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H95" s="6" t="n">
-        <v/>
+          <t>0219405780</t>
+        </is>
+      </c>
+      <c r="G95" s="6" t="inlineStr">
+        <is>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="H95" s="6" t="inlineStr">
+        <is>
+          <t>Hydrogen Peroxide</t>
+        </is>
       </c>
       <c r="I95" s="6" t="inlineStr">
         <is>
-          <t>Sodium acetate, 250 g MP Biomedical</t>
+          <t>Hydrogen Peroxide, 100 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J95" s="6" t="n">
@@ -13017,7 +13021,7 @@
       </c>
       <c r="K95" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>100 mL</t>
         </is>
       </c>
       <c r="L95" s="7" t="n">
@@ -13064,16 +13068,14 @@
       </c>
       <c r="Z95" s="7" t="inlineStr">
         <is>
-          <t>127-09-3</t>
+          <t>7722-84-1</t>
         </is>
       </c>
       <c r="AA95" s="6" t="n">
         <v/>
       </c>
-      <c r="AB95" s="6" t="inlineStr">
-        <is>
-          <t>&amp;ge;98%</t>
-        </is>
+      <c r="AB95" s="6" t="n">
+        <v/>
       </c>
       <c r="AC95" s="6" t="n">
         <v/>
@@ -13083,7 +13085,7 @@
       </c>
       <c r="AE95" s="6" t="inlineStr">
         <is>
-          <t>82.03</t>
+          <t>34.014 g/mol</t>
         </is>
       </c>
       <c r="AF95" s="6" t="n">
@@ -13100,12 +13102,12 @@
       </c>
       <c r="AJ95" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK95" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -13127,18 +13129,22 @@
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
-          <t>0219401291</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H96" s="6" t="n">
-        <v/>
+          <t>0219405790</t>
+        </is>
+      </c>
+      <c r="G96" s="6" t="inlineStr">
+        <is>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="H96" s="6" t="inlineStr">
+        <is>
+          <t>Hydrogen Peroxide</t>
+        </is>
       </c>
       <c r="I96" s="6" t="inlineStr">
         <is>
-          <t>Sodium acetate, 1 kg MP Biomedical</t>
+          <t>Hydrogen Peroxide, 500 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J96" s="6" t="n">
@@ -13146,7 +13152,7 @@
       </c>
       <c r="K96" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 mL</t>
         </is>
       </c>
       <c r="L96" s="7" t="n">
@@ -13193,16 +13199,14 @@
       </c>
       <c r="Z96" s="7" t="inlineStr">
         <is>
-          <t>127-09-3</t>
+          <t>7722-84-1</t>
         </is>
       </c>
       <c r="AA96" s="6" t="n">
         <v/>
       </c>
-      <c r="AB96" s="6" t="inlineStr">
-        <is>
-          <t>&amp;ge;98%</t>
-        </is>
+      <c r="AB96" s="6" t="n">
+        <v/>
       </c>
       <c r="AC96" s="6" t="n">
         <v/>
@@ -13212,7 +13216,7 @@
       </c>
       <c r="AE96" s="6" t="inlineStr">
         <is>
-          <t>82.03</t>
+          <t>34.014 g/mol</t>
         </is>
       </c>
       <c r="AF96" s="6" t="n">
@@ -13229,12 +13233,12 @@
       </c>
       <c r="AJ96" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK96" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -13256,22 +13260,22 @@
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>0219405780</t>
+          <t>0219455794</t>
         </is>
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide, 100 mL MP Biomedical</t>
+          <t>Tris, cell culture reagent, ≥99.95%, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J97" s="6" t="n">
@@ -13279,7 +13283,7 @@
       </c>
       <c r="K97" s="6" t="inlineStr">
         <is>
-          <t>100 mL</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L97" s="7" t="n">
@@ -13326,14 +13330,16 @@
       </c>
       <c r="Z97" s="7" t="inlineStr">
         <is>
-          <t>7722-84-1</t>
+          <t>77-86-1</t>
         </is>
       </c>
       <c r="AA97" s="6" t="n">
         <v/>
       </c>
-      <c r="AB97" s="6" t="n">
-        <v/>
+      <c r="AB97" s="6" t="inlineStr">
+        <is>
+          <t>≥95%</t>
+        </is>
       </c>
       <c r="AC97" s="6" t="n">
         <v/>
@@ -13343,7 +13349,7 @@
       </c>
       <c r="AE97" s="6" t="inlineStr">
         <is>
-          <t>34.014 g/mol</t>
+          <t>121.136 g/mol</t>
         </is>
       </c>
       <c r="AF97" s="6" t="n">
@@ -13360,12 +13366,12 @@
       </c>
       <c r="AJ97" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK97" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -13387,22 +13393,22 @@
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
-          <t>0219405790</t>
+          <t>0219455891</t>
         </is>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide, 500 mL MP Biomedical</t>
+          <t>Tris hydrochloride, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J98" s="6" t="n">
@@ -13410,7 +13416,7 @@
       </c>
       <c r="K98" s="6" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L98" s="7" t="n">
@@ -13457,14 +13463,16 @@
       </c>
       <c r="Z98" s="7" t="inlineStr">
         <is>
-          <t>7722-84-1</t>
+          <t>77-86-1</t>
         </is>
       </c>
       <c r="AA98" s="6" t="n">
         <v/>
       </c>
-      <c r="AB98" s="6" t="n">
-        <v/>
+      <c r="AB98" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC98" s="6" t="n">
         <v/>
@@ -13474,7 +13482,7 @@
       </c>
       <c r="AE98" s="6" t="inlineStr">
         <is>
-          <t>34.014 g/mol</t>
+          <t>121.136 g/mol</t>
         </is>
       </c>
       <c r="AF98" s="6" t="n">
@@ -13491,12 +13499,12 @@
       </c>
       <c r="AJ98" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK98" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -13518,22 +13526,18 @@
       </c>
       <c r="F99" s="6" t="inlineStr">
         <is>
-          <t>0219455794</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="inlineStr">
-        <is>
-          <t>Tris</t>
-        </is>
-      </c>
-      <c r="H99" s="6" t="inlineStr">
-        <is>
-          <t>Tris</t>
-        </is>
+          <t>0219464180</t>
+        </is>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H99" s="6" t="n">
+        <v/>
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Tris, cell culture reagent, ≥99.95%, 5 kg MP Biomedical</t>
+          <t>Citric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J99" s="6" t="n">
@@ -13541,7 +13545,7 @@
       </c>
       <c r="K99" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L99" s="7" t="n">
@@ -13588,16 +13592,14 @@
       </c>
       <c r="Z99" s="7" t="inlineStr">
         <is>
-          <t>77-86-1</t>
+          <t>77-92-9</t>
         </is>
       </c>
       <c r="AA99" s="6" t="n">
         <v/>
       </c>
-      <c r="AB99" s="6" t="inlineStr">
-        <is>
-          <t>≥95%</t>
-        </is>
+      <c r="AB99" s="6" t="n">
+        <v/>
       </c>
       <c r="AC99" s="6" t="n">
         <v/>
@@ -13607,7 +13609,7 @@
       </c>
       <c r="AE99" s="6" t="inlineStr">
         <is>
-          <t>121.136 g/mol</t>
+          <t>192.1</t>
         </is>
       </c>
       <c r="AF99" s="6" t="n">
@@ -13651,22 +13653,22 @@
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>0219455891</t>
+          <t>0219467925</t>
         </is>
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="I100" s="6" t="inlineStr">
         <is>
-          <t>Tris hydrochloride, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
+          <t>Glutathione reduced, cell culture reagent, ≥98%, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J100" s="6" t="n">
@@ -13674,7 +13676,7 @@
       </c>
       <c r="K100" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L100" s="7" t="n">
@@ -13721,7 +13723,7 @@
       </c>
       <c r="Z100" s="7" t="inlineStr">
         <is>
-          <t>77-86-1</t>
+          <t>70-18-8</t>
         </is>
       </c>
       <c r="AA100" s="6" t="n">
@@ -13729,7 +13731,7 @@
       </c>
       <c r="AB100" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC100" s="6" t="n">
@@ -13740,7 +13742,7 @@
       </c>
       <c r="AE100" s="6" t="inlineStr">
         <is>
-          <t>121.136 g/mol</t>
+          <t>307.321 g/mol</t>
         </is>
       </c>
       <c r="AF100" s="6" t="n">
@@ -13757,12 +13759,12 @@
       </c>
       <c r="AJ100" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK100" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -13784,18 +13786,22 @@
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>0219464180</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H101" s="6" t="n">
-        <v/>
+          <t>0219468105</t>
+        </is>
+      </c>
+      <c r="G101" s="6" t="inlineStr">
+        <is>
+          <t>Glycine</t>
+        </is>
+      </c>
+      <c r="H101" s="6" t="inlineStr">
+        <is>
+          <t>Glycine</t>
+        </is>
       </c>
       <c r="I101" s="6" t="inlineStr">
         <is>
-          <t>Citric acid, 100 g MP Biomedical</t>
+          <t>Glycine, cell culture reagent, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J101" s="6" t="n">
@@ -13803,7 +13809,7 @@
       </c>
       <c r="K101" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L101" s="7" t="n">
@@ -13850,14 +13856,16 @@
       </c>
       <c r="Z101" s="7" t="inlineStr">
         <is>
-          <t>77-92-9</t>
+          <t>56-40-6</t>
         </is>
       </c>
       <c r="AA101" s="6" t="n">
         <v/>
       </c>
-      <c r="AB101" s="6" t="n">
-        <v/>
+      <c r="AB101" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC101" s="6" t="n">
         <v/>
@@ -13867,7 +13875,7 @@
       </c>
       <c r="AE101" s="6" t="inlineStr">
         <is>
-          <t>192.1</t>
+          <t>75.067 g/mol</t>
         </is>
       </c>
       <c r="AF101" s="6" t="n">
@@ -13911,22 +13919,22 @@
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>0219467925</t>
+          <t>0219468901</t>
         </is>
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>Glutathione reduced, cell culture reagent, ≥98%, 25 g MP Biomedical</t>
+          <t>L-Isoleucine, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J102" s="6" t="n">
@@ -13934,7 +13942,7 @@
       </c>
       <c r="K102" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L102" s="7" t="n">
@@ -13981,7 +13989,7 @@
       </c>
       <c r="Z102" s="7" t="inlineStr">
         <is>
-          <t>70-18-8</t>
+          <t>73-32-5</t>
         </is>
       </c>
       <c r="AA102" s="6" t="n">
@@ -13989,7 +13997,7 @@
       </c>
       <c r="AB102" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC102" s="6" t="n">
@@ -14000,7 +14008,7 @@
       </c>
       <c r="AE102" s="6" t="inlineStr">
         <is>
-          <t>307.321 g/mol</t>
+          <t>131.175 g/mol</t>
         </is>
       </c>
       <c r="AF102" s="6" t="n">
@@ -14017,12 +14025,12 @@
       </c>
       <c r="AJ102" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK102" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -14044,22 +14052,22 @@
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>0219468105</t>
+          <t>0219468925</t>
         </is>
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="I103" s="6" t="inlineStr">
         <is>
-          <t>Glycine, cell culture reagent, 5 kg MP Biomedical</t>
+          <t>L-Isoleucine, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J103" s="6" t="n">
@@ -14067,7 +14075,7 @@
       </c>
       <c r="K103" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L103" s="7" t="n">
@@ -14114,7 +14122,7 @@
       </c>
       <c r="Z103" s="7" t="inlineStr">
         <is>
-          <t>56-40-6</t>
+          <t>73-32-5</t>
         </is>
       </c>
       <c r="AA103" s="6" t="n">
@@ -14122,7 +14130,7 @@
       </c>
       <c r="AB103" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC103" s="6" t="n">
@@ -14133,7 +14141,7 @@
       </c>
       <c r="AE103" s="6" t="inlineStr">
         <is>
-          <t>75.067 g/mol</t>
+          <t>131.175 g/mol</t>
         </is>
       </c>
       <c r="AF103" s="6" t="n">
@@ -14177,7 +14185,7 @@
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
-          <t>0219468901</t>
+          <t>0219468980</t>
         </is>
       </c>
       <c r="G104" s="6" t="inlineStr">
@@ -14192,7 +14200,7 @@
       </c>
       <c r="I104" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 1 g MP Biomedical</t>
+          <t>L-Isoleucine, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J104" s="6" t="n">
@@ -14200,7 +14208,7 @@
       </c>
       <c r="K104" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L104" s="7" t="n">
@@ -14310,22 +14318,22 @@
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>0219468925</t>
+          <t>0219472891</t>
         </is>
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>LProline</t>
         </is>
       </c>
       <c r="H105" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>LProline</t>
         </is>
       </c>
       <c r="I105" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 25 g MP Biomedical</t>
+          <t>L-Proline, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J105" s="6" t="n">
@@ -14333,7 +14341,7 @@
       </c>
       <c r="K105" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L105" s="7" t="n">
@@ -14380,7 +14388,7 @@
       </c>
       <c r="Z105" s="7" t="inlineStr">
         <is>
-          <t>73-32-5</t>
+          <t>147-85-3</t>
         </is>
       </c>
       <c r="AA105" s="6" t="n">
@@ -14399,7 +14407,7 @@
       </c>
       <c r="AE105" s="6" t="inlineStr">
         <is>
-          <t>131.175 g/mol</t>
+          <t>115.132 g/mol</t>
         </is>
       </c>
       <c r="AF105" s="6" t="n">
@@ -14443,22 +14451,22 @@
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>0219468980</t>
+          <t>0219474190</t>
         </is>
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="I106" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 100 g MP Biomedical</t>
+          <t>Sodium selenite, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J106" s="6" t="n">
@@ -14466,7 +14474,7 @@
       </c>
       <c r="K106" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L106" s="7" t="n">
@@ -14513,7 +14521,7 @@
       </c>
       <c r="Z106" s="7" t="inlineStr">
         <is>
-          <t>73-32-5</t>
+          <t>10102-18-8</t>
         </is>
       </c>
       <c r="AA106" s="6" t="n">
@@ -14521,7 +14529,7 @@
       </c>
       <c r="AB106" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>~98%</t>
         </is>
       </c>
       <c r="AC106" s="6" t="n">
@@ -14532,7 +14540,7 @@
       </c>
       <c r="AE106" s="6" t="inlineStr">
         <is>
-          <t>131.175 g/mol</t>
+          <t>172.948 g/mol</t>
         </is>
       </c>
       <c r="AF106" s="6" t="n">
@@ -14576,22 +14584,22 @@
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>0219472891</t>
+          <t>02194742.5</t>
         </is>
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
-          <t>LProline</t>
+          <t>DSorbitol</t>
         </is>
       </c>
       <c r="H107" s="6" t="inlineStr">
         <is>
-          <t>LProline</t>
+          <t>DSorbitol</t>
         </is>
       </c>
       <c r="I107" s="6" t="inlineStr">
         <is>
-          <t>L-Proline, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
+          <t>D-Sorbitol, anhydrous, cell culture reagent, ≥98%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J107" s="6" t="n">
@@ -14599,7 +14607,7 @@
       </c>
       <c r="K107" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L107" s="7" t="n">
@@ -14646,7 +14654,7 @@
       </c>
       <c r="Z107" s="7" t="inlineStr">
         <is>
-          <t>147-85-3</t>
+          <t>50-70-4</t>
         </is>
       </c>
       <c r="AA107" s="6" t="n">
@@ -14654,7 +14662,7 @@
       </c>
       <c r="AB107" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC107" s="6" t="n">
@@ -14665,7 +14673,7 @@
       </c>
       <c r="AE107" s="6" t="inlineStr">
         <is>
-          <t>115.132 g/mol</t>
+          <t>182.172 g/mol</t>
         </is>
       </c>
       <c r="AF107" s="6" t="n">
@@ -14709,22 +14717,22 @@
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
-          <t>0219474190</t>
+          <t>0219480425</t>
         </is>
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12Myristate 13Acetate</t>
         </is>
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12Myristate 13Acetate</t>
         </is>
       </c>
       <c r="I108" s="6" t="inlineStr">
         <is>
-          <t>Sodium selenite, 500 g MP Biomedical</t>
+          <t>Phorbol 12-myristate 13-acetate, molecular biology reagent, ~99%, 25 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J108" s="6" t="n">
@@ -14732,7 +14740,7 @@
       </c>
       <c r="K108" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="L108" s="7" t="n">
@@ -14779,7 +14787,7 @@
       </c>
       <c r="Z108" s="7" t="inlineStr">
         <is>
-          <t>10102-18-8</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA108" s="6" t="n">
@@ -14787,7 +14795,7 @@
       </c>
       <c r="AB108" s="6" t="inlineStr">
         <is>
-          <t>~98%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="AC108" s="6" t="n">
@@ -14798,7 +14806,7 @@
       </c>
       <c r="AE108" s="6" t="inlineStr">
         <is>
-          <t>172.948 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF108" s="6" t="n">
@@ -14815,12 +14823,12 @@
       </c>
       <c r="AJ108" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK108" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -14842,7 +14850,7 @@
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>02194742.5</t>
+          <t>0219485102</t>
         </is>
       </c>
       <c r="G109" s="6" t="inlineStr">
@@ -14857,7 +14865,7 @@
       </c>
       <c r="I109" s="6" t="inlineStr">
         <is>
-          <t>D-Sorbitol, anhydrous, cell culture reagent, ≥98%, 500 g MP Biomedical</t>
+          <t>D-Sorbitol, molecular biology reagent, ≥98%, 2 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J109" s="6" t="n">
@@ -14865,7 +14873,7 @@
       </c>
       <c r="K109" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>2 kg</t>
         </is>
       </c>
       <c r="L109" s="7" t="n">
@@ -14975,22 +14983,22 @@
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>0219480425</t>
+          <t>02195074.1</t>
         </is>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12Myristate 13Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12Myristate 13Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="I110" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12-myristate 13-acetate, molecular biology reagent, ~99%, 25 mg MP Biomedical</t>
+          <t>Boric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J110" s="6" t="n">
@@ -14998,7 +15006,7 @@
       </c>
       <c r="K110" s="6" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L110" s="7" t="n">
@@ -15045,16 +15053,14 @@
       </c>
       <c r="Z110" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>10043-35-3</t>
         </is>
       </c>
       <c r="AA110" s="6" t="n">
         <v/>
       </c>
-      <c r="AB110" s="6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
+      <c r="AB110" s="6" t="n">
+        <v/>
       </c>
       <c r="AC110" s="6" t="n">
         <v/>
@@ -15064,7 +15070,7 @@
       </c>
       <c r="AE110" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>61.831 g/mol</t>
         </is>
       </c>
       <c r="AF110" s="6" t="n">
@@ -15081,12 +15087,12 @@
       </c>
       <c r="AJ110" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK110" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -15108,22 +15114,22 @@
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
-          <t>0219485102</t>
+          <t>0219507401</t>
         </is>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>DSorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>DSorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="I111" s="6" t="inlineStr">
         <is>
-          <t>D-Sorbitol, molecular biology reagent, ≥98%, 2 kg MP Biomedical</t>
+          <t>Boric acid, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J111" s="6" t="n">
@@ -15131,7 +15137,7 @@
       </c>
       <c r="K111" s="6" t="inlineStr">
         <is>
-          <t>2 kg</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L111" s="7" t="n">
@@ -15178,16 +15184,14 @@
       </c>
       <c r="Z111" s="7" t="inlineStr">
         <is>
-          <t>50-70-4</t>
+          <t>10043-35-3</t>
         </is>
       </c>
       <c r="AA111" s="6" t="n">
         <v/>
       </c>
-      <c r="AB111" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB111" s="6" t="n">
+        <v/>
       </c>
       <c r="AC111" s="6" t="n">
         <v/>
@@ -15197,7 +15201,7 @@
       </c>
       <c r="AE111" s="6" t="inlineStr">
         <is>
-          <t>182.172 g/mol</t>
+          <t>61.831 g/mol</t>
         </is>
       </c>
       <c r="AF111" s="6" t="n">
@@ -15241,7 +15245,7 @@
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>02195074.1</t>
+          <t>0219507405</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
@@ -15256,7 +15260,7 @@
       </c>
       <c r="I112" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 100 g MP Biomedical</t>
+          <t>Boric acid, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J112" s="6" t="n">
@@ -15264,7 +15268,7 @@
       </c>
       <c r="K112" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L112" s="7" t="n">
@@ -15372,22 +15376,22 @@
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>0219507401</t>
+          <t>0219519901</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 1 kg MP Biomedical</t>
+          <t>Glutaraldehyde, 25% aqueous solution, 1 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J113" s="6" t="n">
@@ -15395,7 +15399,7 @@
       </c>
       <c r="K113" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>1 mL</t>
         </is>
       </c>
       <c r="L113" s="7" t="n">
@@ -15442,7 +15446,7 @@
       </c>
       <c r="Z113" s="7" t="inlineStr">
         <is>
-          <t>10043-35-3</t>
+          <t>111-30-8</t>
         </is>
       </c>
       <c r="AA113" s="6" t="n">
@@ -15459,7 +15463,7 @@
       </c>
       <c r="AE113" s="6" t="inlineStr">
         <is>
-          <t>61.831 g/mol</t>
+          <t>100.117 g/mol</t>
         </is>
       </c>
       <c r="AF113" s="6" t="n">
@@ -15476,12 +15480,12 @@
       </c>
       <c r="AJ113" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK113" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -15503,22 +15507,22 @@
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>0219507405</t>
+          <t>0219521380</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine5Triphosphate Disodiu</t>
         </is>
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine5Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="I114" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 5 kg MP Biomedical</t>
+          <t>Guanosine-5′-triphosphate disodium salt,≥95%, 100 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J114" s="6" t="n">
@@ -15526,7 +15530,7 @@
       </c>
       <c r="K114" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="L114" s="7" t="n">
@@ -15573,14 +15577,16 @@
       </c>
       <c r="Z114" s="7" t="inlineStr">
         <is>
-          <t>10043-35-3</t>
+          <t>36051-31-7</t>
         </is>
       </c>
       <c r="AA114" s="6" t="n">
         <v/>
       </c>
-      <c r="AB114" s="6" t="n">
-        <v/>
+      <c r="AB114" s="6" t="inlineStr">
+        <is>
+          <t>≥95%</t>
+        </is>
       </c>
       <c r="AC114" s="6" t="n">
         <v/>
@@ -15590,7 +15596,7 @@
       </c>
       <c r="AE114" s="6" t="inlineStr">
         <is>
-          <t>61.831 g/mol</t>
+          <t>589.126 g/mol</t>
         </is>
       </c>
       <c r="AF114" s="6" t="n">
@@ -15607,12 +15613,12 @@
       </c>
       <c r="AJ114" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK114" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -15634,22 +15640,22 @@
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>0219519901</t>
+          <t>0219525410</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G25</t>
         </is>
       </c>
       <c r="H115" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G25</t>
         </is>
       </c>
       <c r="I115" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde, 25% aqueous solution, 1 mL MP Biomedical</t>
+          <t>Sephadex G-26, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J115" s="6" t="n">
@@ -15657,7 +15663,7 @@
       </c>
       <c r="K115" s="6" t="inlineStr">
         <is>
-          <t>1 mL</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L115" s="7" t="n">
@@ -15704,7 +15710,7 @@
       </c>
       <c r="Z115" s="7" t="inlineStr">
         <is>
-          <t>111-30-8</t>
+          <t>9041-35-4</t>
         </is>
       </c>
       <c r="AA115" s="6" t="n">
@@ -15721,7 +15727,7 @@
       </c>
       <c r="AE115" s="6" t="inlineStr">
         <is>
-          <t>100.117 g/mol</t>
+          <t>272.25 g/mol</t>
         </is>
       </c>
       <c r="AF115" s="6" t="n">
@@ -15738,12 +15744,12 @@
       </c>
       <c r="AJ115" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK115" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -15765,31 +15771,23 @@
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>0219521380</t>
-        </is>
-      </c>
-      <c r="G116" s="6" t="inlineStr">
-        <is>
-          <t>Guanosine5Triphosphate Disodiu</t>
-        </is>
-      </c>
-      <c r="H116" s="6" t="inlineStr">
-        <is>
-          <t>Guanosine5Triphosphate Disodium Salt</t>
-        </is>
-      </c>
-      <c r="I116" s="6" t="inlineStr">
-        <is>
-          <t>Guanosine-5′-triphosphate disodium salt,≥95%, 100 mg MP Biomedical</t>
-        </is>
+          <t>0219525412</t>
+        </is>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H116" s="6" t="n">
+        <v/>
+      </c>
+      <c r="I116" s="6" t="n">
+        <v/>
       </c>
       <c r="J116" s="6" t="n">
         <v/>
       </c>
-      <c r="K116" s="6" t="inlineStr">
-        <is>
-          <t>100 mg</t>
-        </is>
+      <c r="K116" s="6" t="n">
+        <v/>
       </c>
       <c r="L116" s="7" t="n">
         <v/>
@@ -15833,18 +15831,14 @@
       <c r="Y116" s="6" t="n">
         <v/>
       </c>
-      <c r="Z116" s="7" t="inlineStr">
-        <is>
-          <t>36051-31-7</t>
-        </is>
+      <c r="Z116" s="7" t="n">
+        <v/>
       </c>
       <c r="AA116" s="6" t="n">
         <v/>
       </c>
-      <c r="AB116" s="6" t="inlineStr">
-        <is>
-          <t>≥95%</t>
-        </is>
+      <c r="AB116" s="6" t="n">
+        <v/>
       </c>
       <c r="AC116" s="6" t="n">
         <v/>
@@ -15852,10 +15846,8 @@
       <c r="AD116" s="6" t="n">
         <v/>
       </c>
-      <c r="AE116" s="6" t="inlineStr">
-        <is>
-          <t>589.126 g/mol</t>
-        </is>
+      <c r="AE116" s="6" t="n">
+        <v/>
       </c>
       <c r="AF116" s="6" t="n">
         <v/>
@@ -15869,15 +15861,11 @@
       <c r="AI116" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ116" s="6" t="inlineStr">
-        <is>
-          <t>-30C to -2C</t>
-        </is>
-      </c>
-      <c r="AK116" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
+      <c r="AJ116" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK116" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1" s="21">
@@ -15898,7 +15886,7 @@
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>0219525410</t>
+          <t>0219525450</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
@@ -15913,7 +15901,7 @@
       </c>
       <c r="I117" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G-26, 10 g MP Biomedical</t>
+          <t>Sephadex G-27, 50 g MP Biomedical</t>
         </is>
       </c>
       <c r="J117" s="6" t="n">
@@ -15921,7 +15909,7 @@
       </c>
       <c r="K117" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="L117" s="7" t="n">
@@ -16029,23 +16017,31 @@
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>0219525412</t>
-        </is>
-      </c>
-      <c r="G118" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H118" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I118" s="6" t="n">
-        <v/>
+          <t>0219941001</t>
+        </is>
+      </c>
+      <c r="G118" s="6" t="inlineStr">
+        <is>
+          <t>1Naphthyl Phosphate Monosodium</t>
+        </is>
+      </c>
+      <c r="H118" s="6" t="inlineStr">
+        <is>
+          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+        </is>
+      </c>
+      <c r="I118" s="6" t="inlineStr">
+        <is>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 1 g MP Biomedical</t>
+        </is>
       </c>
       <c r="J118" s="6" t="n">
         <v/>
       </c>
-      <c r="K118" s="6" t="n">
-        <v/>
+      <c r="K118" s="6" t="inlineStr">
+        <is>
+          <t>1 g</t>
+        </is>
       </c>
       <c r="L118" s="7" t="n">
         <v/>
@@ -16089,8 +16085,10 @@
       <c r="Y118" s="6" t="n">
         <v/>
       </c>
-      <c r="Z118" s="7" t="n">
-        <v/>
+      <c r="Z118" s="7" t="inlineStr">
+        <is>
+          <t>81012-89-7</t>
+        </is>
       </c>
       <c r="AA118" s="6" t="n">
         <v/>
@@ -16104,8 +16102,10 @@
       <c r="AD118" s="6" t="n">
         <v/>
       </c>
-      <c r="AE118" s="6" t="n">
-        <v/>
+      <c r="AE118" s="6" t="inlineStr">
+        <is>
+          <t>264.149 g/mol</t>
+        </is>
       </c>
       <c r="AF118" s="6" t="n">
         <v/>
@@ -16119,11 +16119,15 @@
       <c r="AI118" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ118" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK118" s="6" t="n">
-        <v/>
+      <c r="AJ118" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+      <c r="AK118" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1" s="21">
@@ -16144,22 +16148,22 @@
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>0219525450</t>
+          <t>0219941005</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G25</t>
+          <t>1Naphthyl Phosphate Monosodium</t>
         </is>
       </c>
       <c r="H119" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G25</t>
+          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="I119" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G-27, 50 g MP Biomedical</t>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J119" s="6" t="n">
@@ -16167,7 +16171,7 @@
       </c>
       <c r="K119" s="6" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L119" s="7" t="n">
@@ -16214,7 +16218,7 @@
       </c>
       <c r="Z119" s="7" t="inlineStr">
         <is>
-          <t>9041-35-4</t>
+          <t>81012-89-7</t>
         </is>
       </c>
       <c r="AA119" s="6" t="n">
@@ -16231,7 +16235,7 @@
       </c>
       <c r="AE119" s="6" t="inlineStr">
         <is>
-          <t>272.25 g/mol</t>
+          <t>264.149 g/mol</t>
         </is>
       </c>
       <c r="AF119" s="6" t="n">
@@ -16248,12 +16252,12 @@
       </c>
       <c r="AJ119" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK119" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -16275,7 +16279,7 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>0219941001</t>
+          <t>0219941010</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
@@ -16290,7 +16294,7 @@
       </c>
       <c r="I120" s="6" t="inlineStr">
         <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 1 g MP Biomedical</t>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J120" s="6" t="n">
@@ -16298,7 +16302,7 @@
       </c>
       <c r="K120" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L120" s="7" t="n">
@@ -16406,22 +16410,22 @@
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>0219941005</t>
+          <t>0219951805</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="I121" s="6" t="inlineStr">
         <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 5 g MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 5 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J121" s="6" t="n">
@@ -16429,7 +16433,7 @@
       </c>
       <c r="K121" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>5 U</t>
         </is>
       </c>
       <c r="L121" s="7" t="n">
@@ -16456,8 +16460,10 @@
       <c r="S121" s="6" t="n">
         <v/>
       </c>
-      <c r="T121" s="6" t="n">
-        <v/>
+      <c r="T121" s="6" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
       </c>
       <c r="U121" s="6" t="n">
         <v/>
@@ -16476,7 +16482,7 @@
       </c>
       <c r="Z121" s="7" t="inlineStr">
         <is>
-          <t>81012-89-7</t>
+          <t>9002-17-9</t>
         </is>
       </c>
       <c r="AA121" s="6" t="n">
@@ -16491,10 +16497,8 @@
       <c r="AD121" s="6" t="n">
         <v/>
       </c>
-      <c r="AE121" s="6" t="inlineStr">
-        <is>
-          <t>264.149 g/mol</t>
-        </is>
+      <c r="AE121" s="6" t="n">
+        <v/>
       </c>
       <c r="AF121" s="6" t="n">
         <v/>
@@ -16510,12 +16514,12 @@
       </c>
       <c r="AJ121" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK121" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -16537,22 +16541,22 @@
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>0219941010</t>
+          <t>0219951825</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="H122" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="I122" s="6" t="inlineStr">
         <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 10 g MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 25 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J122" s="6" t="n">
@@ -16560,7 +16564,7 @@
       </c>
       <c r="K122" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>25 U</t>
         </is>
       </c>
       <c r="L122" s="7" t="n">
@@ -16587,8 +16591,10 @@
       <c r="S122" s="6" t="n">
         <v/>
       </c>
-      <c r="T122" s="6" t="n">
-        <v/>
+      <c r="T122" s="6" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
       </c>
       <c r="U122" s="6" t="n">
         <v/>
@@ -16607,7 +16613,7 @@
       </c>
       <c r="Z122" s="7" t="inlineStr">
         <is>
-          <t>81012-89-7</t>
+          <t>9002-17-9</t>
         </is>
       </c>
       <c r="AA122" s="6" t="n">
@@ -16622,10 +16628,8 @@
       <c r="AD122" s="6" t="n">
         <v/>
       </c>
-      <c r="AE122" s="6" t="inlineStr">
-        <is>
-          <t>264.149 g/mol</t>
-        </is>
+      <c r="AE122" s="6" t="n">
+        <v/>
       </c>
       <c r="AF122" s="6" t="n">
         <v/>
@@ -16641,12 +16645,12 @@
       </c>
       <c r="AJ122" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK122" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -16668,7 +16672,7 @@
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>0219951805</t>
+          <t>0219951850</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
@@ -16683,7 +16687,7 @@
       </c>
       <c r="I123" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 5 Units MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 50 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J123" s="6" t="n">
@@ -16691,7 +16695,7 @@
       </c>
       <c r="K123" s="6" t="inlineStr">
         <is>
-          <t>5 U</t>
+          <t>50 U</t>
         </is>
       </c>
       <c r="L123" s="7" t="n">
@@ -16799,22 +16803,22 @@
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>0219951825</t>
+          <t>0219960880</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="H124" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="I124" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 25 Units MP Biomedical</t>
+          <t>L-Glutamine, USP, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J124" s="6" t="n">
@@ -16822,7 +16826,7 @@
       </c>
       <c r="K124" s="6" t="inlineStr">
         <is>
-          <t>25 U</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L124" s="7" t="n">
@@ -16849,10 +16853,8 @@
       <c r="S124" s="6" t="n">
         <v/>
       </c>
-      <c r="T124" s="6" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
+      <c r="T124" s="6" t="n">
+        <v/>
       </c>
       <c r="U124" s="6" t="n">
         <v/>
@@ -16871,7 +16873,7 @@
       </c>
       <c r="Z124" s="7" t="inlineStr">
         <is>
-          <t>9002-17-9</t>
+          <t>56-85-9</t>
         </is>
       </c>
       <c r="AA124" s="6" t="n">
@@ -16886,8 +16888,10 @@
       <c r="AD124" s="6" t="n">
         <v/>
       </c>
-      <c r="AE124" s="6" t="n">
-        <v/>
+      <c r="AE124" s="6" t="inlineStr">
+        <is>
+          <t>146.146 g/mol</t>
+        </is>
       </c>
       <c r="AF124" s="6" t="n">
         <v/>
@@ -16903,12 +16907,12 @@
       </c>
       <c r="AJ124" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK124" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -16930,22 +16934,22 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>0219951850</t>
+          <t>0219960890</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="H125" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="I125" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 50 Units MP Biomedical</t>
+          <t>L-Glutamine, USP, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J125" s="6" t="n">
@@ -16953,7 +16957,7 @@
       </c>
       <c r="K125" s="6" t="inlineStr">
         <is>
-          <t>50 U</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L125" s="7" t="n">
@@ -16980,10 +16984,8 @@
       <c r="S125" s="6" t="n">
         <v/>
       </c>
-      <c r="T125" s="6" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
+      <c r="T125" s="6" t="n">
+        <v/>
       </c>
       <c r="U125" s="6" t="n">
         <v/>
@@ -17002,7 +17004,7 @@
       </c>
       <c r="Z125" s="7" t="inlineStr">
         <is>
-          <t>9002-17-9</t>
+          <t>56-85-9</t>
         </is>
       </c>
       <c r="AA125" s="6" t="n">
@@ -17017,8 +17019,10 @@
       <c r="AD125" s="6" t="n">
         <v/>
       </c>
-      <c r="AE125" s="6" t="n">
-        <v/>
+      <c r="AE125" s="6" t="inlineStr">
+        <is>
+          <t>146.146 g/mol</t>
+        </is>
       </c>
       <c r="AF125" s="6" t="n">
         <v/>
@@ -17034,12 +17038,12 @@
       </c>
       <c r="AJ125" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK125" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -17061,7 +17065,7 @@
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>0219960880</t>
+          <t>0219960891</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
@@ -17076,7 +17080,7 @@
       </c>
       <c r="I126" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 100 g MP Biomedical</t>
+          <t>L-Glutamine, USP, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J126" s="6" t="n">
@@ -17084,7 +17088,7 @@
       </c>
       <c r="K126" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L126" s="7" t="n">
@@ -17192,22 +17196,22 @@
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>0219960890</t>
+          <t>0230008406</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="H127" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="I127" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 500 g MP Biomedical</t>
+          <t>Ethyl acetate, 6 x 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J127" s="6" t="n">
@@ -17215,7 +17219,7 @@
       </c>
       <c r="K127" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 L</t>
         </is>
       </c>
       <c r="L127" s="7" t="n">
@@ -17262,14 +17266,16 @@
       </c>
       <c r="Z127" s="7" t="inlineStr">
         <is>
-          <t>56-85-9</t>
+          <t>141-78-6</t>
         </is>
       </c>
       <c r="AA127" s="6" t="n">
         <v/>
       </c>
-      <c r="AB127" s="6" t="n">
-        <v/>
+      <c r="AB127" s="6" t="inlineStr">
+        <is>
+          <t>≥99.9%</t>
+        </is>
       </c>
       <c r="AC127" s="6" t="n">
         <v/>
@@ -17279,7 +17285,7 @@
       </c>
       <c r="AE127" s="6" t="inlineStr">
         <is>
-          <t>146.146 g/mol</t>
+          <t>88.106 g/mol</t>
         </is>
       </c>
       <c r="AF127" s="6" t="n">
@@ -17323,22 +17329,22 @@
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
-          <t>0219960891</t>
+          <t>0230008416</t>
         </is>
       </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="H128" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="I128" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 1 kg MP Biomedical</t>
+          <t>Ethyl acetate, 4 x 4 L MP Biomedical</t>
         </is>
       </c>
       <c r="J128" s="6" t="n">
@@ -17346,7 +17352,7 @@
       </c>
       <c r="K128" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>4 L</t>
         </is>
       </c>
       <c r="L128" s="7" t="n">
@@ -17393,14 +17399,16 @@
       </c>
       <c r="Z128" s="7" t="inlineStr">
         <is>
-          <t>56-85-9</t>
+          <t>141-78-6</t>
         </is>
       </c>
       <c r="AA128" s="6" t="n">
         <v/>
       </c>
-      <c r="AB128" s="6" t="n">
-        <v/>
+      <c r="AB128" s="6" t="inlineStr">
+        <is>
+          <t>≥99.9%</t>
+        </is>
       </c>
       <c r="AC128" s="6" t="n">
         <v/>
@@ -17410,7 +17418,7 @@
       </c>
       <c r="AE128" s="6" t="inlineStr">
         <is>
-          <t>146.146 g/mol</t>
+          <t>88.106 g/mol</t>
         </is>
       </c>
       <c r="AF128" s="6" t="n">
@@ -17454,22 +17462,22 @@
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
-          <t>0230008406</t>
+          <t>04821915</t>
         </is>
       </c>
       <c r="G129" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="H129" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="I129" s="6" t="inlineStr">
         <is>
-          <t>Ethyl acetate, 6 x 1 L MP Biomedical</t>
+          <t>Water, DNase, RNase-free, 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J129" s="6" t="n">
@@ -17524,16 +17532,14 @@
       </c>
       <c r="Z129" s="7" t="inlineStr">
         <is>
-          <t>141-78-6</t>
+          <t>7732-18-5</t>
         </is>
       </c>
       <c r="AA129" s="6" t="n">
         <v/>
       </c>
-      <c r="AB129" s="6" t="inlineStr">
-        <is>
-          <t>≥99.9%</t>
-        </is>
+      <c r="AB129" s="6" t="n">
+        <v/>
       </c>
       <c r="AC129" s="6" t="n">
         <v/>
@@ -17543,7 +17549,7 @@
       </c>
       <c r="AE129" s="6" t="inlineStr">
         <is>
-          <t>88.106 g/mol</t>
+          <t>18.015 g/mol</t>
         </is>
       </c>
       <c r="AF129" s="6" t="n">
@@ -17558,15 +17564,11 @@
       <c r="AI129" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ129" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
-      </c>
-      <c r="AK129" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
+      <c r="AJ129" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK129" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1" s="21">
@@ -17587,22 +17589,22 @@
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>0230008416</t>
+          <t>04821932</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="I130" s="6" t="inlineStr">
         <is>
-          <t>Ethyl acetate, 4 x 4 L MP Biomedical</t>
+          <t>Water, DNase, RNase-FREE, 500 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J130" s="6" t="n">
@@ -17610,7 +17612,7 @@
       </c>
       <c r="K130" s="6" t="inlineStr">
         <is>
-          <t>4 L</t>
+          <t>500 mL</t>
         </is>
       </c>
       <c r="L130" s="7" t="n">
@@ -17657,16 +17659,14 @@
       </c>
       <c r="Z130" s="7" t="inlineStr">
         <is>
-          <t>141-78-6</t>
+          <t>7732-18-5</t>
         </is>
       </c>
       <c r="AA130" s="6" t="n">
         <v/>
       </c>
-      <c r="AB130" s="6" t="inlineStr">
-        <is>
-          <t>≥99.9%</t>
-        </is>
+      <c r="AB130" s="6" t="n">
+        <v/>
       </c>
       <c r="AC130" s="6" t="n">
         <v/>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="AE130" s="6" t="inlineStr">
         <is>
-          <t>88.106 g/mol</t>
+          <t>18.015 g/mol</t>
         </is>
       </c>
       <c r="AF130" s="6" t="n">
@@ -17720,22 +17720,22 @@
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>04821915</t>
+          <t>08320961</t>
         </is>
       </c>
       <c r="G131" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase YC enzyme retains ve</t>
         </is>
       </c>
       <c r="H131" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase YC enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase Actually this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials</t>
         </is>
       </c>
       <c r="I131" s="6" t="inlineStr">
         <is>
-          <t>Water, DNase, RNase-free, 1 L MP Biomedical</t>
+          <t>Cellulase Y-C (from Trichoderma viride), 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J131" s="6" t="n">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="K131" s="6" t="inlineStr">
         <is>
-          <t>1 L</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L131" s="7" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="Z131" s="7" t="inlineStr">
         <is>
-          <t>7732-18-5</t>
+          <t>9012-54-8</t>
         </is>
       </c>
       <c r="AA131" s="6" t="n">
@@ -17805,10 +17805,8 @@
       <c r="AD131" s="6" t="n">
         <v/>
       </c>
-      <c r="AE131" s="6" t="inlineStr">
-        <is>
-          <t>18.015 g/mol</t>
-        </is>
+      <c r="AE131" s="6" t="n">
+        <v/>
       </c>
       <c r="AF131" s="6" t="n">
         <v/>
@@ -17822,11 +17820,15 @@
       <c r="AI131" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ131" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK131" s="6" t="n">
-        <v/>
+      <c r="AJ131" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+      <c r="AK131" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1" s="21">
@@ -17847,22 +17849,22 @@
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
-          <t>04821932</t>
+          <t>0855285</t>
         </is>
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Lyophilized horseradish peroxi</t>
         </is>
       </c>
       <c r="H132" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated rabbit IgG fraction to bovine albumin and buffer salts</t>
         </is>
       </c>
       <c r="I132" s="6" t="inlineStr">
         <is>
-          <t>Water, DNase, RNase-FREE, 500 mL MP Biomedical</t>
+          <t>Anti-bovine albumin rabbit IgG fraction, peroxidase-conjugated, 2 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J132" s="6" t="n">
@@ -17870,7 +17872,7 @@
       </c>
       <c r="K132" s="6" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>2 mL</t>
         </is>
       </c>
       <c r="L132" s="7" t="n">
@@ -17903,28 +17905,32 @@
       <c r="U132" s="6" t="n">
         <v/>
       </c>
-      <c r="V132" s="6" t="n">
-        <v/>
+      <c r="V132" s="6" t="inlineStr">
+        <is>
+          <t>Rabbit</t>
+        </is>
       </c>
       <c r="W132" s="6" t="n">
         <v/>
       </c>
-      <c r="X132" s="6" t="n">
-        <v/>
+      <c r="X132" s="6" t="inlineStr">
+        <is>
+          <t>HRP</t>
+        </is>
       </c>
       <c r="Y132" s="6" t="n">
         <v/>
       </c>
-      <c r="Z132" s="7" t="inlineStr">
-        <is>
-          <t>7732-18-5</t>
-        </is>
+      <c r="Z132" s="7" t="n">
+        <v/>
       </c>
       <c r="AA132" s="6" t="n">
         <v/>
       </c>
-      <c r="AB132" s="6" t="n">
-        <v/>
+      <c r="AB132" s="6" t="inlineStr">
+        <is>
+          <t>Purified</t>
+        </is>
       </c>
       <c r="AC132" s="6" t="n">
         <v/>
@@ -17932,13 +17938,13 @@
       <c r="AD132" s="6" t="n">
         <v/>
       </c>
-      <c r="AE132" s="6" t="inlineStr">
-        <is>
-          <t>18.015 g/mol</t>
-        </is>
-      </c>
-      <c r="AF132" s="6" t="n">
-        <v/>
+      <c r="AE132" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AF132" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein: 28.4 mg/mL; Titer: 1:110;000</t>
+        </is>
       </c>
       <c r="AG132" s="6" t="n">
         <v/>
@@ -17951,12 +17957,12 @@
       </c>
       <c r="AJ132" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK132" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -17978,22 +17984,22 @@
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
-          <t>08320961</t>
+          <t>0855557</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>Cellulase YC enzyme retains ve</t>
+          <t>Lyophilized horseradish peroxi</t>
         </is>
       </c>
       <c r="H133" s="6" t="inlineStr">
         <is>
-          <t>Cellulase YC enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase Actually this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated goat IgG fraction to mouse complement C3 and buffer salts</t>
         </is>
       </c>
       <c r="I133" s="6" t="inlineStr">
         <is>
-          <t>Cellulase Y-C (from Trichoderma viride), 10 g MP Biomedical</t>
+          <t>Anti-mouse complement C3 goat IgG fraction, peroxidase-conjugated , 2 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J133" s="6" t="n">
@@ -18001,7 +18007,7 @@
       </c>
       <c r="K133" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>2 mL</t>
         </is>
       </c>
       <c r="L133" s="7" t="n">
@@ -18034,28 +18040,32 @@
       <c r="U133" s="6" t="n">
         <v/>
       </c>
-      <c r="V133" s="6" t="n">
-        <v/>
+      <c r="V133" s="6" t="inlineStr">
+        <is>
+          <t>Goat</t>
+        </is>
       </c>
       <c r="W133" s="6" t="n">
         <v/>
       </c>
-      <c r="X133" s="6" t="n">
-        <v/>
+      <c r="X133" s="6" t="inlineStr">
+        <is>
+          <t>HRP</t>
+        </is>
       </c>
       <c r="Y133" s="6" t="n">
         <v/>
       </c>
-      <c r="Z133" s="7" t="inlineStr">
-        <is>
-          <t>9012-54-8</t>
-        </is>
+      <c r="Z133" s="7" t="n">
+        <v/>
       </c>
       <c r="AA133" s="6" t="n">
         <v/>
       </c>
-      <c r="AB133" s="6" t="n">
-        <v/>
+      <c r="AB133" s="6" t="inlineStr">
+        <is>
+          <t>Purified</t>
+        </is>
       </c>
       <c r="AC133" s="6" t="n">
         <v/>
@@ -18066,8 +18076,10 @@
       <c r="AE133" s="6" t="n">
         <v/>
       </c>
-      <c r="AF133" s="6" t="n">
-        <v/>
+      <c r="AF133" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein: 19.0 mg/mL; Titer: 1: 78;000</t>
+        </is>
       </c>
       <c r="AG133" s="6" t="n">
         <v/>
@@ -18107,22 +18119,22 @@
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
-          <t>0855285</t>
+          <t>08791501</t>
         </is>
       </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxi</t>
+          <t>Crude Phaseolus vulgarisP lect</t>
         </is>
       </c>
       <c r="H134" s="6" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated rabbit IgG fraction to bovine albumin and buffer salts</t>
+          <t>Crude Phaseolus vulgarisP lectin PHAP from the Red Kidney Bean Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit dog cat mouse sheep and guinea pig The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals</t>
         </is>
       </c>
       <c r="I134" s="6" t="inlineStr">
         <is>
-          <t>Anti-bovine albumin rabbit IgG fraction, peroxidase-conjugated, 2 mL MP Biomedical</t>
+          <t>Phytohemagglutinin, phaseolus vulgaris, 25 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J134" s="6" t="n">
@@ -18130,7 +18142,7 @@
       </c>
       <c r="K134" s="6" t="inlineStr">
         <is>
-          <t>2 mL</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="L134" s="7" t="n">
@@ -18163,18 +18175,14 @@
       <c r="U134" s="6" t="n">
         <v/>
       </c>
-      <c r="V134" s="6" t="inlineStr">
-        <is>
-          <t>Rabbit</t>
-        </is>
+      <c r="V134" s="6" t="n">
+        <v/>
       </c>
       <c r="W134" s="6" t="n">
         <v/>
       </c>
-      <c r="X134" s="6" t="inlineStr">
-        <is>
-          <t>HRP</t>
-        </is>
+      <c r="X134" s="6" t="n">
+        <v/>
       </c>
       <c r="Y134" s="6" t="n">
         <v/>
@@ -18185,10 +18193,8 @@
       <c r="AA134" s="6" t="n">
         <v/>
       </c>
-      <c r="AB134" s="6" t="inlineStr">
-        <is>
-          <t>Purified</t>
-        </is>
+      <c r="AB134" s="6" t="n">
+        <v/>
       </c>
       <c r="AC134" s="6" t="n">
         <v/>
@@ -18201,7 +18207,7 @@
       </c>
       <c r="AF134" s="6" t="inlineStr">
         <is>
-          <t>Total Protein: 28.4 mg/mL; Titer: 1:110;000</t>
+          <t>25 mg/vial</t>
         </is>
       </c>
       <c r="AG134" s="6" t="n">
@@ -18225,647 +18231,199 @@
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1" s="21">
-      <c r="A135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="B135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="C135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="D135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="E135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>0855557</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr">
-        <is>
-          <t>Lyophilized horseradish peroxi</t>
-        </is>
-      </c>
-      <c r="H135" s="6" t="inlineStr">
-        <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated goat IgG fraction to mouse complement C3 and buffer salts</t>
-        </is>
-      </c>
-      <c r="I135" s="6" t="inlineStr">
-        <is>
-          <t>Anti-mouse complement C3 goat IgG fraction, peroxidase-conjugated , 2 mL MP Biomedical</t>
-        </is>
-      </c>
-      <c r="J135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K135" s="6" t="inlineStr">
-        <is>
-          <t>2 mL</t>
-        </is>
-      </c>
-      <c r="L135" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V135" s="6" t="inlineStr">
-        <is>
-          <t>Goat</t>
-        </is>
-      </c>
-      <c r="W135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X135" s="6" t="inlineStr">
-        <is>
-          <t>HRP</t>
-        </is>
-      </c>
-      <c r="Y135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z135" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB135" s="6" t="inlineStr">
-        <is>
-          <t>Purified</t>
-        </is>
-      </c>
-      <c r="AC135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF135" s="6" t="inlineStr">
-        <is>
-          <t>Total Protein: 19.0 mg/mL; Titer: 1: 78;000</t>
-        </is>
-      </c>
-      <c r="AG135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI135" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ135" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
-      <c r="AK135" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
+      <c r="A135" s="6" t="n"/>
+      <c r="B135" s="6" t="n"/>
+      <c r="C135" s="6" t="n"/>
+      <c r="D135" s="6" t="n"/>
+      <c r="E135" s="6" t="n"/>
+      <c r="F135" s="6" t="n"/>
+      <c r="G135" s="6" t="n"/>
+      <c r="H135" s="6" t="n"/>
+      <c r="I135" s="6" t="n"/>
+      <c r="J135" s="6" t="n"/>
+      <c r="K135" s="6" t="n"/>
+      <c r="L135" s="7" t="n"/>
+      <c r="M135" s="6" t="n"/>
+      <c r="N135" s="6" t="n"/>
+      <c r="O135" s="6" t="n"/>
+      <c r="P135" s="6" t="n"/>
+      <c r="Q135" s="6" t="n"/>
+      <c r="R135" s="6" t="n"/>
+      <c r="S135" s="6" t="n"/>
+      <c r="T135" s="6" t="n"/>
+      <c r="U135" s="6" t="n"/>
+      <c r="V135" s="6" t="n"/>
+      <c r="W135" s="6" t="n"/>
+      <c r="X135" s="6" t="n"/>
+      <c r="Y135" s="6" t="n"/>
+      <c r="Z135" s="7" t="n"/>
+      <c r="AA135" s="6" t="n"/>
+      <c r="AB135" s="6" t="n"/>
+      <c r="AC135" s="6" t="n"/>
+      <c r="AD135" s="6" t="n"/>
+      <c r="AE135" s="6" t="n"/>
+      <c r="AF135" s="6" t="n"/>
+      <c r="AG135" s="6" t="n"/>
+      <c r="AH135" s="6" t="n"/>
+      <c r="AI135" s="6" t="n"/>
+      <c r="AJ135" s="6" t="n"/>
+      <c r="AK135" s="6" t="n"/>
     </row>
     <row r="136" ht="13.5" customHeight="1" s="21">
-      <c r="A136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="B136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="C136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="D136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="E136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>08791501</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr">
-        <is>
-          <t>Crude Phaseolus vulgarisP lect</t>
-        </is>
-      </c>
-      <c r="H136" s="6" t="inlineStr">
-        <is>
-          <t>Crude Phaseolus vulgarisP lectin PHAP from the Red Kidney Bean Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit dog cat mouse sheep and guinea pig The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals</t>
-        </is>
-      </c>
-      <c r="I136" s="6" t="inlineStr">
-        <is>
-          <t>Phytohemagglutinin, phaseolus vulgaris, 25 mg MP Biomedical</t>
-        </is>
-      </c>
-      <c r="J136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K136" s="6" t="inlineStr">
-        <is>
-          <t>25 mg</t>
-        </is>
-      </c>
-      <c r="L136" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="W136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Y136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z136" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AC136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF136" s="6" t="inlineStr">
-        <is>
-          <t>25 mg/vial</t>
-        </is>
-      </c>
-      <c r="AG136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI136" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ136" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
-      <c r="AK136" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
+      <c r="A136" s="6" t="n"/>
+      <c r="B136" s="6" t="n"/>
+      <c r="C136" s="6" t="n"/>
+      <c r="D136" s="6" t="n"/>
+      <c r="E136" s="6" t="n"/>
+      <c r="F136" s="6" t="n"/>
+      <c r="G136" s="6" t="n"/>
+      <c r="H136" s="6" t="n"/>
+      <c r="I136" s="6" t="n"/>
+      <c r="J136" s="6" t="n"/>
+      <c r="K136" s="6" t="n"/>
+      <c r="L136" s="7" t="n"/>
+      <c r="M136" s="6" t="n"/>
+      <c r="N136" s="6" t="n"/>
+      <c r="O136" s="6" t="n"/>
+      <c r="P136" s="6" t="n"/>
+      <c r="Q136" s="6" t="n"/>
+      <c r="R136" s="6" t="n"/>
+      <c r="S136" s="6" t="n"/>
+      <c r="T136" s="6" t="n"/>
+      <c r="U136" s="6" t="n"/>
+      <c r="V136" s="6" t="n"/>
+      <c r="W136" s="6" t="n"/>
+      <c r="X136" s="6" t="n"/>
+      <c r="Y136" s="6" t="n"/>
+      <c r="Z136" s="7" t="n"/>
+      <c r="AA136" s="6" t="n"/>
+      <c r="AB136" s="6" t="n"/>
+      <c r="AC136" s="6" t="n"/>
+      <c r="AD136" s="6" t="n"/>
+      <c r="AE136" s="6" t="n"/>
+      <c r="AF136" s="6" t="n"/>
+      <c r="AG136" s="6" t="n"/>
+      <c r="AH136" s="6" t="n"/>
+      <c r="AI136" s="6" t="n"/>
+      <c r="AJ136" s="6" t="n"/>
+      <c r="AK136" s="6" t="n"/>
     </row>
     <row r="137" ht="13.5" customHeight="1" s="21">
-      <c r="A137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="B137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="C137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="D137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="E137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>113066132</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr">
-        <is>
-          <t>Casein Peptone Type I Casein P</t>
-        </is>
-      </c>
-      <c r="H137" s="6" t="inlineStr">
-        <is>
-          <t>Casein Peptone Type I</t>
-        </is>
-      </c>
-      <c r="I137" s="6" t="inlineStr">
-        <is>
-          <t>Casein peptone, 1 kg MP Biomedical</t>
-        </is>
-      </c>
-      <c r="J137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K137" s="6" t="inlineStr">
-        <is>
-          <t>1 kg</t>
-        </is>
-      </c>
-      <c r="L137" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="W137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Y137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z137" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AC137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AG137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI137" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ137" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
-      </c>
-      <c r="AK137" s="6" t="inlineStr">
-        <is>
-          <t>15C to 30C</t>
-        </is>
-      </c>
+      <c r="A137" s="6" t="n"/>
+      <c r="B137" s="6" t="n"/>
+      <c r="C137" s="6" t="n"/>
+      <c r="D137" s="6" t="n"/>
+      <c r="E137" s="6" t="n"/>
+      <c r="F137" s="6" t="n"/>
+      <c r="G137" s="6" t="n"/>
+      <c r="H137" s="6" t="n"/>
+      <c r="I137" s="6" t="n"/>
+      <c r="J137" s="6" t="n"/>
+      <c r="K137" s="6" t="n"/>
+      <c r="L137" s="7" t="n"/>
+      <c r="M137" s="6" t="n"/>
+      <c r="N137" s="6" t="n"/>
+      <c r="O137" s="6" t="n"/>
+      <c r="P137" s="6" t="n"/>
+      <c r="Q137" s="6" t="n"/>
+      <c r="R137" s="6" t="n"/>
+      <c r="S137" s="6" t="n"/>
+      <c r="T137" s="6" t="n"/>
+      <c r="U137" s="6" t="n"/>
+      <c r="V137" s="6" t="n"/>
+      <c r="W137" s="6" t="n"/>
+      <c r="X137" s="6" t="n"/>
+      <c r="Y137" s="6" t="n"/>
+      <c r="Z137" s="7" t="n"/>
+      <c r="AA137" s="6" t="n"/>
+      <c r="AB137" s="6" t="n"/>
+      <c r="AC137" s="6" t="n"/>
+      <c r="AD137" s="6" t="n"/>
+      <c r="AE137" s="6" t="n"/>
+      <c r="AF137" s="6" t="n"/>
+      <c r="AG137" s="6" t="n"/>
+      <c r="AH137" s="6" t="n"/>
+      <c r="AI137" s="6" t="n"/>
+      <c r="AJ137" s="6" t="n"/>
+      <c r="AK137" s="6" t="n"/>
     </row>
     <row r="138" ht="13.5" customHeight="1" s="21">
-      <c r="A138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="B138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="C138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="D138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="E138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F138" s="6" t="inlineStr">
-        <is>
-          <t>11EPHSP025</t>
-        </is>
-      </c>
-      <c r="G138" s="6" t="inlineStr">
-        <is>
-          <t>Chemically modified hotstart T</t>
-        </is>
-      </c>
-      <c r="H138" s="6" t="inlineStr">
-        <is>
-          <t>SurePRIME DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring hot start conditions</t>
-        </is>
-      </c>
-      <c r="I138" s="6" t="inlineStr">
-        <is>
-          <t>SurePRIME DNA polymerase, 250 U MP Biomedical</t>
-        </is>
-      </c>
-      <c r="J138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K138" s="6" t="inlineStr">
-        <is>
-          <t>250 U</t>
-        </is>
-      </c>
-      <c r="L138" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="W138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Y138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z138" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AC138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF138" s="6" t="inlineStr">
-        <is>
-          <t>5 U/μL</t>
-        </is>
-      </c>
-      <c r="AG138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI138" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ138" s="6" t="inlineStr">
-        <is>
-          <t>-30C to -2C</t>
-        </is>
-      </c>
-      <c r="AK138" s="6" t="inlineStr">
-        <is>
-          <t>-30C to -2C</t>
-        </is>
-      </c>
+      <c r="A138" s="6" t="n"/>
+      <c r="B138" s="6" t="n"/>
+      <c r="C138" s="6" t="n"/>
+      <c r="D138" s="6" t="n"/>
+      <c r="E138" s="6" t="n"/>
+      <c r="F138" s="6" t="n"/>
+      <c r="G138" s="6" t="n"/>
+      <c r="H138" s="6" t="n"/>
+      <c r="I138" s="6" t="n"/>
+      <c r="J138" s="6" t="n"/>
+      <c r="K138" s="6" t="n"/>
+      <c r="L138" s="7" t="n"/>
+      <c r="M138" s="6" t="n"/>
+      <c r="N138" s="6" t="n"/>
+      <c r="O138" s="6" t="n"/>
+      <c r="P138" s="6" t="n"/>
+      <c r="Q138" s="6" t="n"/>
+      <c r="R138" s="6" t="n"/>
+      <c r="S138" s="6" t="n"/>
+      <c r="T138" s="6" t="n"/>
+      <c r="U138" s="6" t="n"/>
+      <c r="V138" s="6" t="n"/>
+      <c r="W138" s="6" t="n"/>
+      <c r="X138" s="6" t="n"/>
+      <c r="Y138" s="6" t="n"/>
+      <c r="Z138" s="7" t="n"/>
+      <c r="AA138" s="6" t="n"/>
+      <c r="AB138" s="6" t="n"/>
+      <c r="AC138" s="6" t="n"/>
+      <c r="AD138" s="6" t="n"/>
+      <c r="AE138" s="6" t="n"/>
+      <c r="AF138" s="6" t="n"/>
+      <c r="AG138" s="6" t="n"/>
+      <c r="AH138" s="6" t="n"/>
+      <c r="AI138" s="6" t="n"/>
+      <c r="AJ138" s="6" t="n"/>
+      <c r="AK138" s="6" t="n"/>
     </row>
     <row r="139" ht="13.5" customHeight="1" s="21">
-      <c r="A139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="B139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="C139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="D139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="E139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>11RIST1373</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I139" s="6" t="inlineStr">
-        <is>
-          <t>Proteinase K, &gt;30 mAnson U/mg, 100 mg MP Biomedical</t>
-        </is>
-      </c>
-      <c r="J139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K139" s="6" t="inlineStr">
-        <is>
-          <t>100 mg</t>
-        </is>
-      </c>
-      <c r="L139" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="W139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Y139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z139" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AC139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AG139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI139" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ139" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
-      <c r="AK139" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
+      <c r="A139" s="6" t="n"/>
+      <c r="B139" s="6" t="n"/>
+      <c r="C139" s="6" t="n"/>
+      <c r="D139" s="6" t="n"/>
+      <c r="E139" s="6" t="n"/>
+      <c r="F139" s="6" t="n"/>
+      <c r="G139" s="6" t="n"/>
+      <c r="H139" s="6" t="n"/>
+      <c r="I139" s="6" t="n"/>
+      <c r="J139" s="6" t="n"/>
+      <c r="K139" s="6" t="n"/>
+      <c r="L139" s="7" t="n"/>
+      <c r="M139" s="6" t="n"/>
+      <c r="N139" s="6" t="n"/>
+      <c r="O139" s="6" t="n"/>
+      <c r="P139" s="6" t="n"/>
+      <c r="Q139" s="6" t="n"/>
+      <c r="R139" s="6" t="n"/>
+      <c r="S139" s="6" t="n"/>
+      <c r="T139" s="6" t="n"/>
+      <c r="U139" s="6" t="n"/>
+      <c r="V139" s="6" t="n"/>
+      <c r="W139" s="6" t="n"/>
+      <c r="X139" s="6" t="n"/>
+      <c r="Y139" s="6" t="n"/>
+      <c r="Z139" s="7" t="n"/>
+      <c r="AA139" s="6" t="n"/>
+      <c r="AB139" s="6" t="n"/>
+      <c r="AC139" s="6" t="n"/>
+      <c r="AD139" s="6" t="n"/>
+      <c r="AE139" s="6" t="n"/>
+      <c r="AF139" s="6" t="n"/>
+      <c r="AG139" s="6" t="n"/>
+      <c r="AH139" s="6" t="n"/>
+      <c r="AI139" s="6" t="n"/>
+      <c r="AJ139" s="6" t="n"/>
+      <c r="AK139" s="6" t="n"/>
     </row>
     <row r="140" ht="13.5" customHeight="1" s="21">
       <c r="A140" s="6" t="n"/>

--- a/outputs/enrichment_outputs/vwr_enrichment_ppe_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_ppe_output.xlsx
@@ -1186,20 +1186,22 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>0210000801</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v/>
+          <t>0202026</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>MP EcoChrom Alumina N is an am</t>
+        </is>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
+          <t>MP EcoChrom Alumina N is an amphoteric oxide It is commonly referred to as alumina αalumina aloxide or corundum in its crystalline form as well as many other names reflecting its widespread occurrence in nature and industry An oxide of aluminum occurring in nature as various minerals such as bauxite corundum etc It is used as an adsorbent desiccating agent and catalyst and in the manufacture of dental cements and refractories</t>
         </is>
       </c>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 1 g MP Biomedical</t>
+          <t>MP Alumina N, neutral pH, 50 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J5" s="6" t="n">
@@ -1207,7 +1209,7 @@
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>50 kg</t>
         </is>
       </c>
       <c r="L5" s="7" t="n">
@@ -1254,16 +1256,14 @@
       </c>
       <c r="Z5" s="7" t="inlineStr">
         <is>
-          <t>51963-61-2</t>
+          <t>1344-28-1</t>
         </is>
       </c>
       <c r="AA5" s="6" t="n">
         <v/>
       </c>
-      <c r="AB5" s="6" t="inlineStr">
-        <is>
-          <t>~99%</t>
-        </is>
+      <c r="AB5" s="6" t="n">
+        <v/>
       </c>
       <c r="AC5" s="6" t="n">
         <v/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AE5" s="6" t="inlineStr">
         <is>
-          <t>605.23</t>
+          <t>101.96</t>
         </is>
       </c>
       <c r="AF5" s="6" t="n">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="AJ5" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK5" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -1317,20 +1317,18 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>0210000805</t>
+          <t>0202778</t>
         </is>
       </c>
       <c r="G6" s="6" t="n">
         <v/>
       </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
-        </is>
+      <c r="H6" s="6" t="n">
+        <v/>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 5 g MP Biomedical</t>
+          <t>MP Silitech 18-32 μm, 60, 25 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J6" s="6" t="n">
@@ -1338,7 +1336,7 @@
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>25 kg</t>
         </is>
       </c>
       <c r="L6" s="7" t="n">
@@ -1385,16 +1383,14 @@
       </c>
       <c r="Z6" s="7" t="inlineStr">
         <is>
-          <t>51963-61-2</t>
+          <t>7631-86-9</t>
         </is>
       </c>
       <c r="AA6" s="6" t="n">
         <v/>
       </c>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>~99%</t>
-        </is>
+      <c r="AB6" s="6" t="n">
+        <v/>
       </c>
       <c r="AC6" s="6" t="n">
         <v/>
@@ -1404,7 +1400,7 @@
       </c>
       <c r="AE6" s="6" t="inlineStr">
         <is>
-          <t>605.23</t>
+          <t>60.08</t>
         </is>
       </c>
       <c r="AF6" s="6" t="n">
@@ -1421,12 +1417,12 @@
       </c>
       <c r="AJ6" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK6" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1444,7 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>0210000810</t>
+          <t>0210000801</t>
         </is>
       </c>
       <c r="G7" s="6" t="n">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
-          <t>Adenosine-5'-triphosphate, 10 g MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J7" s="6" t="n">
@@ -1469,7 +1465,7 @@
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L7" s="7" t="n">
@@ -1579,18 +1575,20 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>02100109.2</t>
+          <t>0210000805</t>
         </is>
       </c>
       <c r="G8" s="6" t="n">
         <v/>
       </c>
-      <c r="H8" s="6" t="n">
-        <v/>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
+        </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>N-Acetyl-D-mannosamine, 250 mg MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J8" s="6" t="n">
@@ -1598,7 +1596,7 @@
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L8" s="7" t="n">
@@ -1645,7 +1643,7 @@
       </c>
       <c r="Z8" s="7" t="inlineStr">
         <is>
-          <t>4773-29-9</t>
+          <t>51963-61-2</t>
         </is>
       </c>
       <c r="AA8" s="7" t="n">
@@ -1653,7 +1651,7 @@
       </c>
       <c r="AB8" s="14" t="inlineStr">
         <is>
-          <t>~95%</t>
+          <t>~99%</t>
         </is>
       </c>
       <c r="AC8" s="14" t="n">
@@ -1664,7 +1662,7 @@
       </c>
       <c r="AE8" s="6" t="inlineStr">
         <is>
-          <t>239.2</t>
+          <t>605.23</t>
         </is>
       </c>
       <c r="AF8" s="6" t="n">
@@ -1708,22 +1706,20 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>0210019125</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>Adenine Hydrochloride</t>
-        </is>
+          <t>0210000810</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v/>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
+          <t>ATPbrBDisodium SaltbrCrystallineBbrBPurity Approx 99B</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>Adenine hydrochloride, ~ 99%, 25 g MP Biomedical</t>
+          <t>Adenosine-5'-triphosphate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J9" s="6" t="n">
@@ -1731,7 +1727,7 @@
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L9" s="7" t="n">
@@ -1778,7 +1774,7 @@
       </c>
       <c r="Z9" s="7" t="inlineStr">
         <is>
-          <t>6055-72-7</t>
+          <t>51963-61-2</t>
         </is>
       </c>
       <c r="AA9" s="6" t="n">
@@ -1786,7 +1782,7 @@
       </c>
       <c r="AB9" s="6" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>~99%</t>
         </is>
       </c>
       <c r="AC9" s="6" t="n">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="AE9" s="6" t="inlineStr">
         <is>
-          <t>189.603 g/mol</t>
+          <t>605.23</t>
         </is>
       </c>
       <c r="AF9" s="6" t="n">
@@ -1814,12 +1810,12 @@
       </c>
       <c r="AJ9" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK9" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -1841,22 +1837,18 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>0210042780</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>Potassium Tellurite</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>Potassium Tellurite</t>
-        </is>
+          <t>02100109.2</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v/>
       </c>
       <c r="I10" s="6" t="inlineStr">
         <is>
-          <t>Potassium tellurite, 100 g MP Biomedical</t>
+          <t>N-Acetyl-D-mannosamine, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J10" s="6" t="n">
@@ -1864,7 +1856,7 @@
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L10" s="7" t="n">
@@ -1911,14 +1903,16 @@
       </c>
       <c r="Z10" s="7" t="inlineStr">
         <is>
-          <t>7790-58-1</t>
+          <t>4773-29-9</t>
         </is>
       </c>
       <c r="AA10" s="6" t="n">
         <v/>
       </c>
-      <c r="AB10" s="6" t="n">
-        <v/>
+      <c r="AB10" s="6" t="inlineStr">
+        <is>
+          <t>~95%</t>
+        </is>
       </c>
       <c r="AC10" s="6" t="n">
         <v/>
@@ -1928,7 +1922,7 @@
       </c>
       <c r="AE10" s="6" t="inlineStr">
         <is>
-          <t>253.794 g/mol</t>
+          <t>239.2</t>
         </is>
       </c>
       <c r="AF10" s="6" t="n">
@@ -1945,12 +1939,12 @@
       </c>
       <c r="AJ10" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK10" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -1972,20 +1966,22 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>0210082410</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v/>
+          <t>0210019125</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>Adenine Hydrochloride</t>
+        </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>Lactic acid is an alpha hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase LDH Lactate is one of the main components of Ringerprimes lactate or lactated Ringerprimes solution It is a fermentation acid from milk or carbohydrates</t>
+          <t>Adenine Hydrochloride</t>
         </is>
       </c>
       <c r="I11" s="6" t="inlineStr">
         <is>
-          <t>DL- Lactic acid (lithium salt), 10 g MP Biomedical</t>
+          <t>Adenine hydrochloride, ~ 99%, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J11" s="6" t="n">
@@ -1993,7 +1989,7 @@
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L11" s="7" t="n">
@@ -2040,14 +2036,16 @@
       </c>
       <c r="Z11" s="7" t="inlineStr">
         <is>
-          <t>867-55-0</t>
+          <t>6055-72-7</t>
         </is>
       </c>
       <c r="AA11" s="6" t="n">
         <v/>
       </c>
-      <c r="AB11" s="6" t="n">
-        <v/>
+      <c r="AB11" s="6" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
       </c>
       <c r="AC11" s="6" t="n">
         <v/>
@@ -2057,7 +2055,7 @@
       </c>
       <c r="AE11" s="6" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>189.603 g/mol</t>
         </is>
       </c>
       <c r="AF11" s="6" t="n">
@@ -2101,22 +2099,22 @@
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>0210090450</t>
+          <t>0210042780</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oleoyl Coenzyme A Dipotassium </t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>Oleoyl coenzyme A, dipotassium salt, 50 mg MP Biomedical</t>
+          <t>Potassium tellurite, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J12" s="6" t="n">
@@ -2124,7 +2122,7 @@
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L12" s="7" t="n">
@@ -2151,10 +2149,8 @@
       <c r="S12" s="6" t="n">
         <v/>
       </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>enzyme</t>
-        </is>
+      <c r="T12" s="6" t="n">
+        <v/>
       </c>
       <c r="U12" s="6" t="n">
         <v/>
@@ -2173,16 +2169,14 @@
       </c>
       <c r="Z12" s="7" t="inlineStr">
         <is>
-          <t>1716-06-9</t>
+          <t>7790-58-1</t>
         </is>
       </c>
       <c r="AA12" s="6" t="n">
         <v/>
       </c>
-      <c r="AB12" s="6" t="inlineStr">
-        <is>
-          <t>≥90%</t>
-        </is>
+      <c r="AB12" s="6" t="n">
+        <v/>
       </c>
       <c r="AC12" s="6" t="n">
         <v/>
@@ -2192,7 +2186,7 @@
       </c>
       <c r="AE12" s="6" t="inlineStr">
         <is>
-          <t>1031.986 g/mol</t>
+          <t>253.794 g/mol</t>
         </is>
       </c>
       <c r="AF12" s="6" t="n">
@@ -2209,12 +2203,12 @@
       </c>
       <c r="AJ12" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK12" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2230,20 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>0210137980</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr">
-        <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
-        </is>
+          <t>0210082410</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v/>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Lactic acid is an alpha hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase LDH Lactate is one of the main components of Ringerprimes lactate or lactated Ringerprimes solution It is a fermentation acid from milk or carbohydrates</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
         <is>
-          <t>Cholesteryl hydrogen succinate, 100 g MP Biomedical</t>
+          <t>DL- Lactic acid (lithium salt), 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J13" s="6" t="n">
@@ -2259,7 +2251,7 @@
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L13" s="7" t="n">
@@ -2306,7 +2298,7 @@
       </c>
       <c r="Z13" s="7" t="inlineStr">
         <is>
-          <t>1510-21-0</t>
+          <t>867-55-0</t>
         </is>
       </c>
       <c r="AA13" s="6" t="n">
@@ -2323,7 +2315,7 @@
       </c>
       <c r="AE13" s="6" t="inlineStr">
         <is>
-          <t>486.737 g/mol</t>
+          <t>96.01</t>
         </is>
       </c>
       <c r="AF13" s="6" t="n">
@@ -2367,22 +2359,22 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>0210192780</t>
+          <t>0210090450</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t xml:space="preserve">Oleoyl Coenzyme A Dipotassium </t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 100 g MP Biomedical</t>
+          <t>Oleoyl coenzyme A, dipotassium salt, 50 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J14" s="6" t="n">
@@ -2390,7 +2382,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="L14" s="7" t="n">
@@ -2417,8 +2409,10 @@
       <c r="S14" s="6" t="n">
         <v/>
       </c>
-      <c r="T14" s="6" t="n">
-        <v/>
+      <c r="T14" s="6" t="inlineStr">
+        <is>
+          <t>enzyme</t>
+        </is>
       </c>
       <c r="U14" s="6" t="n">
         <v/>
@@ -2437,14 +2431,16 @@
       </c>
       <c r="Z14" s="7" t="inlineStr">
         <is>
-          <t>16052-06-5</t>
+          <t>1716-06-9</t>
         </is>
       </c>
       <c r="AA14" s="6" t="n">
         <v/>
       </c>
-      <c r="AB14" s="6" t="n">
-        <v/>
+      <c r="AB14" s="6" t="inlineStr">
+        <is>
+          <t>≥90%</t>
+        </is>
       </c>
       <c r="AC14" s="6" t="n">
         <v/>
@@ -2454,7 +2450,7 @@
       </c>
       <c r="AE14" s="6" t="inlineStr">
         <is>
-          <t>252.329 g/mol</t>
+          <t>1031.986 g/mol</t>
         </is>
       </c>
       <c r="AF14" s="6" t="n">
@@ -2471,12 +2467,12 @@
       </c>
       <c r="AJ14" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK14" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -2498,22 +2494,22 @@
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
-          <t>0210192783</t>
+          <t>0210137980</t>
         </is>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 250 g MP Biomedical</t>
+          <t>Cholesteryl hydrogen succinate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J15" s="6" t="n">
@@ -2521,7 +2517,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L15" s="7" t="n">
@@ -2568,7 +2564,7 @@
       </c>
       <c r="Z15" s="7" t="inlineStr">
         <is>
-          <t>16052-06-5</t>
+          <t>1510-21-0</t>
         </is>
       </c>
       <c r="AA15" s="6" t="n">
@@ -2585,7 +2581,7 @@
       </c>
       <c r="AE15" s="6" t="inlineStr">
         <is>
-          <t>252.329 g/mol</t>
+          <t>486.737 g/mol</t>
         </is>
       </c>
       <c r="AF15" s="6" t="n">
@@ -2629,7 +2625,7 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>0210192791</t>
+          <t>0210192780</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
@@ -2644,7 +2640,7 @@
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>HEPPS, 1 kg MP Biomedical</t>
+          <t>HEPPS, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J16" s="6" t="n">
@@ -2652,7 +2648,7 @@
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L16" s="7" t="n">
@@ -2760,22 +2756,22 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>0210225610</t>
+          <t>0210192783</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose monohydrate, 10 g MP Biomedical</t>
+          <t>HEPPS, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J17" s="6" t="n">
@@ -2783,7 +2779,7 @@
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L17" s="7" t="n">
@@ -2830,7 +2826,7 @@
       </c>
       <c r="Z17" s="7" t="inlineStr">
         <is>
-          <t>585-99-9</t>
+          <t>16052-06-5</t>
         </is>
       </c>
       <c r="AA17" s="6" t="n">
@@ -2847,7 +2843,7 @@
       </c>
       <c r="AE17" s="6" t="inlineStr">
         <is>
-          <t>342.297 g/mol</t>
+          <t>252.329 g/mol</t>
         </is>
       </c>
       <c r="AF17" s="6" t="n">
@@ -2891,22 +2887,22 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>0210225625</t>
+          <t>0210192791</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>αDMelibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose monohydrate, 25 g MP Biomedical</t>
+          <t>HEPPS, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J18" s="6" t="n">
@@ -2914,7 +2910,7 @@
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L18" s="7" t="n">
@@ -2961,7 +2957,7 @@
       </c>
       <c r="Z18" s="7" t="inlineStr">
         <is>
-          <t>585-99-9</t>
+          <t>16052-06-5</t>
         </is>
       </c>
       <c r="AA18" s="6" t="n">
@@ -2978,7 +2974,7 @@
       </c>
       <c r="AE18" s="6" t="inlineStr">
         <is>
-          <t>342.297 g/mol</t>
+          <t>252.329 g/mol</t>
         </is>
       </c>
       <c r="AF18" s="6" t="n">
@@ -3022,22 +3018,22 @@
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
-          <t>0210226091</t>
+          <t>0210225610</t>
         </is>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Tri</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>Menadione sodium bisulfite, trihydrate, 1 kg MP Biomedical</t>
+          <t>α-D-(+)-Melibiose monohydrate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J19" s="6" t="n">
@@ -3045,7 +3041,7 @@
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L19" s="7" t="n">
@@ -3092,16 +3088,14 @@
       </c>
       <c r="Z19" s="7" t="inlineStr">
         <is>
-          <t>130-37-0</t>
+          <t>585-99-9</t>
         </is>
       </c>
       <c r="AA19" s="6" t="n">
         <v/>
       </c>
-      <c r="AB19" s="6" t="inlineStr">
-        <is>
-          <t>&gt;95%</t>
-        </is>
+      <c r="AB19" s="6" t="n">
+        <v/>
       </c>
       <c r="AC19" s="6" t="n">
         <v/>
@@ -3111,7 +3105,7 @@
       </c>
       <c r="AE19" s="6" t="inlineStr">
         <is>
-          <t>276.238 g/mol</t>
+          <t>342.297 g/mol</t>
         </is>
       </c>
       <c r="AF19" s="6" t="n">
@@ -3128,12 +3122,12 @@
       </c>
       <c r="AJ19" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK19" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -3155,20 +3149,22 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>0210237190</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v/>
+          <t>0210225625</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>αDMelibiose Monohydrate</t>
+        </is>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>Purity 9095Sequestrant for metal ions</t>
+          <t>αDMelibiose Monohydrate</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>Mucic acid, 500 g MP Biomedical</t>
+          <t>α-D-(+)-Melibiose monohydrate, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J20" s="6" t="n">
@@ -3176,7 +3172,7 @@
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L20" s="7" t="n">
@@ -3223,7 +3219,7 @@
       </c>
       <c r="Z20" s="7" t="inlineStr">
         <is>
-          <t>526-99-8</t>
+          <t>585-99-9</t>
         </is>
       </c>
       <c r="AA20" s="6" t="n">
@@ -3240,7 +3236,7 @@
       </c>
       <c r="AE20" s="6" t="inlineStr">
         <is>
-          <t>210.1</t>
+          <t>342.297 g/mol</t>
         </is>
       </c>
       <c r="AF20" s="6" t="n">
@@ -3257,12 +3253,12 @@
       </c>
       <c r="AJ20" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK20" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3280,22 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>0210245090</t>
+          <t>0210226091</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Tri</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>Ninhydrin, monohydrate, 500 g MP Biomedical</t>
+          <t>Menadione sodium bisulfite, trihydrate, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J21" s="6" t="n">
@@ -3307,7 +3303,7 @@
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L21" s="7" t="n">
@@ -3354,14 +3350,16 @@
       </c>
       <c r="Z21" s="7" t="inlineStr">
         <is>
-          <t>485-47-2</t>
+          <t>130-37-0</t>
         </is>
       </c>
       <c r="AA21" s="6" t="n">
         <v/>
       </c>
-      <c r="AB21" s="6" t="n">
-        <v/>
+      <c r="AB21" s="6" t="inlineStr">
+        <is>
+          <t>&gt;95%</t>
+        </is>
       </c>
       <c r="AC21" s="6" t="n">
         <v/>
@@ -3371,7 +3369,7 @@
       </c>
       <c r="AE21" s="6" t="inlineStr">
         <is>
-          <t>178.143 g/mol</t>
+          <t>276.238 g/mol</t>
         </is>
       </c>
       <c r="AF21" s="6" t="n">
@@ -3388,12 +3386,12 @@
       </c>
       <c r="AJ21" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK21" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -3415,22 +3413,20 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>0210280825</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>Resorcinol</t>
-        </is>
+          <t>0210237190</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v/>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Purity 9095Sequestrant for metal ions</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol, 25 g MP Biomedical</t>
+          <t>Mucic acid, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J22" s="6" t="n">
@@ -3438,7 +3434,7 @@
       </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L22" s="7" t="n">
@@ -3485,16 +3481,14 @@
       </c>
       <c r="Z22" s="7" t="inlineStr">
         <is>
-          <t>108-46-3</t>
+          <t>526-99-8</t>
         </is>
       </c>
       <c r="AA22" s="6" t="n">
         <v/>
       </c>
-      <c r="AB22" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB22" s="6" t="n">
+        <v/>
       </c>
       <c r="AC22" s="6" t="n">
         <v/>
@@ -3504,7 +3498,7 @@
       </c>
       <c r="AE22" s="6" t="inlineStr">
         <is>
-          <t>110.112 g/mol</t>
+          <t>210.1</t>
         </is>
       </c>
       <c r="AF22" s="6" t="n">
@@ -3521,12 +3515,12 @@
       </c>
       <c r="AJ22" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK22" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -3548,22 +3542,22 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>0210280890</t>
+          <t>0210245090</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
         <is>
-          <t>Resorcinol, 500 g MP Biomedical</t>
+          <t>Ninhydrin, monohydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J23" s="6" t="n">
@@ -3618,16 +3612,14 @@
       </c>
       <c r="Z23" s="7" t="inlineStr">
         <is>
-          <t>108-46-3</t>
+          <t>485-47-2</t>
         </is>
       </c>
       <c r="AA23" s="6" t="n">
         <v/>
       </c>
-      <c r="AB23" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB23" s="6" t="n">
+        <v/>
       </c>
       <c r="AC23" s="6" t="n">
         <v/>
@@ -3637,7 +3629,7 @@
       </c>
       <c r="AE23" s="6" t="inlineStr">
         <is>
-          <t>110.112 g/mol</t>
+          <t>178.143 g/mol</t>
         </is>
       </c>
       <c r="AF23" s="6" t="n">
@@ -3681,22 +3673,22 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>02102897.5</t>
+          <t>0210280825</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
         <is>
-          <t>Cholic acid, sodium salt, ≥98.5%, 500 g MP Biomedical</t>
+          <t>Resorcinol, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J24" s="6" t="n">
@@ -3704,7 +3696,7 @@
       </c>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L24" s="7" t="n">
@@ -3751,7 +3743,7 @@
       </c>
       <c r="Z24" s="7" t="inlineStr">
         <is>
-          <t>361-09-1</t>
+          <t>108-46-3</t>
         </is>
       </c>
       <c r="AA24" s="6" t="n">
@@ -3759,7 +3751,7 @@
       </c>
       <c r="AB24" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC24" s="6" t="n">
@@ -3768,8 +3760,10 @@
       <c r="AD24" s="6" t="n">
         <v/>
       </c>
-      <c r="AE24" s="6" t="n">
-        <v/>
+      <c r="AE24" s="6" t="inlineStr">
+        <is>
+          <t>110.112 g/mol</t>
+        </is>
       </c>
       <c r="AF24" s="6" t="n">
         <v/>
@@ -3812,22 +3806,22 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>0210301205</t>
+          <t>0210280890</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
         <is>
-          <t>Tetracycline, 5 g MP Biomedical</t>
+          <t>Resorcinol, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J25" s="6" t="n">
@@ -3835,7 +3829,7 @@
       </c>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L25" s="7" t="n">
@@ -3882,14 +3876,16 @@
       </c>
       <c r="Z25" s="7" t="inlineStr">
         <is>
-          <t>60-54-8</t>
+          <t>108-46-3</t>
         </is>
       </c>
       <c r="AA25" s="6" t="n">
         <v/>
       </c>
-      <c r="AB25" s="6" t="n">
-        <v/>
+      <c r="AB25" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC25" s="6" t="n">
         <v/>
@@ -3899,7 +3895,7 @@
       </c>
       <c r="AE25" s="6" t="inlineStr">
         <is>
-          <t>444.44 g/mol</t>
+          <t>110.112 g/mol</t>
         </is>
       </c>
       <c r="AF25" s="6" t="n">
@@ -3916,12 +3912,12 @@
       </c>
       <c r="AJ25" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK25" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3939,22 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>0210371250</t>
+          <t>02102897.5</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>Albumin 30 Solution</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>Albumin 30 Solution</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
         <is>
-          <t>Albumin, human, 30% solution, 50 mL MP Biomedical</t>
+          <t>Cholic acid, sodium salt, ≥98.5%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J26" s="6" t="n">
@@ -3966,7 +3962,7 @@
       </c>
       <c r="K26" s="6" t="inlineStr">
         <is>
-          <t>50 mL</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L26" s="7" t="n">
@@ -4013,14 +4009,16 @@
       </c>
       <c r="Z26" s="7" t="inlineStr">
         <is>
-          <t>70024-90-7</t>
+          <t>361-09-1</t>
         </is>
       </c>
       <c r="AA26" s="6" t="n">
         <v/>
       </c>
-      <c r="AB26" s="6" t="n">
-        <v/>
+      <c r="AB26" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC26" s="6" t="n">
         <v/>
@@ -4028,10 +4026,8 @@
       <c r="AD26" s="6" t="n">
         <v/>
       </c>
-      <c r="AE26" s="6" t="inlineStr">
-        <is>
-          <t>188.02 g/mol</t>
-        </is>
+      <c r="AE26" s="6" t="n">
+        <v/>
       </c>
       <c r="AF26" s="6" t="n">
         <v/>
@@ -4047,12 +4043,12 @@
       </c>
       <c r="AJ26" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK26" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4070,22 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>0210488691</t>
+          <t>0210301205</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>Irish Moss Carrageenan</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>Irish Moss Carrageenan</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
         <is>
-          <t>Irish moss (carrageenan), 1 kg MP Biomedical</t>
+          <t>Tetracycline, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J27" s="6" t="n">
@@ -4097,7 +4093,7 @@
       </c>
       <c r="K27" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L27" s="7" t="n">
@@ -4144,7 +4140,7 @@
       </c>
       <c r="Z27" s="7" t="inlineStr">
         <is>
-          <t>9000-07-1</t>
+          <t>60-54-8</t>
         </is>
       </c>
       <c r="AA27" s="6" t="n">
@@ -4159,8 +4155,10 @@
       <c r="AD27" s="6" t="n">
         <v/>
       </c>
-      <c r="AE27" s="6" t="n">
-        <v/>
+      <c r="AE27" s="6" t="inlineStr">
+        <is>
+          <t>444.44 g/mol</t>
+        </is>
       </c>
       <c r="AF27" s="6" t="n">
         <v/>
@@ -4176,12 +4174,12 @@
       </c>
       <c r="AJ27" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK27" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -4203,22 +4201,22 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>0210563301</t>
+          <t>0210371250</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
+          <t>Albumin 30 Solution</t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>8Anilino1Naphthalene Sulfonic Acid</t>
+          <t>Albumin 30 Solution</t>
         </is>
       </c>
       <c r="I28" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 1 g MP Biomedical</t>
+          <t>Albumin, human, 30% solution, 50 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J28" s="6" t="n">
@@ -4226,7 +4224,7 @@
       </c>
       <c r="K28" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>50 mL</t>
         </is>
       </c>
       <c r="L28" s="7" t="n">
@@ -4273,7 +4271,7 @@
       </c>
       <c r="Z28" s="7" t="inlineStr">
         <is>
-          <t>82-76-8</t>
+          <t>70024-90-7</t>
         </is>
       </c>
       <c r="AA28" s="6" t="n">
@@ -4290,7 +4288,7 @@
       </c>
       <c r="AE28" s="6" t="inlineStr">
         <is>
-          <t>299.344 g/mol</t>
+          <t>188.02 g/mol</t>
         </is>
       </c>
       <c r="AF28" s="6" t="n">
@@ -4307,12 +4305,12 @@
       </c>
       <c r="AJ28" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK28" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4332,22 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>0210563310</t>
+          <t>0210488691</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
+          <t>Irish Moss Carrageenan</t>
         </is>
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>8Anilino1Naphthalene Sulfonic Acid</t>
+          <t>Irish Moss Carrageenan</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 10 g MP Biomedical</t>
+          <t>Irish moss (carrageenan), 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J29" s="6" t="n">
@@ -4357,7 +4355,7 @@
       </c>
       <c r="K29" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L29" s="7" t="n">
@@ -4404,7 +4402,7 @@
       </c>
       <c r="Z29" s="7" t="inlineStr">
         <is>
-          <t>82-76-8</t>
+          <t>9000-07-1</t>
         </is>
       </c>
       <c r="AA29" s="6" t="n">
@@ -4419,10 +4417,8 @@
       <c r="AD29" s="6" t="n">
         <v/>
       </c>
-      <c r="AE29" s="6" t="inlineStr">
-        <is>
-          <t>299.344 g/mol</t>
-        </is>
+      <c r="AE29" s="6" t="n">
+        <v/>
       </c>
       <c r="AF29" s="6" t="n">
         <v/>
@@ -4465,7 +4461,7 @@
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>0210563325</t>
+          <t>0210563301</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -4480,7 +4476,7 @@
       </c>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>8-Anilino-1-naphthalene sulfonic acid, 25 g MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J30" s="6" t="n">
@@ -4488,7 +4484,7 @@
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L30" s="7" t="n">
@@ -4596,22 +4592,22 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>02150156.5</t>
+          <t>0210563310</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetr</t>
+          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>8Anilino1Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Sodium potassium tartrate tetrahydrate, 500 g MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J31" s="6" t="n">
@@ -4619,7 +4615,7 @@
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L31" s="7" t="n">
@@ -4666,16 +4662,14 @@
       </c>
       <c r="Z31" s="7" t="inlineStr">
         <is>
-          <t>6381-59-5</t>
+          <t>82-76-8</t>
         </is>
       </c>
       <c r="AA31" s="6" t="n">
         <v/>
       </c>
-      <c r="AB31" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB31" s="6" t="n">
+        <v/>
       </c>
       <c r="AC31" s="6" t="n">
         <v/>
@@ -4685,7 +4679,7 @@
       </c>
       <c r="AE31" s="6" t="inlineStr">
         <is>
-          <t>282.218 g/mol</t>
+          <t>299.344 g/mol</t>
         </is>
       </c>
       <c r="AF31" s="6" t="n">
@@ -4729,22 +4723,22 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>0215047783</t>
+          <t>0210563325</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 9041934</t>
+          <t xml:space="preserve">8Anilino1Naphthalene Sulfonic </t>
         </is>
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>Broad spectrum nucleoside antibiotic Inhibits protein synthesis in prokaryotic and eukaryotic organisms Suitable for selection of cells carrying plasmids conferring blasticidin resistance</t>
+          <t>8Anilino1Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="I32" s="6" t="inlineStr">
         <is>
-          <t>Blasticidin S hydrochloride, phytopure&amp;trade;, 250 mg MP Biomedical</t>
+          <t>8-Anilino-1-naphthalene sulfonic acid, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J32" s="6" t="n">
@@ -4752,7 +4746,7 @@
       </c>
       <c r="K32" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L32" s="7" t="n">
@@ -4799,7 +4793,7 @@
       </c>
       <c r="Z32" s="7" t="inlineStr">
         <is>
-          <t>3513-03-9</t>
+          <t>82-76-8</t>
         </is>
       </c>
       <c r="AA32" s="6" t="n">
@@ -4816,7 +4810,7 @@
       </c>
       <c r="AE32" s="6" t="inlineStr">
         <is>
-          <t>458.90</t>
+          <t>299.344 g/mol</t>
         </is>
       </c>
       <c r="AF32" s="6" t="n">
@@ -4831,11 +4825,15 @@
       <c r="AI32" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ32" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK32" s="6" t="n">
-        <v/>
+      <c r="AJ32" s="6" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="AK32" s="6" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="21">
@@ -4856,22 +4854,22 @@
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>0215082501</t>
+          <t>02150156.5</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydroc</t>
+          <t>Sodium Potassium Tartrate Tetr</t>
         </is>
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydrochloride</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="I33" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 1 g MP Biomedical</t>
+          <t>Sodium potassium tartrate tetrahydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J33" s="6" t="n">
@@ -4879,7 +4877,7 @@
       </c>
       <c r="K33" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L33" s="7" t="n">
@@ -4926,14 +4924,16 @@
       </c>
       <c r="Z33" s="7" t="inlineStr">
         <is>
-          <t>7411-49-6</t>
+          <t>6381-59-5</t>
         </is>
       </c>
       <c r="AA33" s="6" t="n">
         <v/>
       </c>
-      <c r="AB33" s="6" t="n">
-        <v/>
+      <c r="AB33" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC33" s="6" t="n">
         <v/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="AE33" s="6" t="inlineStr">
         <is>
-          <t>360.104 g/mol</t>
+          <t>282.218 g/mol</t>
         </is>
       </c>
       <c r="AF33" s="6" t="n">
@@ -4960,12 +4960,12 @@
       </c>
       <c r="AJ33" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK33" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -4987,22 +4987,22 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>0215082505</t>
+          <t>0215047783</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydroc</t>
+          <t>CAS Number 9041934</t>
         </is>
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>33Diaminobenzidine Tetrahydrochloride</t>
+          <t>Broad spectrum nucleoside antibiotic Inhibits protein synthesis in prokaryotic and eukaryotic organisms Suitable for selection of cells carrying plasmids conferring blasticidin resistance</t>
         </is>
       </c>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 5 g MP Biomedical</t>
+          <t>Blasticidin S hydrochloride, phytopure&amp;trade;, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J34" s="6" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L34" s="7" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="Z34" s="7" t="inlineStr">
         <is>
-          <t>7411-49-6</t>
+          <t>3513-03-9</t>
         </is>
       </c>
       <c r="AA34" s="6" t="n">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="AE34" s="6" t="inlineStr">
         <is>
-          <t>360.104 g/mol</t>
+          <t>458.90</t>
         </is>
       </c>
       <c r="AF34" s="6" t="n">
@@ -5089,15 +5089,11 @@
       <c r="AI34" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ34" s="6" t="inlineStr">
-        <is>
-          <t>-30C to -2C</t>
-        </is>
-      </c>
-      <c r="AK34" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
+      <c r="AJ34" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK34" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="21">
@@ -5118,7 +5114,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>0215082510</t>
+          <t>0215082501</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -5133,7 +5129,7 @@
       </c>
       <c r="I35" s="6" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine tetrahydrochloride, 10 g MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J35" s="6" t="n">
@@ -5141,7 +5137,7 @@
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L35" s="7" t="n">
@@ -5249,22 +5245,22 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>02151187.1</t>
+          <t>0215082505</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenas</t>
+          <t>33Diaminobenzidine Tetrahydroc</t>
         </is>
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenase</t>
+          <t>33Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="I36" s="6" t="inlineStr">
         <is>
-          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 100 U MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J36" s="6" t="n">
@@ -5272,7 +5268,7 @@
       </c>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>100 U</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L36" s="7" t="n">
@@ -5319,7 +5315,7 @@
       </c>
       <c r="Z36" s="7" t="inlineStr">
         <is>
-          <t>9001-40-5</t>
+          <t>7411-49-6</t>
         </is>
       </c>
       <c r="AA36" s="6" t="n">
@@ -5334,8 +5330,10 @@
       <c r="AD36" s="6" t="n">
         <v/>
       </c>
-      <c r="AE36" s="6" t="n">
-        <v/>
+      <c r="AE36" s="6" t="inlineStr">
+        <is>
+          <t>360.104 g/mol</t>
+        </is>
       </c>
       <c r="AF36" s="6" t="n">
         <v/>
@@ -5356,7 +5354,7 @@
       </c>
       <c r="AK36" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -5378,22 +5376,22 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>02151187.5</t>
+          <t>0215082510</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenas</t>
+          <t>33Diaminobenzidine Tetrahydroc</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
         <is>
-          <t>Glucose6Phosphate Dehydrogenase</t>
+          <t>33Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="I37" s="6" t="inlineStr">
         <is>
-          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 500 U MP Biomedical</t>
+          <t>3,3-Diaminobenzidine tetrahydrochloride, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J37" s="6" t="n">
@@ -5401,7 +5399,7 @@
       </c>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>500 U</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L37" s="7" t="n">
@@ -5448,7 +5446,7 @@
       </c>
       <c r="Z37" s="7" t="inlineStr">
         <is>
-          <t>9001-40-5</t>
+          <t>7411-49-6</t>
         </is>
       </c>
       <c r="AA37" s="6" t="n">
@@ -5463,8 +5461,10 @@
       <c r="AD37" s="6" t="n">
         <v/>
       </c>
-      <c r="AE37" s="6" t="n">
-        <v/>
+      <c r="AE37" s="6" t="inlineStr">
+        <is>
+          <t>360.104 g/mol</t>
+        </is>
       </c>
       <c r="AF37" s="6" t="n">
         <v/>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="AK37" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -5507,22 +5507,22 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>0215139383</t>
+          <t>02151187.1</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Sa</t>
+          <t>Glucose6Phosphate Dehydrogenas</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose6Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="I38" s="6" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 250 g MP Biomedical</t>
+          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 100 U MP Biomedical</t>
         </is>
       </c>
       <c r="J38" s="6" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>100 U</t>
         </is>
       </c>
       <c r="L38" s="7" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="Z38" s="7" t="inlineStr">
         <is>
-          <t>328-50-7</t>
+          <t>9001-40-5</t>
         </is>
       </c>
       <c r="AA38" s="6" t="n">
@@ -5592,10 +5592,8 @@
       <c r="AD38" s="6" t="n">
         <v/>
       </c>
-      <c r="AE38" s="6" t="inlineStr">
-        <is>
-          <t>146.098 g/mol</t>
-        </is>
+      <c r="AE38" s="6" t="n">
+        <v/>
       </c>
       <c r="AF38" s="6" t="n">
         <v/>
@@ -5611,12 +5609,12 @@
       </c>
       <c r="AJ38" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK38" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -5638,22 +5636,22 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>0215139390</t>
+          <t>02151187.5</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Sa</t>
+          <t>Glucose6Phosphate Dehydrogenas</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
         <is>
-          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose6Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="I39" s="6" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 500 g MP Biomedical</t>
+          <t>Glucose-6-phosphate dehydrogenase, ≥400 U/mg solid, 500 U MP Biomedical</t>
         </is>
       </c>
       <c r="J39" s="6" t="n">
@@ -5661,7 +5659,7 @@
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>500 U</t>
         </is>
       </c>
       <c r="L39" s="7" t="n">
@@ -5708,7 +5706,7 @@
       </c>
       <c r="Z39" s="7" t="inlineStr">
         <is>
-          <t>328-50-7</t>
+          <t>9001-40-5</t>
         </is>
       </c>
       <c r="AA39" s="6" t="n">
@@ -5723,10 +5721,8 @@
       <c r="AD39" s="6" t="n">
         <v/>
       </c>
-      <c r="AE39" s="6" t="inlineStr">
-        <is>
-          <t>146.098 g/mol</t>
-        </is>
+      <c r="AE39" s="6" t="n">
+        <v/>
       </c>
       <c r="AF39" s="6" t="n">
         <v/>
@@ -5742,12 +5738,12 @@
       </c>
       <c r="AJ39" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK39" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -5769,22 +5765,22 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>0215156180</t>
+          <t>0215139383</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>αKetoglutaric Acid Disodium Sa</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="I40" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 100 g MP Biomedical</t>
+          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J40" s="6" t="n">
@@ -5792,7 +5788,7 @@
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L40" s="7" t="n">
@@ -5839,7 +5835,7 @@
       </c>
       <c r="Z40" s="7" t="inlineStr">
         <is>
-          <t>7550-35-8</t>
+          <t>328-50-7</t>
         </is>
       </c>
       <c r="AA40" s="6" t="n">
@@ -5856,7 +5852,7 @@
       </c>
       <c r="AE40" s="6" t="inlineStr">
         <is>
-          <t>86.844 g/mol</t>
+          <t>146.098 g/mol</t>
         </is>
       </c>
       <c r="AF40" s="6" t="n">
@@ -5873,12 +5869,12 @@
       </c>
       <c r="AJ40" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK40" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -5900,22 +5896,22 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>0215156190</t>
+          <t>0215139390</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>αKetoglutaric Acid Disodium Sa</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>αKetoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="I41" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 500 g MP Biomedical</t>
+          <t>α-Ketoglutaric acid, disodium salt, dihydrate, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J41" s="6" t="n">
@@ -5970,7 +5966,7 @@
       </c>
       <c r="Z41" s="7" t="inlineStr">
         <is>
-          <t>7550-35-8</t>
+          <t>328-50-7</t>
         </is>
       </c>
       <c r="AA41" s="6" t="n">
@@ -5987,7 +5983,7 @@
       </c>
       <c r="AE41" s="6" t="inlineStr">
         <is>
-          <t>86.844 g/mol</t>
+          <t>146.098 g/mol</t>
         </is>
       </c>
       <c r="AF41" s="6" t="n">
@@ -6004,12 +6000,12 @@
       </c>
       <c r="AJ41" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK41" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6027,7 @@
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>0215156191</t>
+          <t>0215156180</t>
         </is>
       </c>
       <c r="G42" s="6" t="inlineStr">
@@ -6046,7 +6042,7 @@
       </c>
       <c r="I42" s="6" t="inlineStr">
         <is>
-          <t>Lithium bromide, 1 kg MP Biomedical</t>
+          <t>Lithium bromide, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J42" s="6" t="n">
@@ -6054,7 +6050,7 @@
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L42" s="7" t="n">
@@ -6162,22 +6158,22 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>0215186401</t>
+          <t>0215156190</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="I43" s="6" t="inlineStr">
         <is>
-          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 1 mg MP Biomedical</t>
+          <t>Lithium bromide, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J43" s="6" t="n">
@@ -6185,7 +6181,7 @@
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L43" s="7" t="n">
@@ -6232,16 +6228,14 @@
       </c>
       <c r="Z43" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>7550-35-8</t>
         </is>
       </c>
       <c r="AA43" s="6" t="n">
         <v/>
       </c>
-      <c r="AB43" s="6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
+      <c r="AB43" s="6" t="n">
+        <v/>
       </c>
       <c r="AC43" s="6" t="n">
         <v/>
@@ -6251,7 +6245,7 @@
       </c>
       <c r="AE43" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>86.844 g/mol</t>
         </is>
       </c>
       <c r="AF43" s="6" t="n">
@@ -6268,12 +6262,12 @@
       </c>
       <c r="AJ43" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK43" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6295,22 +6289,22 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>0215186405</t>
+          <t>0215156191</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Phorbol12Myristate13Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="I44" s="6" t="inlineStr">
         <is>
-          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 5 mg MP Biomedical</t>
+          <t>Lithium bromide, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J44" s="6" t="n">
@@ -6318,7 +6312,7 @@
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L44" s="7" t="n">
@@ -6365,16 +6359,14 @@
       </c>
       <c r="Z44" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>7550-35-8</t>
         </is>
       </c>
       <c r="AA44" s="6" t="n">
         <v/>
       </c>
-      <c r="AB44" s="6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
+      <c r="AB44" s="6" t="n">
+        <v/>
       </c>
       <c r="AC44" s="6" t="n">
         <v/>
@@ -6384,7 +6376,7 @@
       </c>
       <c r="AE44" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>86.844 g/mol</t>
         </is>
       </c>
       <c r="AF44" s="6" t="n">
@@ -6401,12 +6393,12 @@
       </c>
       <c r="AJ44" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK44" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6428,22 +6420,22 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>02151944.2</t>
+          <t>0215186401</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 250 g MP Biomedical</t>
+          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 1 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J45" s="6" t="n">
@@ -6451,7 +6443,7 @@
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="L45" s="7" t="n">
@@ -6498,7 +6490,7 @@
       </c>
       <c r="Z45" s="7" t="inlineStr">
         <is>
-          <t>7447-40-7</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA45" s="6" t="n">
@@ -6517,7 +6509,7 @@
       </c>
       <c r="AE45" s="6" t="inlineStr">
         <is>
-          <t>74.548 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF45" s="6" t="n">
@@ -6534,12 +6526,12 @@
       </c>
       <c r="AJ45" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK45" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6553,22 @@
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>02151944.5</t>
+          <t>0215186405</t>
         </is>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol12Myristate13Acetate</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 500 g MP Biomedical</t>
+          <t>Phorbol-12-myristate-13-acetate, &gt;99%, 5 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J46" s="6" t="n">
@@ -6584,7 +6576,7 @@
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="L46" s="7" t="n">
@@ -6631,7 +6623,7 @@
       </c>
       <c r="Z46" s="7" t="inlineStr">
         <is>
-          <t>7447-40-7</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA46" s="6" t="n">
@@ -6650,7 +6642,7 @@
       </c>
       <c r="AE46" s="6" t="inlineStr">
         <is>
-          <t>74.548 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF46" s="6" t="n">
@@ -6667,12 +6659,12 @@
       </c>
       <c r="AJ46" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK46" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -6694,7 +6686,7 @@
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
-          <t>0215194405</t>
+          <t>02151944.2</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr">
@@ -6709,7 +6701,7 @@
       </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Potassium chloride, &gt;99%, 5 kg MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J47" s="6" t="n">
@@ -6717,7 +6709,7 @@
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L47" s="7" t="n">
@@ -6827,22 +6819,22 @@
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>0215233591</t>
+          <t>02151944.5</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromato</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealandsourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality Transferrin HOLO is an ironrich product supplied as a heattreated lyophilised powder</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Transferrin, bovine (holo), 1 g MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J48" s="6" t="n">
@@ -6850,7 +6842,7 @@
       </c>
       <c r="K48" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L48" s="7" t="n">
@@ -6895,15 +6887,17 @@
       <c r="Y48" s="6" t="n">
         <v/>
       </c>
-      <c r="Z48" s="7" t="n">
-        <v/>
+      <c r="Z48" s="7" t="inlineStr">
+        <is>
+          <t>7447-40-7</t>
+        </is>
       </c>
       <c r="AA48" s="6" t="n">
         <v/>
       </c>
       <c r="AB48" s="6" t="inlineStr">
         <is>
-          <t>&amp;ge;95% Transferrin w/w protein</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="AC48" s="6" t="n">
@@ -6914,13 +6908,11 @@
       </c>
       <c r="AE48" s="6" t="inlineStr">
         <is>
-          <t>Approximately 76,000 - 81,000 (Lit.)</t>
-        </is>
-      </c>
-      <c r="AF48" s="6" t="inlineStr">
-        <is>
-          <t>Total Protein (anhydrous) &amp;ge;95% w/w total protein</t>
-        </is>
+          <t>74.548 g/mol</t>
+        </is>
+      </c>
+      <c r="AF48" s="6" t="n">
+        <v/>
       </c>
       <c r="AG48" s="6" t="n">
         <v/>
@@ -6933,12 +6925,12 @@
       </c>
       <c r="AJ48" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK48" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -6960,20 +6952,22 @@
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
-          <t>0215245525</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="n">
-        <v/>
+          <t>0215194405</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>Potassium Chloride</t>
+        </is>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS 3morpholinopropanesulfonic acid differing by the presence of a hydroxyl group on C2 of the propane moiety</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>MOPSO, sodium salt , 25 g MP Biomedical</t>
+          <t>Potassium chloride, &gt;99%, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J49" s="6" t="n">
@@ -6981,7 +6975,7 @@
       </c>
       <c r="K49" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L49" s="7" t="n">
@@ -7028,7 +7022,7 @@
       </c>
       <c r="Z49" s="7" t="inlineStr">
         <is>
-          <t>79803-73-9</t>
+          <t>7447-40-7</t>
         </is>
       </c>
       <c r="AA49" s="6" t="n">
@@ -7036,7 +7030,7 @@
       </c>
       <c r="AB49" s="6" t="inlineStr">
         <is>
-          <t>&amp;ge;99.0%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="AC49" s="6" t="n">
@@ -7047,7 +7041,7 @@
       </c>
       <c r="AE49" s="6" t="inlineStr">
         <is>
-          <t>247.2</t>
+          <t>74.548 g/mol</t>
         </is>
       </c>
       <c r="AF49" s="6" t="n">
@@ -7091,22 +7085,22 @@
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
-          <t>0215245610</t>
+          <t>0215233591</t>
         </is>
       </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>Bovine Transferrin is chromato</t>
         </is>
       </c>
       <c r="H50" s="6" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealandsourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality Transferrin HOLO is an ironrich product supplied as a heattreated lyophilised powder</t>
         </is>
       </c>
       <c r="I50" s="6" t="inlineStr">
         <is>
-          <t>PIPES sesquisodium salt, 10 g MP Biomedical</t>
+          <t>Transferrin, bovine (holo), 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J50" s="6" t="n">
@@ -7114,7 +7108,7 @@
       </c>
       <c r="K50" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L50" s="7" t="n">
@@ -7159,16 +7153,16 @@
       <c r="Y50" s="6" t="n">
         <v/>
       </c>
-      <c r="Z50" s="7" t="inlineStr">
-        <is>
-          <t>100037-69-2</t>
-        </is>
+      <c r="Z50" s="7" t="n">
+        <v/>
       </c>
       <c r="AA50" s="6" t="n">
         <v/>
       </c>
-      <c r="AB50" s="6" t="n">
-        <v/>
+      <c r="AB50" s="6" t="inlineStr">
+        <is>
+          <t>&amp;ge;95% Transferrin w/w protein</t>
+        </is>
       </c>
       <c r="AC50" s="6" t="n">
         <v/>
@@ -7178,11 +7172,13 @@
       </c>
       <c r="AE50" s="6" t="inlineStr">
         <is>
-          <t>670.665 g/mol</t>
-        </is>
-      </c>
-      <c r="AF50" s="6" t="n">
-        <v/>
+          <t>Approximately 76,000 - 81,000 (Lit.)</t>
+        </is>
+      </c>
+      <c r="AF50" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein (anhydrous) &amp;ge;95% w/w total protein</t>
+        </is>
       </c>
       <c r="AG50" s="6" t="n">
         <v/>
@@ -7195,12 +7191,12 @@
       </c>
       <c r="AJ50" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK50" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -7222,7 +7218,7 @@
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
-          <t>0215250305</t>
+          <t>0215245525</t>
         </is>
       </c>
       <c r="G51" s="6" t="n">
@@ -7230,12 +7226,12 @@
       </c>
       <c r="H51" s="6" t="inlineStr">
         <is>
-          <t>Bromocresol Green is a dye of the triphenylmethane family triarylmethane dyes It binds quantitatively with human albumin forming an intense bluegreen complex with an absorbance maximum at 628 nm</t>
+          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS 3morpholinopropanesulfonic acid differing by the presence of a hydroxyl group on C2 of the propane moiety</t>
         </is>
       </c>
       <c r="I51" s="6" t="inlineStr">
         <is>
-          <t>Bromocresol Green, 5 g MP Biomedical</t>
+          <t>MOPSO, sodium salt , 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J51" s="6" t="n">
@@ -7243,7 +7239,7 @@
       </c>
       <c r="K51" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L51" s="7" t="n">
@@ -7290,14 +7286,16 @@
       </c>
       <c r="Z51" s="7" t="inlineStr">
         <is>
-          <t>62625-32-5</t>
+          <t>79803-73-9</t>
         </is>
       </c>
       <c r="AA51" s="6" t="n">
         <v/>
       </c>
-      <c r="AB51" s="6" t="n">
-        <v/>
+      <c r="AB51" s="6" t="inlineStr">
+        <is>
+          <t>&amp;ge;99.0%</t>
+        </is>
       </c>
       <c r="AC51" s="6" t="n">
         <v/>
@@ -7307,7 +7305,7 @@
       </c>
       <c r="AE51" s="6" t="inlineStr">
         <is>
-          <t>720.0</t>
+          <t>247.2</t>
         </is>
       </c>
       <c r="AF51" s="6" t="n">
@@ -7351,20 +7349,22 @@
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
-          <t>0215250625</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="n">
-        <v/>
+          <t>0215245610</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>Pipes Sesquisodium Salt</t>
+        </is>
       </c>
       <c r="H52" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="I52" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue, sodium salt, 25 g MP Biomedical</t>
+          <t>PIPES sesquisodium salt, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J52" s="6" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="K52" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L52" s="7" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="Z52" s="7" t="inlineStr">
         <is>
-          <t>34725-61-6</t>
+          <t>100037-69-2</t>
         </is>
       </c>
       <c r="AA52" s="6" t="n">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="AE52" s="6" t="inlineStr">
         <is>
-          <t>692.0</t>
+          <t>670.665 g/mol</t>
         </is>
       </c>
       <c r="AF52" s="6" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
-          <t>0215250650</t>
+          <t>0215250305</t>
         </is>
       </c>
       <c r="G53" s="6" t="n">
@@ -7488,12 +7488,12 @@
       </c>
       <c r="H53" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
+          <t>Bromocresol Green is a dye of the triphenylmethane family triarylmethane dyes It binds quantitatively with human albumin forming an intense bluegreen complex with an absorbance maximum at 628 nm</t>
         </is>
       </c>
       <c r="I53" s="6" t="inlineStr">
         <is>
-          <t>Bromophenol blue, sodium salt, 50 g MP Biomedical</t>
+          <t>Bromocresol Green, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J53" s="6" t="n">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="K53" s="6" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L53" s="7" t="n">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="Z53" s="7" t="inlineStr">
         <is>
-          <t>34725-61-6</t>
+          <t>62625-32-5</t>
         </is>
       </c>
       <c r="AA53" s="6" t="n">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="AE53" s="6" t="inlineStr">
         <is>
-          <t>692.0</t>
+          <t>720.0</t>
         </is>
       </c>
       <c r="AF53" s="6" t="n">
@@ -7609,22 +7609,20 @@
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>0215252191</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr">
-        <is>
-          <t>Ethylenediamine Tetraacetic Ac</t>
-        </is>
+          <t>0215250625</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v/>
       </c>
       <c r="H54" s="6" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
         </is>
       </c>
       <c r="I54" s="6" t="inlineStr">
         <is>
-          <t>Ethylenediamine, tetraacetic acid, 1 kg MP Biomedical</t>
+          <t>Bromophenol blue, sodium salt, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J54" s="6" t="n">
@@ -7632,7 +7630,7 @@
       </c>
       <c r="K54" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L54" s="7" t="n">
@@ -7679,16 +7677,14 @@
       </c>
       <c r="Z54" s="7" t="inlineStr">
         <is>
-          <t>6381-92-6</t>
+          <t>34725-61-6</t>
         </is>
       </c>
       <c r="AA54" s="6" t="n">
         <v/>
       </c>
-      <c r="AB54" s="6" t="inlineStr">
-        <is>
-          <t>≥99.4%</t>
-        </is>
+      <c r="AB54" s="6" t="n">
+        <v/>
       </c>
       <c r="AC54" s="6" t="n">
         <v/>
@@ -7698,7 +7694,7 @@
       </c>
       <c r="AE54" s="6" t="inlineStr">
         <is>
-          <t>372.238 g/mol</t>
+          <t>692.0</t>
         </is>
       </c>
       <c r="AF54" s="6" t="n">
@@ -7742,22 +7738,20 @@
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>0215255280</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr">
-        <is>
-          <t>Oxalic Acid Dihydrate</t>
-        </is>
+          <t>0215250650</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v/>
       </c>
       <c r="H55" s="6" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels</t>
         </is>
       </c>
       <c r="I55" s="6" t="inlineStr">
         <is>
-          <t>Oxalic acid, dihydrate, 100 g MP Biomedical</t>
+          <t>Bromophenol blue, sodium salt, 50 g MP Biomedical</t>
         </is>
       </c>
       <c r="J55" s="6" t="n">
@@ -7765,7 +7759,7 @@
       </c>
       <c r="K55" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="L55" s="7" t="n">
@@ -7812,7 +7806,7 @@
       </c>
       <c r="Z55" s="7" t="inlineStr">
         <is>
-          <t>6153-56-6</t>
+          <t>34725-61-6</t>
         </is>
       </c>
       <c r="AA55" s="6" t="n">
@@ -7829,7 +7823,7 @@
       </c>
       <c r="AE55" s="6" t="inlineStr">
         <is>
-          <t>126.064 g/mol</t>
+          <t>692.0</t>
         </is>
       </c>
       <c r="AF55" s="6" t="n">
@@ -7873,22 +7867,22 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>0215263880</t>
+          <t>0215252191</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>Ethylenediamine Tetraacetic Ac</t>
         </is>
       </c>
       <c r="H56" s="6" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="I56" s="6" t="inlineStr">
         <is>
-          <t>Indigo carmine, 100 g MP Biomedical</t>
+          <t>Ethylenediamine, tetraacetic acid, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J56" s="6" t="n">
@@ -7896,7 +7890,7 @@
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L56" s="7" t="n">
@@ -7943,14 +7937,16 @@
       </c>
       <c r="Z56" s="7" t="inlineStr">
         <is>
-          <t>860-22-0</t>
+          <t>6381-92-6</t>
         </is>
       </c>
       <c r="AA56" s="6" t="n">
         <v/>
       </c>
-      <c r="AB56" s="6" t="n">
-        <v/>
+      <c r="AB56" s="6" t="inlineStr">
+        <is>
+          <t>≥99.4%</t>
+        </is>
       </c>
       <c r="AC56" s="6" t="n">
         <v/>
@@ -7960,7 +7956,7 @@
       </c>
       <c r="AE56" s="6" t="inlineStr">
         <is>
-          <t>466.346 g/mol</t>
+          <t>372.238 g/mol</t>
         </is>
       </c>
       <c r="AF56" s="6" t="n">
@@ -8004,20 +8000,22 @@
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>0215268105</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="n">
-        <v/>
+          <t>0215255280</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>Oxalic Acid Dihydrate</t>
+        </is>
       </c>
       <c r="H57" s="6" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carboncentered radicals</t>
+          <t>Oxalic Acid Dihydrate</t>
         </is>
       </c>
       <c r="I57" s="6" t="inlineStr">
         <is>
-          <t>TEMPO, catalytic oxidant, 5 g MP Biomedical</t>
+          <t>Oxalic acid, dihydrate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J57" s="6" t="n">
@@ -8025,7 +8023,7 @@
       </c>
       <c r="K57" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L57" s="7" t="n">
@@ -8072,7 +8070,7 @@
       </c>
       <c r="Z57" s="7" t="inlineStr">
         <is>
-          <t>2564-83-2</t>
+          <t>6153-56-6</t>
         </is>
       </c>
       <c r="AA57" s="6" t="n">
@@ -8089,7 +8087,7 @@
       </c>
       <c r="AE57" s="6" t="inlineStr">
         <is>
-          <t>156.25</t>
+          <t>126.064 g/mol</t>
         </is>
       </c>
       <c r="AF57" s="6" t="n">
@@ -8106,12 +8104,12 @@
       </c>
       <c r="AJ57" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK57" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -8133,20 +8131,22 @@
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
-          <t>0215268125</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="n">
-        <v/>
+          <t>0215263880</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>Indigo Carmine</t>
+        </is>
       </c>
       <c r="H58" s="6" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carboncentered radicals</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="I58" s="6" t="inlineStr">
         <is>
-          <t>TEMPO, catalytic oxidant, 25 g MP Biomedical</t>
+          <t>Indigo carmine, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J58" s="6" t="n">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="K58" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L58" s="7" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="Z58" s="7" t="inlineStr">
         <is>
-          <t>2564-83-2</t>
+          <t>860-22-0</t>
         </is>
       </c>
       <c r="AA58" s="6" t="n">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="AE58" s="6" t="inlineStr">
         <is>
-          <t>156.25</t>
+          <t>466.346 g/mol</t>
         </is>
       </c>
       <c r="AF58" s="6" t="n">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="AJ58" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK58" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -8262,22 +8262,20 @@
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>0215269090</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="inlineStr">
-        <is>
-          <t>PolyLlysine is a nonspecific a</t>
-        </is>
+          <t>0215268105</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v/>
       </c>
       <c r="H59" s="6" t="inlineStr">
         <is>
-          <t>PolyLLysine Hydrochloride</t>
+          <t>TEMPO reacts preferentially with carboncentered radicals</t>
         </is>
       </c>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>Poly-L-lysine hydrobromide, 500 mg MP Biomedical</t>
+          <t>TEMPO, catalytic oxidant, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J59" s="6" t="n">
@@ -8285,7 +8283,7 @@
       </c>
       <c r="K59" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L59" s="7" t="n">
@@ -8332,7 +8330,7 @@
       </c>
       <c r="Z59" s="7" t="inlineStr">
         <is>
-          <t>26124-78-7</t>
+          <t>2564-83-2</t>
         </is>
       </c>
       <c r="AA59" s="6" t="n">
@@ -8347,8 +8345,10 @@
       <c r="AD59" s="6" t="n">
         <v/>
       </c>
-      <c r="AE59" s="6" t="n">
-        <v/>
+      <c r="AE59" s="6" t="inlineStr">
+        <is>
+          <t>156.25</t>
+        </is>
       </c>
       <c r="AF59" s="6" t="n">
         <v/>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="AJ59" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK59" s="6" t="inlineStr">
@@ -8391,22 +8391,20 @@
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
-          <t>0215394601</t>
-        </is>
-      </c>
-      <c r="G60" s="6" t="inlineStr">
-        <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
+          <t>0215268125</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v/>
       </c>
       <c r="H60" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>TEMPO reacts preferentially with carboncentered radicals</t>
         </is>
       </c>
       <c r="I60" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 1 mg MP Biomedical</t>
+          <t>TEMPO, catalytic oxidant, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J60" s="6" t="n">
@@ -8414,7 +8412,7 @@
       </c>
       <c r="K60" s="6" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L60" s="7" t="n">
@@ -8461,7 +8459,7 @@
       </c>
       <c r="Z60" s="7" t="inlineStr">
         <is>
-          <t>10094-58-3</t>
+          <t>2564-83-2</t>
         </is>
       </c>
       <c r="AA60" s="6" t="n">
@@ -8478,7 +8476,7 @@
       </c>
       <c r="AE60" s="6" t="inlineStr">
         <is>
-          <t>738.639 g/mol</t>
+          <t>156.25</t>
         </is>
       </c>
       <c r="AF60" s="6" t="n">
@@ -8495,12 +8493,12 @@
       </c>
       <c r="AJ60" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK60" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -8522,22 +8520,22 @@
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
-          <t>0215394680</t>
+          <t>0215269090</t>
         </is>
       </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>PolyLlysine is a nonspecific a</t>
         </is>
       </c>
       <c r="H61" s="6" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>PolyLLysine Hydrochloride</t>
         </is>
       </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 100 mg MP Biomedical</t>
+          <t>Poly-L-lysine hydrobromide, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J61" s="6" t="n">
@@ -8545,7 +8543,7 @@
       </c>
       <c r="K61" s="6" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L61" s="7" t="n">
@@ -8592,7 +8590,7 @@
       </c>
       <c r="Z61" s="7" t="inlineStr">
         <is>
-          <t>10094-58-3</t>
+          <t>26124-78-7</t>
         </is>
       </c>
       <c r="AA61" s="6" t="n">
@@ -8607,10 +8605,8 @@
       <c r="AD61" s="6" t="n">
         <v/>
       </c>
-      <c r="AE61" s="6" t="inlineStr">
-        <is>
-          <t>738.639 g/mol</t>
-        </is>
+      <c r="AE61" s="6" t="n">
+        <v/>
       </c>
       <c r="AF61" s="6" t="n">
         <v/>
@@ -8626,12 +8622,12 @@
       </c>
       <c r="AJ61" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK61" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8649,7 @@
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
-          <t>0215394690</t>
+          <t>0215394601</t>
         </is>
       </c>
       <c r="G62" s="6" t="inlineStr">
@@ -8668,7 +8664,7 @@
       </c>
       <c r="I62" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 500 mg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 1 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J62" s="6" t="n">
@@ -8676,7 +8672,7 @@
       </c>
       <c r="K62" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="L62" s="7" t="n">
@@ -8784,7 +8780,7 @@
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
-          <t>0215394691</t>
+          <t>0215394680</t>
         </is>
       </c>
       <c r="G63" s="6" t="inlineStr">
@@ -8799,7 +8795,7 @@
       </c>
       <c r="I63" s="6" t="inlineStr">
         <is>
-          <t>Stachyose, tetrahydrate, 1 g MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 100 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J63" s="6" t="n">
@@ -8807,7 +8803,7 @@
       </c>
       <c r="K63" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="L63" s="7" t="n">
@@ -8915,22 +8911,22 @@
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
-          <t>02154263.2</t>
+          <t>0215394690</t>
         </is>
       </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="H64" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="I64" s="6" t="inlineStr">
         <is>
-          <t>Bumetanide, 250 mg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J64" s="6" t="n">
@@ -8938,7 +8934,7 @@
       </c>
       <c r="K64" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L64" s="7" t="n">
@@ -8985,16 +8981,14 @@
       </c>
       <c r="Z64" s="7" t="inlineStr">
         <is>
-          <t>28395-03-1</t>
+          <t>10094-58-3</t>
         </is>
       </c>
       <c r="AA64" s="6" t="n">
         <v/>
       </c>
-      <c r="AB64" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB64" s="6" t="n">
+        <v/>
       </c>
       <c r="AC64" s="6" t="n">
         <v/>
@@ -9004,7 +8998,7 @@
       </c>
       <c r="AE64" s="6" t="inlineStr">
         <is>
-          <t>364.416 g/mol</t>
+          <t>738.639 g/mol</t>
         </is>
       </c>
       <c r="AF64" s="6" t="n">
@@ -9021,12 +9015,12 @@
       </c>
       <c r="AJ64" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK64" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9048,22 +9042,22 @@
       </c>
       <c r="F65" s="6" t="inlineStr">
         <is>
-          <t>0215457180</t>
+          <t>0215394691</t>
         </is>
       </c>
       <c r="G65" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epidermal Growth Factor Human </t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor Human Recombinant</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Epidermal growth factor, human, recombinant, ≥98%, 100 μg MP Biomedical</t>
+          <t>Stachyose, tetrahydrate, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J65" s="6" t="n">
@@ -9071,7 +9065,7 @@
       </c>
       <c r="K65" s="6" t="inlineStr">
         <is>
-          <t>100 μg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L65" s="7" t="n">
@@ -9095,10 +9089,8 @@
       <c r="R65" s="6" t="n">
         <v/>
       </c>
-      <c r="S65" s="6" t="inlineStr">
-        <is>
-          <t>recombinant</t>
-        </is>
+      <c r="S65" s="6" t="n">
+        <v/>
       </c>
       <c r="T65" s="6" t="n">
         <v/>
@@ -9120,16 +9112,14 @@
       </c>
       <c r="Z65" s="7" t="inlineStr">
         <is>
-          <t>62229-50-9</t>
+          <t>10094-58-3</t>
         </is>
       </c>
       <c r="AA65" s="6" t="n">
         <v/>
       </c>
-      <c r="AB65" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB65" s="6" t="n">
+        <v/>
       </c>
       <c r="AC65" s="6" t="n">
         <v/>
@@ -9139,7 +9129,7 @@
       </c>
       <c r="AE65" s="6" t="inlineStr">
         <is>
-          <t>6045.723 g/mol</t>
+          <t>738.639 g/mol</t>
         </is>
       </c>
       <c r="AF65" s="6" t="n">
@@ -9156,12 +9146,12 @@
       </c>
       <c r="AJ65" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK65" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9183,22 +9173,22 @@
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
-          <t>0215485580</t>
+          <t>02154263.2</t>
         </is>
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="I66" s="6" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet, 100 g MP Biomedical</t>
+          <t>Bumetanide, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J66" s="6" t="n">
@@ -9206,7 +9196,7 @@
       </c>
       <c r="K66" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L66" s="7" t="n">
@@ -9253,14 +9243,16 @@
       </c>
       <c r="Z66" s="7" t="inlineStr">
         <is>
-          <t>4196-99-0</t>
+          <t>28395-03-1</t>
         </is>
       </c>
       <c r="AA66" s="6" t="n">
         <v/>
       </c>
-      <c r="AB66" s="6" t="n">
-        <v/>
+      <c r="AB66" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC66" s="6" t="n">
         <v/>
@@ -9270,7 +9262,7 @@
       </c>
       <c r="AE66" s="6" t="inlineStr">
         <is>
-          <t>556.475 g/mol</t>
+          <t>364.416 g/mol</t>
         </is>
       </c>
       <c r="AF66" s="6" t="n">
@@ -9287,12 +9279,12 @@
       </c>
       <c r="AJ66" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK66" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9314,22 +9306,22 @@
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
-          <t>0215624380</t>
+          <t>0215457180</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t xml:space="preserve">Epidermal Growth Factor Human </t>
         </is>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Epidermal Growth Factor Human Recombinant</t>
         </is>
       </c>
       <c r="I67" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic acid, hydrate, 100 g MP Biomedical</t>
+          <t>Epidermal growth factor, human, recombinant, ≥98%, 100 μg MP Biomedical</t>
         </is>
       </c>
       <c r="J67" s="6" t="n">
@@ -9337,7 +9329,7 @@
       </c>
       <c r="K67" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>100 μg</t>
         </is>
       </c>
       <c r="L67" s="7" t="n">
@@ -9361,8 +9353,10 @@
       <c r="R67" s="6" t="n">
         <v/>
       </c>
-      <c r="S67" s="6" t="n">
-        <v/>
+      <c r="S67" s="6" t="inlineStr">
+        <is>
+          <t>recombinant</t>
+        </is>
       </c>
       <c r="T67" s="6" t="n">
         <v/>
@@ -9384,14 +9378,16 @@
       </c>
       <c r="Z67" s="7" t="inlineStr">
         <is>
-          <t>12501-23-4</t>
+          <t>62229-50-9</t>
         </is>
       </c>
       <c r="AA67" s="6" t="n">
         <v/>
       </c>
-      <c r="AB67" s="6" t="n">
-        <v/>
+      <c r="AB67" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC67" s="6" t="n">
         <v/>
@@ -9401,7 +9397,7 @@
       </c>
       <c r="AE67" s="6" t="inlineStr">
         <is>
-          <t>2898.053 g/mol</t>
+          <t>6045.723 g/mol</t>
         </is>
       </c>
       <c r="AF67" s="6" t="n">
@@ -9418,12 +9414,12 @@
       </c>
       <c r="AJ67" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK67" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -9445,22 +9441,22 @@
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
-          <t>0215624383</t>
+          <t>0215485580</t>
         </is>
       </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="I68" s="6" t="inlineStr">
         <is>
-          <t>Phosphotungstic acid, hydrate, 250 g MP Biomedical</t>
+          <t>Biebrich Scarlet, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J68" s="6" t="n">
@@ -9468,7 +9464,7 @@
       </c>
       <c r="K68" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L68" s="7" t="n">
@@ -9515,7 +9511,7 @@
       </c>
       <c r="Z68" s="7" t="inlineStr">
         <is>
-          <t>12501-23-4</t>
+          <t>4196-99-0</t>
         </is>
       </c>
       <c r="AA68" s="6" t="n">
@@ -9532,7 +9528,7 @@
       </c>
       <c r="AE68" s="6" t="inlineStr">
         <is>
-          <t>2898.053 g/mol</t>
+          <t>556.475 g/mol</t>
         </is>
       </c>
       <c r="AF68" s="6" t="n">
@@ -9576,22 +9572,22 @@
       </c>
       <c r="F69" s="6" t="inlineStr">
         <is>
-          <t>0215653480</t>
+          <t>0215624380</t>
         </is>
       </c>
       <c r="G69" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="I69" s="6" t="inlineStr">
         <is>
-          <t>Transfer ribonucleic acid, 100 U MP Biomedical</t>
+          <t>Phosphotungstic acid, hydrate, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J69" s="6" t="n">
@@ -9599,7 +9595,7 @@
       </c>
       <c r="K69" s="6" t="inlineStr">
         <is>
-          <t>100 U</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L69" s="7" t="n">
@@ -9646,7 +9642,7 @@
       </c>
       <c r="Z69" s="7" t="inlineStr">
         <is>
-          <t>9014-25-9</t>
+          <t>12501-23-4</t>
         </is>
       </c>
       <c r="AA69" s="6" t="n">
@@ -9661,8 +9657,10 @@
       <c r="AD69" s="6" t="n">
         <v/>
       </c>
-      <c r="AE69" s="6" t="n">
-        <v/>
+      <c r="AE69" s="6" t="inlineStr">
+        <is>
+          <t>2898.053 g/mol</t>
+        </is>
       </c>
       <c r="AF69" s="6" t="n">
         <v/>
@@ -9678,12 +9676,12 @@
       </c>
       <c r="AJ69" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK69" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9705,22 +9703,22 @@
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
-          <t>0215653494</t>
+          <t>0215624383</t>
         </is>
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="I70" s="6" t="inlineStr">
         <is>
-          <t>Transfer ribonucleic acid, 5 KU MP Biomedical</t>
+          <t>Phosphotungstic acid, hydrate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J70" s="6" t="n">
@@ -9728,7 +9726,7 @@
       </c>
       <c r="K70" s="6" t="inlineStr">
         <is>
-          <t>5 KU</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L70" s="7" t="n">
@@ -9775,7 +9773,7 @@
       </c>
       <c r="Z70" s="7" t="inlineStr">
         <is>
-          <t>9014-25-9</t>
+          <t>12501-23-4</t>
         </is>
       </c>
       <c r="AA70" s="6" t="n">
@@ -9790,8 +9788,10 @@
       <c r="AD70" s="6" t="n">
         <v/>
       </c>
-      <c r="AE70" s="6" t="n">
-        <v/>
+      <c r="AE70" s="6" t="inlineStr">
+        <is>
+          <t>2898.053 g/mol</t>
+        </is>
       </c>
       <c r="AF70" s="6" t="n">
         <v/>
@@ -9807,12 +9807,12 @@
       </c>
       <c r="AJ70" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK70" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -9834,22 +9834,22 @@
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
-          <t>0215878283</t>
+          <t>0215653480</t>
         </is>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 108321422</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="I71" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;, 250 mg MP Biomedical</t>
+          <t>Transfer ribonucleic acid, 100 U MP Biomedical</t>
         </is>
       </c>
       <c r="J71" s="6" t="n">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="K71" s="6" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>100 U</t>
         </is>
       </c>
       <c r="L71" s="7" t="n">
@@ -9904,16 +9904,14 @@
       </c>
       <c r="Z71" s="7" t="inlineStr">
         <is>
-          <t>108321-42-2</t>
+          <t>9014-25-9</t>
         </is>
       </c>
       <c r="AA71" s="6" t="n">
         <v/>
       </c>
-      <c r="AB71" s="6" t="inlineStr">
-        <is>
-          <t>~98%</t>
-        </is>
+      <c r="AB71" s="6" t="n">
+        <v/>
       </c>
       <c r="AC71" s="6" t="n">
         <v/>
@@ -9921,10 +9919,8 @@
       <c r="AD71" s="6" t="n">
         <v/>
       </c>
-      <c r="AE71" s="6" t="inlineStr">
-        <is>
-          <t>692.70</t>
-        </is>
+      <c r="AE71" s="6" t="n">
+        <v/>
       </c>
       <c r="AF71" s="6" t="n">
         <v/>
@@ -9940,7 +9936,7 @@
       </c>
       <c r="AJ71" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK71" s="6" t="inlineStr">
@@ -9967,22 +9963,22 @@
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
-          <t>0215878291</t>
+          <t>0215653494</t>
         </is>
       </c>
       <c r="G72" s="6" t="inlineStr">
         <is>
-          <t>CAS Number 108321422</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="I72" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;,  1 g MP Biomedical</t>
+          <t>Transfer ribonucleic acid, 5 KU MP Biomedical</t>
         </is>
       </c>
       <c r="J72" s="6" t="n">
@@ -9990,7 +9986,7 @@
       </c>
       <c r="K72" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>5 KU</t>
         </is>
       </c>
       <c r="L72" s="7" t="n">
@@ -10037,16 +10033,14 @@
       </c>
       <c r="Z72" s="7" t="inlineStr">
         <is>
-          <t>108321-42-2</t>
+          <t>9014-25-9</t>
         </is>
       </c>
       <c r="AA72" s="6" t="n">
         <v/>
       </c>
-      <c r="AB72" s="6" t="inlineStr">
-        <is>
-          <t>~98%</t>
-        </is>
+      <c r="AB72" s="6" t="n">
+        <v/>
       </c>
       <c r="AC72" s="6" t="n">
         <v/>
@@ -10054,10 +10048,8 @@
       <c r="AD72" s="6" t="n">
         <v/>
       </c>
-      <c r="AE72" s="6" t="inlineStr">
-        <is>
-          <t>692.70</t>
-        </is>
+      <c r="AE72" s="6" t="n">
+        <v/>
       </c>
       <c r="AF72" s="6" t="n">
         <v/>
@@ -10073,7 +10065,7 @@
       </c>
       <c r="AJ72" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK72" s="6" t="inlineStr">
@@ -10100,7 +10092,7 @@
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
-          <t>0215878294</t>
+          <t>0215878283</t>
         </is>
       </c>
       <c r="G73" s="6" t="inlineStr">
@@ -10115,7 +10107,7 @@
       </c>
       <c r="I73" s="6" t="inlineStr">
         <is>
-          <t>G418 disulfate, phytopure&amp;trade;, 5 g MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;, 250 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J73" s="6" t="n">
@@ -10123,7 +10115,7 @@
       </c>
       <c r="K73" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="L73" s="7" t="n">
@@ -10233,22 +10225,22 @@
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
-          <t>0215985925</t>
+          <t>0215878291</t>
         </is>
       </c>
       <c r="G74" s="6" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>CAS Number 108321422</t>
         </is>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
         </is>
       </c>
       <c r="I74" s="6" t="inlineStr">
         <is>
-          <t>Aldolase, 25 mg MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;,  1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J74" s="6" t="n">
@@ -10256,7 +10248,7 @@
       </c>
       <c r="K74" s="6" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L74" s="7" t="n">
@@ -10303,14 +10295,16 @@
       </c>
       <c r="Z74" s="7" t="inlineStr">
         <is>
-          <t>9024-52-6</t>
+          <t>108321-42-2</t>
         </is>
       </c>
       <c r="AA74" s="6" t="n">
         <v/>
       </c>
-      <c r="AB74" s="6" t="n">
-        <v/>
+      <c r="AB74" s="6" t="inlineStr">
+        <is>
+          <t>~98%</t>
+        </is>
       </c>
       <c r="AC74" s="6" t="n">
         <v/>
@@ -10318,8 +10312,10 @@
       <c r="AD74" s="6" t="n">
         <v/>
       </c>
-      <c r="AE74" s="6" t="n">
-        <v/>
+      <c r="AE74" s="6" t="inlineStr">
+        <is>
+          <t>692.70</t>
+        </is>
       </c>
       <c r="AF74" s="6" t="n">
         <v/>
@@ -10362,22 +10358,22 @@
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
-          <t>0219014505</t>
+          <t>0215878294</t>
         </is>
       </c>
       <c r="G75" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>CAS Number 108321422</t>
         </is>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria yeast higher plants mammalian cells protozoans and helminths It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture</t>
         </is>
       </c>
       <c r="I75" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin, 5 g MP Biomedical</t>
+          <t>G418 disulfate, phytopure&amp;trade;, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J75" s="6" t="n">
@@ -10432,14 +10428,16 @@
       </c>
       <c r="Z75" s="7" t="inlineStr">
         <is>
-          <t>26787-78-0</t>
+          <t>108321-42-2</t>
         </is>
       </c>
       <c r="AA75" s="6" t="n">
         <v/>
       </c>
-      <c r="AB75" s="6" t="n">
-        <v/>
+      <c r="AB75" s="6" t="inlineStr">
+        <is>
+          <t>~98%</t>
+        </is>
       </c>
       <c r="AC75" s="6" t="n">
         <v/>
@@ -10449,7 +10447,7 @@
       </c>
       <c r="AE75" s="6" t="inlineStr">
         <is>
-          <t>365.404 g/mol</t>
+          <t>692.70</t>
         </is>
       </c>
       <c r="AF75" s="6" t="n">
@@ -10493,22 +10491,22 @@
       </c>
       <c r="F76" s="6" t="inlineStr">
         <is>
-          <t>0219014510</t>
+          <t>0215985925</t>
         </is>
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="I76" s="6" t="inlineStr">
         <is>
-          <t>Amoxicillin, 10 g MP Biomedical</t>
+          <t>Aldolase, 25 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J76" s="6" t="n">
@@ -10516,7 +10514,7 @@
       </c>
       <c r="K76" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="L76" s="7" t="n">
@@ -10563,7 +10561,7 @@
       </c>
       <c r="Z76" s="7" t="inlineStr">
         <is>
-          <t>26787-78-0</t>
+          <t>9024-52-6</t>
         </is>
       </c>
       <c r="AA76" s="6" t="n">
@@ -10578,10 +10576,8 @@
       <c r="AD76" s="6" t="n">
         <v/>
       </c>
-      <c r="AE76" s="6" t="inlineStr">
-        <is>
-          <t>365.404 g/mol</t>
-        </is>
+      <c r="AE76" s="6" t="n">
+        <v/>
       </c>
       <c r="AF76" s="6" t="n">
         <v/>
@@ -10624,22 +10620,22 @@
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
-          <t>0219021605</t>
+          <t>0219014505</t>
         </is>
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="I77" s="6" t="inlineStr">
         <is>
-          <t>Ibuprofen, 5 g MP Biomedical</t>
+          <t>Amoxicillin, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J77" s="6" t="n">
@@ -10694,7 +10690,7 @@
       </c>
       <c r="Z77" s="7" t="inlineStr">
         <is>
-          <t>15687-27-1</t>
+          <t>26787-78-0</t>
         </is>
       </c>
       <c r="AA77" s="6" t="n">
@@ -10711,7 +10707,7 @@
       </c>
       <c r="AE77" s="6" t="inlineStr">
         <is>
-          <t>206.285 g/mol</t>
+          <t>365.404 g/mol</t>
         </is>
       </c>
       <c r="AF77" s="6" t="n">
@@ -10728,12 +10724,12 @@
       </c>
       <c r="AJ77" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK77" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -10755,22 +10751,22 @@
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
-          <t>0219023791</t>
+          <t>0219014510</t>
         </is>
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>DMaltose Monohydrate</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>DMaltose Monohydrate</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="I78" s="6" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose monohydrate, ~99%, 1 kg MP Biomedical</t>
+          <t>Amoxicillin, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J78" s="6" t="n">
@@ -10778,7 +10774,7 @@
       </c>
       <c r="K78" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L78" s="7" t="n">
@@ -10825,16 +10821,14 @@
       </c>
       <c r="Z78" s="7" t="inlineStr">
         <is>
-          <t>6363-53-7</t>
+          <t>26787-78-0</t>
         </is>
       </c>
       <c r="AA78" s="6" t="n">
         <v/>
       </c>
-      <c r="AB78" s="6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
+      <c r="AB78" s="6" t="n">
+        <v/>
       </c>
       <c r="AC78" s="6" t="n">
         <v/>
@@ -10844,7 +10838,7 @@
       </c>
       <c r="AE78" s="6" t="inlineStr">
         <is>
-          <t>360.312 g/mol</t>
+          <t>365.404 g/mol</t>
         </is>
       </c>
       <c r="AF78" s="6" t="n">
@@ -10861,12 +10855,12 @@
       </c>
       <c r="AJ78" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK78" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -10888,22 +10882,22 @@
       </c>
       <c r="F79" s="6" t="inlineStr">
         <is>
-          <t>02190277.1</t>
+          <t>0219021605</t>
         </is>
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="I79" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 100 mg MP Biomedical</t>
+          <t>Ibuprofen, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J79" s="6" t="n">
@@ -10911,7 +10905,7 @@
       </c>
       <c r="K79" s="6" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L79" s="7" t="n">
@@ -10958,16 +10952,14 @@
       </c>
       <c r="Z79" s="7" t="inlineStr">
         <is>
-          <t>54827-17-7</t>
+          <t>15687-27-1</t>
         </is>
       </c>
       <c r="AA79" s="6" t="n">
         <v/>
       </c>
-      <c r="AB79" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB79" s="6" t="n">
+        <v/>
       </c>
       <c r="AC79" s="6" t="n">
         <v/>
@@ -10977,7 +10969,7 @@
       </c>
       <c r="AE79" s="6" t="inlineStr">
         <is>
-          <t>240.35 g/mol</t>
+          <t>206.285 g/mol</t>
         </is>
       </c>
       <c r="AF79" s="6" t="n">
@@ -11021,22 +11013,22 @@
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
-          <t>0219027701</t>
+          <t>0219023791</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>DMaltose Monohydrate</t>
         </is>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>3355Tetramethylbenzidine</t>
+          <t>DMaltose Monohydrate</t>
         </is>
       </c>
       <c r="I80" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 1 g MP Biomedical</t>
+          <t>D-(+)-Maltose monohydrate, ~99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J80" s="6" t="n">
@@ -11044,7 +11036,7 @@
       </c>
       <c r="K80" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L80" s="7" t="n">
@@ -11091,7 +11083,7 @@
       </c>
       <c r="Z80" s="7" t="inlineStr">
         <is>
-          <t>54827-17-7</t>
+          <t>6363-53-7</t>
         </is>
       </c>
       <c r="AA80" s="6" t="n">
@@ -11099,7 +11091,7 @@
       </c>
       <c r="AB80" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="AC80" s="6" t="n">
@@ -11110,7 +11102,7 @@
       </c>
       <c r="AE80" s="6" t="inlineStr">
         <is>
-          <t>240.35 g/mol</t>
+          <t>360.312 g/mol</t>
         </is>
       </c>
       <c r="AF80" s="6" t="n">
@@ -11154,7 +11146,7 @@
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
-          <t>0219027705</t>
+          <t>02190277.1</t>
         </is>
       </c>
       <c r="G81" s="6" t="inlineStr">
@@ -11169,7 +11161,7 @@
       </c>
       <c r="I81" s="6" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine, 5 g MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 100 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J81" s="6" t="n">
@@ -11177,7 +11169,7 @@
       </c>
       <c r="K81" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="L81" s="7" t="n">
@@ -11287,22 +11279,22 @@
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
-          <t>0219028425</t>
+          <t>0219027701</t>
         </is>
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="I82" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 25 g MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J82" s="6" t="n">
@@ -11310,7 +11302,7 @@
       </c>
       <c r="K82" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L82" s="7" t="n">
@@ -11357,7 +11349,7 @@
       </c>
       <c r="Z82" s="7" t="inlineStr">
         <is>
-          <t>504-17-6</t>
+          <t>54827-17-7</t>
         </is>
       </c>
       <c r="AA82" s="6" t="n">
@@ -11365,7 +11357,7 @@
       </c>
       <c r="AB82" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC82" s="6" t="n">
@@ -11376,7 +11368,7 @@
       </c>
       <c r="AE82" s="6" t="inlineStr">
         <is>
-          <t>144.148 g/mol</t>
+          <t>240.35 g/mol</t>
         </is>
       </c>
       <c r="AF82" s="6" t="n">
@@ -11420,22 +11412,22 @@
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
-          <t>0219028480</t>
+          <t>0219027705</t>
         </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2Thiobarbituric Acid</t>
+          <t>3355Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="I83" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 100 g MP Biomedical</t>
+          <t>3,3',5,5'-Tetramethylbenzidine, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J83" s="6" t="n">
@@ -11443,7 +11435,7 @@
       </c>
       <c r="K83" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L83" s="7" t="n">
@@ -11490,7 +11482,7 @@
       </c>
       <c r="Z83" s="7" t="inlineStr">
         <is>
-          <t>504-17-6</t>
+          <t>54827-17-7</t>
         </is>
       </c>
       <c r="AA83" s="6" t="n">
@@ -11498,7 +11490,7 @@
       </c>
       <c r="AB83" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC83" s="6" t="n">
@@ -11509,7 +11501,7 @@
       </c>
       <c r="AE83" s="6" t="inlineStr">
         <is>
-          <t>144.148 g/mol</t>
+          <t>240.35 g/mol</t>
         </is>
       </c>
       <c r="AF83" s="6" t="n">
@@ -11553,7 +11545,7 @@
       </c>
       <c r="F84" s="6" t="inlineStr">
         <is>
-          <t>0219028483</t>
+          <t>0219028425</t>
         </is>
       </c>
       <c r="G84" s="6" t="inlineStr">
@@ -11568,7 +11560,7 @@
       </c>
       <c r="I84" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 250 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J84" s="6" t="n">
@@ -11576,7 +11568,7 @@
       </c>
       <c r="K84" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L84" s="7" t="n">
@@ -11686,7 +11678,7 @@
       </c>
       <c r="F85" s="6" t="inlineStr">
         <is>
-          <t>0219028490</t>
+          <t>0219028480</t>
         </is>
       </c>
       <c r="G85" s="6" t="inlineStr">
@@ -11701,7 +11693,7 @@
       </c>
       <c r="I85" s="6" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric acid, 500 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J85" s="6" t="n">
@@ -11709,7 +11701,7 @@
       </c>
       <c r="K85" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L85" s="7" t="n">
@@ -11819,22 +11811,22 @@
       </c>
       <c r="F86" s="6" t="inlineStr">
         <is>
-          <t>0219052001</t>
+          <t>0219028483</t>
         </is>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="I86" s="6" t="inlineStr">
         <is>
-          <t>Azure B, 1 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J86" s="6" t="n">
@@ -11842,7 +11834,7 @@
       </c>
       <c r="K86" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L86" s="7" t="n">
@@ -11889,14 +11881,16 @@
       </c>
       <c r="Z86" s="7" t="inlineStr">
         <is>
-          <t>531-55-5</t>
+          <t>504-17-6</t>
         </is>
       </c>
       <c r="AA86" s="6" t="n">
         <v/>
       </c>
-      <c r="AB86" s="6" t="n">
-        <v/>
+      <c r="AB86" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC86" s="6" t="n">
         <v/>
@@ -11906,7 +11900,7 @@
       </c>
       <c r="AE86" s="6" t="inlineStr">
         <is>
-          <t>305.824 g/mol</t>
+          <t>144.148 g/mol</t>
         </is>
       </c>
       <c r="AF86" s="6" t="n">
@@ -11950,22 +11944,22 @@
       </c>
       <c r="F87" s="6" t="inlineStr">
         <is>
-          <t>0219052005</t>
+          <t>0219028490</t>
         </is>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="I87" s="6" t="inlineStr">
         <is>
-          <t>Azure B, 5 g MP Biomedical</t>
+          <t>2-Thiobarbituric acid, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J87" s="6" t="n">
@@ -11973,7 +11967,7 @@
       </c>
       <c r="K87" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L87" s="7" t="n">
@@ -12020,14 +12014,16 @@
       </c>
       <c r="Z87" s="7" t="inlineStr">
         <is>
-          <t>531-55-5</t>
+          <t>504-17-6</t>
         </is>
       </c>
       <c r="AA87" s="6" t="n">
         <v/>
       </c>
-      <c r="AB87" s="6" t="n">
-        <v/>
+      <c r="AB87" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC87" s="6" t="n">
         <v/>
@@ -12037,7 +12033,7 @@
       </c>
       <c r="AE87" s="6" t="inlineStr">
         <is>
-          <t>305.824 g/mol</t>
+          <t>144.148 g/mol</t>
         </is>
       </c>
       <c r="AF87" s="6" t="n">
@@ -12081,22 +12077,22 @@
       </c>
       <c r="F88" s="6" t="inlineStr">
         <is>
-          <t>0219151490</t>
+          <t>0219052001</t>
         </is>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="I88" s="6" t="inlineStr">
         <is>
-          <t>Ricinoleic acid, 500 mg MP Biomedical</t>
+          <t>Azure B, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J88" s="6" t="n">
@@ -12104,7 +12100,7 @@
       </c>
       <c r="K88" s="6" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L88" s="7" t="n">
@@ -12151,16 +12147,14 @@
       </c>
       <c r="Z88" s="7" t="inlineStr">
         <is>
-          <t>141-22-0</t>
+          <t>531-55-5</t>
         </is>
       </c>
       <c r="AA88" s="6" t="n">
         <v/>
       </c>
-      <c r="AB88" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB88" s="6" t="n">
+        <v/>
       </c>
       <c r="AC88" s="6" t="n">
         <v/>
@@ -12170,7 +12164,7 @@
       </c>
       <c r="AE88" s="6" t="inlineStr">
         <is>
-          <t>298.467 g/mol</t>
+          <t>305.824 g/mol</t>
         </is>
       </c>
       <c r="AF88" s="6" t="n">
@@ -12187,12 +12181,12 @@
       </c>
       <c r="AJ88" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK88" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -12214,22 +12208,22 @@
       </c>
       <c r="F89" s="6" t="inlineStr">
         <is>
-          <t>0219397180</t>
+          <t>0219052005</t>
         </is>
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="I89" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 100 mL MP Biomedical</t>
+          <t>Azure B, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J89" s="6" t="n">
@@ -12237,7 +12231,7 @@
       </c>
       <c r="K89" s="6" t="inlineStr">
         <is>
-          <t>100 mL</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L89" s="7" t="n">
@@ -12284,7 +12278,7 @@
       </c>
       <c r="Z89" s="7" t="inlineStr">
         <is>
-          <t>9036-19-5</t>
+          <t>531-55-5</t>
         </is>
       </c>
       <c r="AA89" s="6" t="n">
@@ -12301,7 +12295,7 @@
       </c>
       <c r="AE89" s="6" t="inlineStr">
         <is>
-          <t>294.435 g/mol</t>
+          <t>305.824 g/mol</t>
         </is>
       </c>
       <c r="AF89" s="6" t="n">
@@ -12345,22 +12339,22 @@
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
-          <t>0219397183</t>
+          <t>0219151490</t>
         </is>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>Triton X114</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="I90" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 250 mL MP Biomedical</t>
+          <t>Ricinoleic acid, 500 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J90" s="6" t="n">
@@ -12368,7 +12362,7 @@
       </c>
       <c r="K90" s="6" t="inlineStr">
         <is>
-          <t>250 mL</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="L90" s="7" t="n">
@@ -12415,14 +12409,16 @@
       </c>
       <c r="Z90" s="7" t="inlineStr">
         <is>
-          <t>9036-19-5</t>
+          <t>141-22-0</t>
         </is>
       </c>
       <c r="AA90" s="6" t="n">
         <v/>
       </c>
-      <c r="AB90" s="6" t="n">
-        <v/>
+      <c r="AB90" s="6" t="inlineStr">
+        <is>
+          <t>≥99%</t>
+        </is>
       </c>
       <c r="AC90" s="6" t="n">
         <v/>
@@ -12432,7 +12428,7 @@
       </c>
       <c r="AE90" s="6" t="inlineStr">
         <is>
-          <t>294.435 g/mol</t>
+          <t>298.467 g/mol</t>
         </is>
       </c>
       <c r="AF90" s="6" t="n">
@@ -12449,12 +12445,12 @@
       </c>
       <c r="AJ90" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK90" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -12476,7 +12472,7 @@
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>0219397191</t>
+          <t>0219397180</t>
         </is>
       </c>
       <c r="G91" s="6" t="inlineStr">
@@ -12491,7 +12487,7 @@
       </c>
       <c r="I91" s="6" t="inlineStr">
         <is>
-          <t>Triton® X-114, 1 L MP Biomedical</t>
+          <t>Triton® X-114, 100 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J91" s="6" t="n">
@@ -12499,7 +12495,7 @@
       </c>
       <c r="K91" s="6" t="inlineStr">
         <is>
-          <t>1 L</t>
+          <t>100 mL</t>
         </is>
       </c>
       <c r="L91" s="7" t="n">
@@ -12607,22 +12603,22 @@
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>0219398880</t>
+          <t>0219397183</t>
         </is>
       </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
-          <t>Polymerization catalyst used w</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate</t>
+          <t>Triton X114</t>
         </is>
       </c>
       <c r="I92" s="6" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate, molecular biology reagent MP Biomedical</t>
+          <t>Triton® X-114, 250 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J92" s="6" t="n">
@@ -12630,7 +12626,7 @@
       </c>
       <c r="K92" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 mL</t>
         </is>
       </c>
       <c r="L92" s="7" t="n">
@@ -12677,16 +12673,14 @@
       </c>
       <c r="Z92" s="7" t="inlineStr">
         <is>
-          <t>7727-54-0</t>
+          <t>9036-19-5</t>
         </is>
       </c>
       <c r="AA92" s="6" t="n">
         <v/>
       </c>
-      <c r="AB92" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB92" s="6" t="n">
+        <v/>
       </c>
       <c r="AC92" s="6" t="n">
         <v/>
@@ -12696,7 +12690,7 @@
       </c>
       <c r="AE92" s="6" t="inlineStr">
         <is>
-          <t>228.19 g/mol</t>
+          <t>294.435 g/mol</t>
         </is>
       </c>
       <c r="AF92" s="6" t="n">
@@ -12740,18 +12734,22 @@
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
-          <t>0219401283</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H93" s="6" t="n">
-        <v/>
+          <t>0219397191</t>
+        </is>
+      </c>
+      <c r="G93" s="6" t="inlineStr">
+        <is>
+          <t>Triton X114</t>
+        </is>
+      </c>
+      <c r="H93" s="6" t="inlineStr">
+        <is>
+          <t>Triton X114</t>
+        </is>
       </c>
       <c r="I93" s="6" t="inlineStr">
         <is>
-          <t>Sodium acetate, 250 g MP Biomedical</t>
+          <t>Triton® X-114, 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J93" s="6" t="n">
@@ -12759,7 +12757,7 @@
       </c>
       <c r="K93" s="6" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>1 L</t>
         </is>
       </c>
       <c r="L93" s="7" t="n">
@@ -12806,16 +12804,14 @@
       </c>
       <c r="Z93" s="7" t="inlineStr">
         <is>
-          <t>127-09-3</t>
+          <t>9036-19-5</t>
         </is>
       </c>
       <c r="AA93" s="6" t="n">
         <v/>
       </c>
-      <c r="AB93" s="6" t="inlineStr">
-        <is>
-          <t>&amp;ge;98%</t>
-        </is>
+      <c r="AB93" s="6" t="n">
+        <v/>
       </c>
       <c r="AC93" s="6" t="n">
         <v/>
@@ -12825,7 +12821,7 @@
       </c>
       <c r="AE93" s="6" t="inlineStr">
         <is>
-          <t>82.03</t>
+          <t>294.435 g/mol</t>
         </is>
       </c>
       <c r="AF93" s="6" t="n">
@@ -12869,18 +12865,22 @@
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
-          <t>0219401291</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H94" s="6" t="n">
-        <v/>
+          <t>0219398880</t>
+        </is>
+      </c>
+      <c r="G94" s="6" t="inlineStr">
+        <is>
+          <t>Polymerization catalyst used w</t>
+        </is>
+      </c>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>Ammonium Persulfate</t>
+        </is>
       </c>
       <c r="I94" s="6" t="inlineStr">
         <is>
-          <t>Sodium acetate, 1 kg MP Biomedical</t>
+          <t>Ammonium Persulfate, molecular biology reagent MP Biomedical</t>
         </is>
       </c>
       <c r="J94" s="6" t="n">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="K94" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L94" s="7" t="n">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="Z94" s="7" t="inlineStr">
         <is>
-          <t>127-09-3</t>
+          <t>7727-54-0</t>
         </is>
       </c>
       <c r="AA94" s="6" t="n">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="AB94" s="6" t="inlineStr">
         <is>
-          <t>&amp;ge;98%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC94" s="6" t="n">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="AE94" s="6" t="inlineStr">
         <is>
-          <t>82.03</t>
+          <t>228.19 g/mol</t>
         </is>
       </c>
       <c r="AF94" s="6" t="n">
@@ -12998,22 +12998,18 @@
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
-          <t>0219405780</t>
-        </is>
-      </c>
-      <c r="G95" s="6" t="inlineStr">
-        <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
-      </c>
-      <c r="H95" s="6" t="inlineStr">
-        <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
+          <t>0219401283</t>
+        </is>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H95" s="6" t="n">
+        <v/>
       </c>
       <c r="I95" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide, 100 mL MP Biomedical</t>
+          <t>Sodium acetate, 250 g MP Biomedical</t>
         </is>
       </c>
       <c r="J95" s="6" t="n">
@@ -13021,7 +13017,7 @@
       </c>
       <c r="K95" s="6" t="inlineStr">
         <is>
-          <t>100 mL</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="L95" s="7" t="n">
@@ -13068,14 +13064,16 @@
       </c>
       <c r="Z95" s="7" t="inlineStr">
         <is>
-          <t>7722-84-1</t>
+          <t>127-09-3</t>
         </is>
       </c>
       <c r="AA95" s="6" t="n">
         <v/>
       </c>
-      <c r="AB95" s="6" t="n">
-        <v/>
+      <c r="AB95" s="6" t="inlineStr">
+        <is>
+          <t>&amp;ge;98%</t>
+        </is>
       </c>
       <c r="AC95" s="6" t="n">
         <v/>
@@ -13085,7 +13083,7 @@
       </c>
       <c r="AE95" s="6" t="inlineStr">
         <is>
-          <t>34.014 g/mol</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="AF95" s="6" t="n">
@@ -13102,12 +13100,12 @@
       </c>
       <c r="AJ95" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK95" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13127,18 @@
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
-          <t>0219405790</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="inlineStr">
-        <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
-      </c>
-      <c r="H96" s="6" t="inlineStr">
-        <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
+          <t>0219401291</t>
+        </is>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H96" s="6" t="n">
+        <v/>
       </c>
       <c r="I96" s="6" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide, 500 mL MP Biomedical</t>
+          <t>Sodium acetate, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J96" s="6" t="n">
@@ -13152,7 +13146,7 @@
       </c>
       <c r="K96" s="6" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L96" s="7" t="n">
@@ -13199,14 +13193,16 @@
       </c>
       <c r="Z96" s="7" t="inlineStr">
         <is>
-          <t>7722-84-1</t>
+          <t>127-09-3</t>
         </is>
       </c>
       <c r="AA96" s="6" t="n">
         <v/>
       </c>
-      <c r="AB96" s="6" t="n">
-        <v/>
+      <c r="AB96" s="6" t="inlineStr">
+        <is>
+          <t>&amp;ge;98%</t>
+        </is>
       </c>
       <c r="AC96" s="6" t="n">
         <v/>
@@ -13216,7 +13212,7 @@
       </c>
       <c r="AE96" s="6" t="inlineStr">
         <is>
-          <t>34.014 g/mol</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="AF96" s="6" t="n">
@@ -13233,12 +13229,12 @@
       </c>
       <c r="AJ96" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK96" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -13260,22 +13256,22 @@
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>0219455794</t>
+          <t>0219405780</t>
         </is>
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>Tris, cell culture reagent, ≥99.95%, 5 kg MP Biomedical</t>
+          <t>Hydrogen Peroxide, 100 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J97" s="6" t="n">
@@ -13283,7 +13279,7 @@
       </c>
       <c r="K97" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>100 mL</t>
         </is>
       </c>
       <c r="L97" s="7" t="n">
@@ -13330,16 +13326,14 @@
       </c>
       <c r="Z97" s="7" t="inlineStr">
         <is>
-          <t>77-86-1</t>
+          <t>7722-84-1</t>
         </is>
       </c>
       <c r="AA97" s="6" t="n">
         <v/>
       </c>
-      <c r="AB97" s="6" t="inlineStr">
-        <is>
-          <t>≥95%</t>
-        </is>
+      <c r="AB97" s="6" t="n">
+        <v/>
       </c>
       <c r="AC97" s="6" t="n">
         <v/>
@@ -13349,7 +13343,7 @@
       </c>
       <c r="AE97" s="6" t="inlineStr">
         <is>
-          <t>121.136 g/mol</t>
+          <t>34.014 g/mol</t>
         </is>
       </c>
       <c r="AF97" s="6" t="n">
@@ -13366,12 +13360,12 @@
       </c>
       <c r="AJ97" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK97" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -13393,22 +13387,22 @@
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
-          <t>0219455891</t>
+          <t>0219405790</t>
         </is>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>Tris hydrochloride, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
+          <t>Hydrogen Peroxide, 500 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J98" s="6" t="n">
@@ -13416,7 +13410,7 @@
       </c>
       <c r="K98" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 mL</t>
         </is>
       </c>
       <c r="L98" s="7" t="n">
@@ -13463,16 +13457,14 @@
       </c>
       <c r="Z98" s="7" t="inlineStr">
         <is>
-          <t>77-86-1</t>
+          <t>7722-84-1</t>
         </is>
       </c>
       <c r="AA98" s="6" t="n">
         <v/>
       </c>
-      <c r="AB98" s="6" t="inlineStr">
-        <is>
-          <t>≥99%</t>
-        </is>
+      <c r="AB98" s="6" t="n">
+        <v/>
       </c>
       <c r="AC98" s="6" t="n">
         <v/>
@@ -13482,7 +13474,7 @@
       </c>
       <c r="AE98" s="6" t="inlineStr">
         <is>
-          <t>121.136 g/mol</t>
+          <t>34.014 g/mol</t>
         </is>
       </c>
       <c r="AF98" s="6" t="n">
@@ -13499,12 +13491,12 @@
       </c>
       <c r="AJ98" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK98" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -13526,18 +13518,22 @@
       </c>
       <c r="F99" s="6" t="inlineStr">
         <is>
-          <t>0219464180</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H99" s="6" t="n">
-        <v/>
+          <t>0219455794</t>
+        </is>
+      </c>
+      <c r="G99" s="6" t="inlineStr">
+        <is>
+          <t>Tris</t>
+        </is>
+      </c>
+      <c r="H99" s="6" t="inlineStr">
+        <is>
+          <t>Tris</t>
+        </is>
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Citric acid, 100 g MP Biomedical</t>
+          <t>Tris, cell culture reagent, ≥99.95%, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J99" s="6" t="n">
@@ -13545,7 +13541,7 @@
       </c>
       <c r="K99" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L99" s="7" t="n">
@@ -13592,14 +13588,16 @@
       </c>
       <c r="Z99" s="7" t="inlineStr">
         <is>
-          <t>77-92-9</t>
+          <t>77-86-1</t>
         </is>
       </c>
       <c r="AA99" s="6" t="n">
         <v/>
       </c>
-      <c r="AB99" s="6" t="n">
-        <v/>
+      <c r="AB99" s="6" t="inlineStr">
+        <is>
+          <t>≥95%</t>
+        </is>
       </c>
       <c r="AC99" s="6" t="n">
         <v/>
@@ -13609,7 +13607,7 @@
       </c>
       <c r="AE99" s="6" t="inlineStr">
         <is>
-          <t>192.1</t>
+          <t>121.136 g/mol</t>
         </is>
       </c>
       <c r="AF99" s="6" t="n">
@@ -13653,22 +13651,22 @@
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>0219467925</t>
+          <t>0219455891</t>
         </is>
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="I100" s="6" t="inlineStr">
         <is>
-          <t>Glutathione reduced, cell culture reagent, ≥98%, 25 g MP Biomedical</t>
+          <t>Tris hydrochloride, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J100" s="6" t="n">
@@ -13676,7 +13674,7 @@
       </c>
       <c r="K100" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L100" s="7" t="n">
@@ -13723,7 +13721,7 @@
       </c>
       <c r="Z100" s="7" t="inlineStr">
         <is>
-          <t>70-18-8</t>
+          <t>77-86-1</t>
         </is>
       </c>
       <c r="AA100" s="6" t="n">
@@ -13731,7 +13729,7 @@
       </c>
       <c r="AB100" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC100" s="6" t="n">
@@ -13742,7 +13740,7 @@
       </c>
       <c r="AE100" s="6" t="inlineStr">
         <is>
-          <t>307.321 g/mol</t>
+          <t>121.136 g/mol</t>
         </is>
       </c>
       <c r="AF100" s="6" t="n">
@@ -13759,12 +13757,12 @@
       </c>
       <c r="AJ100" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK100" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -13786,22 +13784,18 @@
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>0219468105</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr">
-        <is>
-          <t>Glycine</t>
-        </is>
-      </c>
-      <c r="H101" s="6" t="inlineStr">
-        <is>
-          <t>Glycine</t>
-        </is>
+          <t>0219464180</t>
+        </is>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v/>
       </c>
       <c r="I101" s="6" t="inlineStr">
         <is>
-          <t>Glycine, cell culture reagent, 5 kg MP Biomedical</t>
+          <t>Citric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J101" s="6" t="n">
@@ -13809,7 +13803,7 @@
       </c>
       <c r="K101" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L101" s="7" t="n">
@@ -13856,16 +13850,14 @@
       </c>
       <c r="Z101" s="7" t="inlineStr">
         <is>
-          <t>56-40-6</t>
+          <t>77-92-9</t>
         </is>
       </c>
       <c r="AA101" s="6" t="n">
         <v/>
       </c>
-      <c r="AB101" s="6" t="inlineStr">
-        <is>
-          <t>≥98%</t>
-        </is>
+      <c r="AB101" s="6" t="n">
+        <v/>
       </c>
       <c r="AC101" s="6" t="n">
         <v/>
@@ -13875,7 +13867,7 @@
       </c>
       <c r="AE101" s="6" t="inlineStr">
         <is>
-          <t>75.067 g/mol</t>
+          <t>192.1</t>
         </is>
       </c>
       <c r="AF101" s="6" t="n">
@@ -13919,22 +13911,22 @@
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>0219468901</t>
+          <t>0219467925</t>
         </is>
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 1 g MP Biomedical</t>
+          <t>Glutathione reduced, cell culture reagent, ≥98%, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J102" s="6" t="n">
@@ -13942,7 +13934,7 @@
       </c>
       <c r="K102" s="6" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L102" s="7" t="n">
@@ -13989,7 +13981,7 @@
       </c>
       <c r="Z102" s="7" t="inlineStr">
         <is>
-          <t>73-32-5</t>
+          <t>70-18-8</t>
         </is>
       </c>
       <c r="AA102" s="6" t="n">
@@ -13997,7 +13989,7 @@
       </c>
       <c r="AB102" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC102" s="6" t="n">
@@ -14008,7 +14000,7 @@
       </c>
       <c r="AE102" s="6" t="inlineStr">
         <is>
-          <t>131.175 g/mol</t>
+          <t>307.321 g/mol</t>
         </is>
       </c>
       <c r="AF102" s="6" t="n">
@@ -14025,12 +14017,12 @@
       </c>
       <c r="AJ102" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK102" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -14052,22 +14044,22 @@
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>0219468925</t>
+          <t>0219468105</t>
         </is>
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>LIsoleucine</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="I103" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 25 g MP Biomedical</t>
+          <t>Glycine, cell culture reagent, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J103" s="6" t="n">
@@ -14075,7 +14067,7 @@
       </c>
       <c r="K103" s="6" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L103" s="7" t="n">
@@ -14122,7 +14114,7 @@
       </c>
       <c r="Z103" s="7" t="inlineStr">
         <is>
-          <t>73-32-5</t>
+          <t>56-40-6</t>
         </is>
       </c>
       <c r="AA103" s="6" t="n">
@@ -14130,7 +14122,7 @@
       </c>
       <c r="AB103" s="6" t="inlineStr">
         <is>
-          <t>≥99%</t>
+          <t>≥98%</t>
         </is>
       </c>
       <c r="AC103" s="6" t="n">
@@ -14141,7 +14133,7 @@
       </c>
       <c r="AE103" s="6" t="inlineStr">
         <is>
-          <t>131.175 g/mol</t>
+          <t>75.067 g/mol</t>
         </is>
       </c>
       <c r="AF103" s="6" t="n">
@@ -14185,7 +14177,7 @@
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
-          <t>0219468980</t>
+          <t>0219468901</t>
         </is>
       </c>
       <c r="G104" s="6" t="inlineStr">
@@ -14200,7 +14192,7 @@
       </c>
       <c r="I104" s="6" t="inlineStr">
         <is>
-          <t>L-Isoleucine, 100 g MP Biomedical</t>
+          <t>L-Isoleucine, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J104" s="6" t="n">
@@ -14208,7 +14200,7 @@
       </c>
       <c r="K104" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L104" s="7" t="n">
@@ -14318,22 +14310,22 @@
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>0219472891</t>
+          <t>0219468925</t>
         </is>
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>LProline</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="H105" s="6" t="inlineStr">
         <is>
-          <t>LProline</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="I105" s="6" t="inlineStr">
         <is>
-          <t>L-Proline, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
+          <t>L-Isoleucine, 25 g MP Biomedical</t>
         </is>
       </c>
       <c r="J105" s="6" t="n">
@@ -14341,7 +14333,7 @@
       </c>
       <c r="K105" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="L105" s="7" t="n">
@@ -14388,7 +14380,7 @@
       </c>
       <c r="Z105" s="7" t="inlineStr">
         <is>
-          <t>147-85-3</t>
+          <t>73-32-5</t>
         </is>
       </c>
       <c r="AA105" s="6" t="n">
@@ -14407,7 +14399,7 @@
       </c>
       <c r="AE105" s="6" t="inlineStr">
         <is>
-          <t>115.132 g/mol</t>
+          <t>131.175 g/mol</t>
         </is>
       </c>
       <c r="AF105" s="6" t="n">
@@ -14451,22 +14443,22 @@
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>0219474190</t>
+          <t>0219468980</t>
         </is>
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>LIsoleucine</t>
         </is>
       </c>
       <c r="I106" s="6" t="inlineStr">
         <is>
-          <t>Sodium selenite, 500 g MP Biomedical</t>
+          <t>L-Isoleucine, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J106" s="6" t="n">
@@ -14474,7 +14466,7 @@
       </c>
       <c r="K106" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L106" s="7" t="n">
@@ -14521,7 +14513,7 @@
       </c>
       <c r="Z106" s="7" t="inlineStr">
         <is>
-          <t>10102-18-8</t>
+          <t>73-32-5</t>
         </is>
       </c>
       <c r="AA106" s="6" t="n">
@@ -14529,7 +14521,7 @@
       </c>
       <c r="AB106" s="6" t="inlineStr">
         <is>
-          <t>~98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC106" s="6" t="n">
@@ -14540,7 +14532,7 @@
       </c>
       <c r="AE106" s="6" t="inlineStr">
         <is>
-          <t>172.948 g/mol</t>
+          <t>131.175 g/mol</t>
         </is>
       </c>
       <c r="AF106" s="6" t="n">
@@ -14584,22 +14576,22 @@
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>02194742.5</t>
+          <t>0219472891</t>
         </is>
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
-          <t>DSorbitol</t>
+          <t>LProline</t>
         </is>
       </c>
       <c r="H107" s="6" t="inlineStr">
         <is>
-          <t>DSorbitol</t>
+          <t>LProline</t>
         </is>
       </c>
       <c r="I107" s="6" t="inlineStr">
         <is>
-          <t>D-Sorbitol, anhydrous, cell culture reagent, ≥98%, 500 g MP Biomedical</t>
+          <t>L-Proline, cell culture reagent, ≥99%, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J107" s="6" t="n">
@@ -14607,7 +14599,7 @@
       </c>
       <c r="K107" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L107" s="7" t="n">
@@ -14654,7 +14646,7 @@
       </c>
       <c r="Z107" s="7" t="inlineStr">
         <is>
-          <t>50-70-4</t>
+          <t>147-85-3</t>
         </is>
       </c>
       <c r="AA107" s="6" t="n">
@@ -14662,7 +14654,7 @@
       </c>
       <c r="AB107" s="6" t="inlineStr">
         <is>
-          <t>≥98%</t>
+          <t>≥99%</t>
         </is>
       </c>
       <c r="AC107" s="6" t="n">
@@ -14673,7 +14665,7 @@
       </c>
       <c r="AE107" s="6" t="inlineStr">
         <is>
-          <t>182.172 g/mol</t>
+          <t>115.132 g/mol</t>
         </is>
       </c>
       <c r="AF107" s="6" t="n">
@@ -14717,22 +14709,22 @@
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
-          <t>0219480425</t>
+          <t>0219474190</t>
         </is>
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12Myristate 13Acetate</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12Myristate 13Acetate</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="I108" s="6" t="inlineStr">
         <is>
-          <t>Phorbol 12-myristate 13-acetate, molecular biology reagent, ~99%, 25 mg MP Biomedical</t>
+          <t>Sodium selenite, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J108" s="6" t="n">
@@ -14740,7 +14732,7 @@
       </c>
       <c r="K108" s="6" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L108" s="7" t="n">
@@ -14787,7 +14779,7 @@
       </c>
       <c r="Z108" s="7" t="inlineStr">
         <is>
-          <t>16561-29-8</t>
+          <t>10102-18-8</t>
         </is>
       </c>
       <c r="AA108" s="6" t="n">
@@ -14795,7 +14787,7 @@
       </c>
       <c r="AB108" s="6" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>~98%</t>
         </is>
       </c>
       <c r="AC108" s="6" t="n">
@@ -14806,7 +14798,7 @@
       </c>
       <c r="AE108" s="6" t="inlineStr">
         <is>
-          <t>616.836 g/mol</t>
+          <t>172.948 g/mol</t>
         </is>
       </c>
       <c r="AF108" s="6" t="n">
@@ -14823,12 +14815,12 @@
       </c>
       <c r="AJ108" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK108" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -14850,7 +14842,7 @@
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>0219485102</t>
+          <t>02194742.5</t>
         </is>
       </c>
       <c r="G109" s="6" t="inlineStr">
@@ -14865,7 +14857,7 @@
       </c>
       <c r="I109" s="6" t="inlineStr">
         <is>
-          <t>D-Sorbitol, molecular biology reagent, ≥98%, 2 kg MP Biomedical</t>
+          <t>D-Sorbitol, anhydrous, cell culture reagent, ≥98%, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J109" s="6" t="n">
@@ -14873,7 +14865,7 @@
       </c>
       <c r="K109" s="6" t="inlineStr">
         <is>
-          <t>2 kg</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L109" s="7" t="n">
@@ -14983,22 +14975,22 @@
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>02195074.1</t>
+          <t>0219480425</t>
         </is>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Phorbol 12Myristate 13Acetate</t>
         </is>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Phorbol 12Myristate 13Acetate</t>
         </is>
       </c>
       <c r="I110" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 100 g MP Biomedical</t>
+          <t>Phorbol 12-myristate 13-acetate, molecular biology reagent, ~99%, 25 mg MP Biomedical</t>
         </is>
       </c>
       <c r="J110" s="6" t="n">
@@ -15006,7 +14998,7 @@
       </c>
       <c r="K110" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="L110" s="7" t="n">
@@ -15053,14 +15045,16 @@
       </c>
       <c r="Z110" s="7" t="inlineStr">
         <is>
-          <t>10043-35-3</t>
+          <t>16561-29-8</t>
         </is>
       </c>
       <c r="AA110" s="6" t="n">
         <v/>
       </c>
-      <c r="AB110" s="6" t="n">
-        <v/>
+      <c r="AB110" s="6" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
       </c>
       <c r="AC110" s="6" t="n">
         <v/>
@@ -15070,7 +15064,7 @@
       </c>
       <c r="AE110" s="6" t="inlineStr">
         <is>
-          <t>61.831 g/mol</t>
+          <t>616.836 g/mol</t>
         </is>
       </c>
       <c r="AF110" s="6" t="n">
@@ -15087,12 +15081,12 @@
       </c>
       <c r="AJ110" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK110" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -15114,22 +15108,22 @@
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
-          <t>0219507401</t>
+          <t>0219485102</t>
         </is>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>DSorbitol</t>
         </is>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>DSorbitol</t>
         </is>
       </c>
       <c r="I111" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 1 kg MP Biomedical</t>
+          <t>D-Sorbitol, molecular biology reagent, ≥98%, 2 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J111" s="6" t="n">
@@ -15137,7 +15131,7 @@
       </c>
       <c r="K111" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>2 kg</t>
         </is>
       </c>
       <c r="L111" s="7" t="n">
@@ -15184,14 +15178,16 @@
       </c>
       <c r="Z111" s="7" t="inlineStr">
         <is>
-          <t>10043-35-3</t>
+          <t>50-70-4</t>
         </is>
       </c>
       <c r="AA111" s="6" t="n">
         <v/>
       </c>
-      <c r="AB111" s="6" t="n">
-        <v/>
+      <c r="AB111" s="6" t="inlineStr">
+        <is>
+          <t>≥98%</t>
+        </is>
       </c>
       <c r="AC111" s="6" t="n">
         <v/>
@@ -15201,7 +15197,7 @@
       </c>
       <c r="AE111" s="6" t="inlineStr">
         <is>
-          <t>61.831 g/mol</t>
+          <t>182.172 g/mol</t>
         </is>
       </c>
       <c r="AF111" s="6" t="n">
@@ -15245,7 +15241,7 @@
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>0219507405</t>
+          <t>02195074.1</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
@@ -15260,7 +15256,7 @@
       </c>
       <c r="I112" s="6" t="inlineStr">
         <is>
-          <t>Boric acid, 5 kg MP Biomedical</t>
+          <t>Boric acid, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J112" s="6" t="n">
@@ -15268,7 +15264,7 @@
       </c>
       <c r="K112" s="6" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L112" s="7" t="n">
@@ -15376,22 +15372,22 @@
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>0219519901</t>
+          <t>0219507401</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>Glutaraldehyde, 25% aqueous solution, 1 mL MP Biomedical</t>
+          <t>Boric acid, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J113" s="6" t="n">
@@ -15399,7 +15395,7 @@
       </c>
       <c r="K113" s="6" t="inlineStr">
         <is>
-          <t>1 mL</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L113" s="7" t="n">
@@ -15446,7 +15442,7 @@
       </c>
       <c r="Z113" s="7" t="inlineStr">
         <is>
-          <t>111-30-8</t>
+          <t>10043-35-3</t>
         </is>
       </c>
       <c r="AA113" s="6" t="n">
@@ -15463,7 +15459,7 @@
       </c>
       <c r="AE113" s="6" t="inlineStr">
         <is>
-          <t>100.117 g/mol</t>
+          <t>61.831 g/mol</t>
         </is>
       </c>
       <c r="AF113" s="6" t="n">
@@ -15480,12 +15476,12 @@
       </c>
       <c r="AJ113" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK113" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -15507,22 +15503,22 @@
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>0219521380</t>
+          <t>0219507405</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Guanosine5Triphosphate Disodiu</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>Guanosine5Triphosphate Disodium Salt</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="I114" s="6" t="inlineStr">
         <is>
-          <t>Guanosine-5′-triphosphate disodium salt,≥95%, 100 mg MP Biomedical</t>
+          <t>Boric acid, 5 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J114" s="6" t="n">
@@ -15530,7 +15526,7 @@
       </c>
       <c r="K114" s="6" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="L114" s="7" t="n">
@@ -15577,16 +15573,14 @@
       </c>
       <c r="Z114" s="7" t="inlineStr">
         <is>
-          <t>36051-31-7</t>
+          <t>10043-35-3</t>
         </is>
       </c>
       <c r="AA114" s="6" t="n">
         <v/>
       </c>
-      <c r="AB114" s="6" t="inlineStr">
-        <is>
-          <t>≥95%</t>
-        </is>
+      <c r="AB114" s="6" t="n">
+        <v/>
       </c>
       <c r="AC114" s="6" t="n">
         <v/>
@@ -15596,7 +15590,7 @@
       </c>
       <c r="AE114" s="6" t="inlineStr">
         <is>
-          <t>589.126 g/mol</t>
+          <t>61.831 g/mol</t>
         </is>
       </c>
       <c r="AF114" s="6" t="n">
@@ -15613,12 +15607,12 @@
       </c>
       <c r="AJ114" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK114" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -15640,22 +15634,22 @@
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>0219525410</t>
+          <t>0219519901</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G25</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="H115" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G25</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="I115" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G-26, 10 g MP Biomedical</t>
+          <t>Glutaraldehyde, 25% aqueous solution, 1 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J115" s="6" t="n">
@@ -15663,7 +15657,7 @@
       </c>
       <c r="K115" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 mL</t>
         </is>
       </c>
       <c r="L115" s="7" t="n">
@@ -15710,7 +15704,7 @@
       </c>
       <c r="Z115" s="7" t="inlineStr">
         <is>
-          <t>9041-35-4</t>
+          <t>111-30-8</t>
         </is>
       </c>
       <c r="AA115" s="6" t="n">
@@ -15727,7 +15721,7 @@
       </c>
       <c r="AE115" s="6" t="inlineStr">
         <is>
-          <t>272.25 g/mol</t>
+          <t>100.117 g/mol</t>
         </is>
       </c>
       <c r="AF115" s="6" t="n">
@@ -15744,12 +15738,12 @@
       </c>
       <c r="AJ115" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK115" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -15771,23 +15765,31 @@
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>0219525412</t>
-        </is>
-      </c>
-      <c r="G116" s="6" t="n">
-        <v/>
-      </c>
-      <c r="H116" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I116" s="6" t="n">
-        <v/>
+          <t>0219521380</t>
+        </is>
+      </c>
+      <c r="G116" s="6" t="inlineStr">
+        <is>
+          <t>Guanosine5Triphosphate Disodiu</t>
+        </is>
+      </c>
+      <c r="H116" s="6" t="inlineStr">
+        <is>
+          <t>Guanosine5Triphosphate Disodium Salt</t>
+        </is>
+      </c>
+      <c r="I116" s="6" t="inlineStr">
+        <is>
+          <t>Guanosine-5′-triphosphate disodium salt,≥95%, 100 mg MP Biomedical</t>
+        </is>
       </c>
       <c r="J116" s="6" t="n">
         <v/>
       </c>
-      <c r="K116" s="6" t="n">
-        <v/>
+      <c r="K116" s="6" t="inlineStr">
+        <is>
+          <t>100 mg</t>
+        </is>
       </c>
       <c r="L116" s="7" t="n">
         <v/>
@@ -15831,14 +15833,18 @@
       <c r="Y116" s="6" t="n">
         <v/>
       </c>
-      <c r="Z116" s="7" t="n">
-        <v/>
+      <c r="Z116" s="7" t="inlineStr">
+        <is>
+          <t>36051-31-7</t>
+        </is>
       </c>
       <c r="AA116" s="6" t="n">
         <v/>
       </c>
-      <c r="AB116" s="6" t="n">
-        <v/>
+      <c r="AB116" s="6" t="inlineStr">
+        <is>
+          <t>≥95%</t>
+        </is>
       </c>
       <c r="AC116" s="6" t="n">
         <v/>
@@ -15846,8 +15852,10 @@
       <c r="AD116" s="6" t="n">
         <v/>
       </c>
-      <c r="AE116" s="6" t="n">
-        <v/>
+      <c r="AE116" s="6" t="inlineStr">
+        <is>
+          <t>589.126 g/mol</t>
+        </is>
       </c>
       <c r="AF116" s="6" t="n">
         <v/>
@@ -15861,11 +15869,15 @@
       <c r="AI116" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ116" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK116" s="6" t="n">
-        <v/>
+      <c r="AJ116" s="6" t="inlineStr">
+        <is>
+          <t>-30C to -2C</t>
+        </is>
+      </c>
+      <c r="AK116" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1" s="21">
@@ -15886,7 +15898,7 @@
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>0219525450</t>
+          <t>0219525410</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
@@ -15901,7 +15913,7 @@
       </c>
       <c r="I117" s="6" t="inlineStr">
         <is>
-          <t>Sephadex G-27, 50 g MP Biomedical</t>
+          <t>Sephadex G-26, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J117" s="6" t="n">
@@ -15909,7 +15921,7 @@
       </c>
       <c r="K117" s="6" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L117" s="7" t="n">
@@ -16017,31 +16029,23 @@
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>0219941001</t>
-        </is>
-      </c>
-      <c r="G118" s="6" t="inlineStr">
-        <is>
-          <t>1Naphthyl Phosphate Monosodium</t>
-        </is>
-      </c>
-      <c r="H118" s="6" t="inlineStr">
-        <is>
-          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
-        </is>
-      </c>
-      <c r="I118" s="6" t="inlineStr">
-        <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 1 g MP Biomedical</t>
-        </is>
+          <t>0219525412</t>
+        </is>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v/>
+      </c>
+      <c r="H118" s="6" t="n">
+        <v/>
+      </c>
+      <c r="I118" s="6" t="n">
+        <v/>
       </c>
       <c r="J118" s="6" t="n">
         <v/>
       </c>
-      <c r="K118" s="6" t="inlineStr">
-        <is>
-          <t>1 g</t>
-        </is>
+      <c r="K118" s="6" t="n">
+        <v/>
       </c>
       <c r="L118" s="7" t="n">
         <v/>
@@ -16085,10 +16089,8 @@
       <c r="Y118" s="6" t="n">
         <v/>
       </c>
-      <c r="Z118" s="7" t="inlineStr">
-        <is>
-          <t>81012-89-7</t>
-        </is>
+      <c r="Z118" s="7" t="n">
+        <v/>
       </c>
       <c r="AA118" s="6" t="n">
         <v/>
@@ -16102,10 +16104,8 @@
       <c r="AD118" s="6" t="n">
         <v/>
       </c>
-      <c r="AE118" s="6" t="inlineStr">
-        <is>
-          <t>264.149 g/mol</t>
-        </is>
+      <c r="AE118" s="6" t="n">
+        <v/>
       </c>
       <c r="AF118" s="6" t="n">
         <v/>
@@ -16119,15 +16119,11 @@
       <c r="AI118" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ118" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
-      <c r="AK118" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
+      <c r="AJ118" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK118" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1" s="21">
@@ -16148,22 +16144,22 @@
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>0219941005</t>
+          <t>0219525450</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium</t>
+          <t>Sephadex G25</t>
         </is>
       </c>
       <c r="H119" s="6" t="inlineStr">
         <is>
-          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Sephadex G25</t>
         </is>
       </c>
       <c r="I119" s="6" t="inlineStr">
         <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 5 g MP Biomedical</t>
+          <t>Sephadex G-27, 50 g MP Biomedical</t>
         </is>
       </c>
       <c r="J119" s="6" t="n">
@@ -16171,7 +16167,7 @@
       </c>
       <c r="K119" s="6" t="inlineStr">
         <is>
-          <t>5 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="L119" s="7" t="n">
@@ -16218,7 +16214,7 @@
       </c>
       <c r="Z119" s="7" t="inlineStr">
         <is>
-          <t>81012-89-7</t>
+          <t>9041-35-4</t>
         </is>
       </c>
       <c r="AA119" s="6" t="n">
@@ -16235,7 +16231,7 @@
       </c>
       <c r="AE119" s="6" t="inlineStr">
         <is>
-          <t>264.149 g/mol</t>
+          <t>272.25 g/mol</t>
         </is>
       </c>
       <c r="AF119" s="6" t="n">
@@ -16252,12 +16248,12 @@
       </c>
       <c r="AJ119" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK119" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -16279,7 +16275,7 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>0219941010</t>
+          <t>0219941001</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
@@ -16294,7 +16290,7 @@
       </c>
       <c r="I120" s="6" t="inlineStr">
         <is>
-          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 10 g MP Biomedical</t>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 1 g MP Biomedical</t>
         </is>
       </c>
       <c r="J120" s="6" t="n">
@@ -16302,7 +16298,7 @@
       </c>
       <c r="K120" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="L120" s="7" t="n">
@@ -16410,22 +16406,22 @@
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>0219951805</t>
+          <t>0219941005</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1Naphthyl Phosphate Monosodium</t>
         </is>
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="I121" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 5 Units MP Biomedical</t>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 5 g MP Biomedical</t>
         </is>
       </c>
       <c r="J121" s="6" t="n">
@@ -16433,7 +16429,7 @@
       </c>
       <c r="K121" s="6" t="inlineStr">
         <is>
-          <t>5 U</t>
+          <t>5 g</t>
         </is>
       </c>
       <c r="L121" s="7" t="n">
@@ -16460,10 +16456,8 @@
       <c r="S121" s="6" t="n">
         <v/>
       </c>
-      <c r="T121" s="6" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
+      <c r="T121" s="6" t="n">
+        <v/>
       </c>
       <c r="U121" s="6" t="n">
         <v/>
@@ -16482,7 +16476,7 @@
       </c>
       <c r="Z121" s="7" t="inlineStr">
         <is>
-          <t>9002-17-9</t>
+          <t>81012-89-7</t>
         </is>
       </c>
       <c r="AA121" s="6" t="n">
@@ -16497,8 +16491,10 @@
       <c r="AD121" s="6" t="n">
         <v/>
       </c>
-      <c r="AE121" s="6" t="n">
-        <v/>
+      <c r="AE121" s="6" t="inlineStr">
+        <is>
+          <t>264.149 g/mol</t>
+        </is>
       </c>
       <c r="AF121" s="6" t="n">
         <v/>
@@ -16514,12 +16510,12 @@
       </c>
       <c r="AJ121" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK121" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -16541,22 +16537,22 @@
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>0219951825</t>
+          <t>0219941010</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1Naphthyl Phosphate Monosodium</t>
         </is>
       </c>
       <c r="H122" s="6" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="I122" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 25 Units MP Biomedical</t>
+          <t>1-Naphthyl phosphate, monosodium salt, monohydrate, 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J122" s="6" t="n">
@@ -16564,7 +16560,7 @@
       </c>
       <c r="K122" s="6" t="inlineStr">
         <is>
-          <t>25 U</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L122" s="7" t="n">
@@ -16591,10 +16587,8 @@
       <c r="S122" s="6" t="n">
         <v/>
       </c>
-      <c r="T122" s="6" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
+      <c r="T122" s="6" t="n">
+        <v/>
       </c>
       <c r="U122" s="6" t="n">
         <v/>
@@ -16613,7 +16607,7 @@
       </c>
       <c r="Z122" s="7" t="inlineStr">
         <is>
-          <t>9002-17-9</t>
+          <t>81012-89-7</t>
         </is>
       </c>
       <c r="AA122" s="6" t="n">
@@ -16628,8 +16622,10 @@
       <c r="AD122" s="6" t="n">
         <v/>
       </c>
-      <c r="AE122" s="6" t="n">
-        <v/>
+      <c r="AE122" s="6" t="inlineStr">
+        <is>
+          <t>264.149 g/mol</t>
+        </is>
       </c>
       <c r="AF122" s="6" t="n">
         <v/>
@@ -16645,12 +16641,12 @@
       </c>
       <c r="AJ122" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
       <c r="AK122" s="6" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>2C to 8C</t>
         </is>
       </c>
     </row>
@@ -16672,7 +16668,7 @@
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>0219951850</t>
+          <t>0219951805</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
@@ -16687,7 +16683,7 @@
       </c>
       <c r="I123" s="6" t="inlineStr">
         <is>
-          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 50 Units MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 5 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J123" s="6" t="n">
@@ -16695,7 +16691,7 @@
       </c>
       <c r="K123" s="6" t="inlineStr">
         <is>
-          <t>50 U</t>
+          <t>5 U</t>
         </is>
       </c>
       <c r="L123" s="7" t="n">
@@ -16803,22 +16799,22 @@
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>0219960880</t>
+          <t>0219951825</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="H124" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="I124" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 100 g MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 25 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J124" s="6" t="n">
@@ -16826,7 +16822,7 @@
       </c>
       <c r="K124" s="6" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>25 U</t>
         </is>
       </c>
       <c r="L124" s="7" t="n">
@@ -16853,8 +16849,10 @@
       <c r="S124" s="6" t="n">
         <v/>
       </c>
-      <c r="T124" s="6" t="n">
-        <v/>
+      <c r="T124" s="6" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
       </c>
       <c r="U124" s="6" t="n">
         <v/>
@@ -16873,7 +16871,7 @@
       </c>
       <c r="Z124" s="7" t="inlineStr">
         <is>
-          <t>56-85-9</t>
+          <t>9002-17-9</t>
         </is>
       </c>
       <c r="AA124" s="6" t="n">
@@ -16888,10 +16886,8 @@
       <c r="AD124" s="6" t="n">
         <v/>
       </c>
-      <c r="AE124" s="6" t="inlineStr">
-        <is>
-          <t>146.146 g/mol</t>
-        </is>
+      <c r="AE124" s="6" t="n">
+        <v/>
       </c>
       <c r="AF124" s="6" t="n">
         <v/>
@@ -16907,12 +16903,12 @@
       </c>
       <c r="AJ124" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK124" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -16934,22 +16930,22 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>0219960890</t>
+          <t>0219951850</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="H125" s="6" t="inlineStr">
         <is>
-          <t>LGlutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="I125" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 500 g MP Biomedical</t>
+          <t>Xanthine oxidase from buttermilk, 1 - 4 U/mg protein, 50 Units MP Biomedical</t>
         </is>
       </c>
       <c r="J125" s="6" t="n">
@@ -16957,7 +16953,7 @@
       </c>
       <c r="K125" s="6" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>50 U</t>
         </is>
       </c>
       <c r="L125" s="7" t="n">
@@ -16984,8 +16980,10 @@
       <c r="S125" s="6" t="n">
         <v/>
       </c>
-      <c r="T125" s="6" t="n">
-        <v/>
+      <c r="T125" s="6" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
       </c>
       <c r="U125" s="6" t="n">
         <v/>
@@ -17004,7 +17002,7 @@
       </c>
       <c r="Z125" s="7" t="inlineStr">
         <is>
-          <t>56-85-9</t>
+          <t>9002-17-9</t>
         </is>
       </c>
       <c r="AA125" s="6" t="n">
@@ -17019,10 +17017,8 @@
       <c r="AD125" s="6" t="n">
         <v/>
       </c>
-      <c r="AE125" s="6" t="inlineStr">
-        <is>
-          <t>146.146 g/mol</t>
-        </is>
+      <c r="AE125" s="6" t="n">
+        <v/>
       </c>
       <c r="AF125" s="6" t="n">
         <v/>
@@ -17038,12 +17034,12 @@
       </c>
       <c r="AJ125" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
       <c r="AK125" s="6" t="inlineStr">
         <is>
-          <t>15C to 30C</t>
+          <t>-30C to -2C</t>
         </is>
       </c>
     </row>
@@ -17065,7 +17061,7 @@
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>0219960891</t>
+          <t>0219960880</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
@@ -17080,7 +17076,7 @@
       </c>
       <c r="I126" s="6" t="inlineStr">
         <is>
-          <t>L-Glutamine, USP, 1 kg MP Biomedical</t>
+          <t>L-Glutamine, USP, 100 g MP Biomedical</t>
         </is>
       </c>
       <c r="J126" s="6" t="n">
@@ -17088,7 +17084,7 @@
       </c>
       <c r="K126" s="6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="L126" s="7" t="n">
@@ -17196,22 +17192,22 @@
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>0230008406</t>
+          <t>0219960890</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="H127" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="I127" s="6" t="inlineStr">
         <is>
-          <t>Ethyl acetate, 6 x 1 L MP Biomedical</t>
+          <t>L-Glutamine, USP, 500 g MP Biomedical</t>
         </is>
       </c>
       <c r="J127" s="6" t="n">
@@ -17219,7 +17215,7 @@
       </c>
       <c r="K127" s="6" t="inlineStr">
         <is>
-          <t>1 L</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="L127" s="7" t="n">
@@ -17266,16 +17262,14 @@
       </c>
       <c r="Z127" s="7" t="inlineStr">
         <is>
-          <t>141-78-6</t>
+          <t>56-85-9</t>
         </is>
       </c>
       <c r="AA127" s="6" t="n">
         <v/>
       </c>
-      <c r="AB127" s="6" t="inlineStr">
-        <is>
-          <t>≥99.9%</t>
-        </is>
+      <c r="AB127" s="6" t="n">
+        <v/>
       </c>
       <c r="AC127" s="6" t="n">
         <v/>
@@ -17285,7 +17279,7 @@
       </c>
       <c r="AE127" s="6" t="inlineStr">
         <is>
-          <t>88.106 g/mol</t>
+          <t>146.146 g/mol</t>
         </is>
       </c>
       <c r="AF127" s="6" t="n">
@@ -17329,22 +17323,22 @@
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
-          <t>0230008416</t>
+          <t>0219960891</t>
         </is>
       </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="H128" s="6" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>LGlutamine</t>
         </is>
       </c>
       <c r="I128" s="6" t="inlineStr">
         <is>
-          <t>Ethyl acetate, 4 x 4 L MP Biomedical</t>
+          <t>L-Glutamine, USP, 1 kg MP Biomedical</t>
         </is>
       </c>
       <c r="J128" s="6" t="n">
@@ -17352,7 +17346,7 @@
       </c>
       <c r="K128" s="6" t="inlineStr">
         <is>
-          <t>4 L</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="L128" s="7" t="n">
@@ -17399,16 +17393,14 @@
       </c>
       <c r="Z128" s="7" t="inlineStr">
         <is>
-          <t>141-78-6</t>
+          <t>56-85-9</t>
         </is>
       </c>
       <c r="AA128" s="6" t="n">
         <v/>
       </c>
-      <c r="AB128" s="6" t="inlineStr">
-        <is>
-          <t>≥99.9%</t>
-        </is>
+      <c r="AB128" s="6" t="n">
+        <v/>
       </c>
       <c r="AC128" s="6" t="n">
         <v/>
@@ -17418,7 +17410,7 @@
       </c>
       <c r="AE128" s="6" t="inlineStr">
         <is>
-          <t>88.106 g/mol</t>
+          <t>146.146 g/mol</t>
         </is>
       </c>
       <c r="AF128" s="6" t="n">
@@ -17462,22 +17454,22 @@
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
-          <t>04821915</t>
+          <t>0230008406</t>
         </is>
       </c>
       <c r="G129" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="H129" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="I129" s="6" t="inlineStr">
         <is>
-          <t>Water, DNase, RNase-free, 1 L MP Biomedical</t>
+          <t>Ethyl acetate, 6 x 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J129" s="6" t="n">
@@ -17532,14 +17524,16 @@
       </c>
       <c r="Z129" s="7" t="inlineStr">
         <is>
-          <t>7732-18-5</t>
+          <t>141-78-6</t>
         </is>
       </c>
       <c r="AA129" s="6" t="n">
         <v/>
       </c>
-      <c r="AB129" s="6" t="n">
-        <v/>
+      <c r="AB129" s="6" t="inlineStr">
+        <is>
+          <t>≥99.9%</t>
+        </is>
       </c>
       <c r="AC129" s="6" t="n">
         <v/>
@@ -17549,7 +17543,7 @@
       </c>
       <c r="AE129" s="6" t="inlineStr">
         <is>
-          <t>18.015 g/mol</t>
+          <t>88.106 g/mol</t>
         </is>
       </c>
       <c r="AF129" s="6" t="n">
@@ -17564,11 +17558,15 @@
       <c r="AI129" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ129" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AK129" s="6" t="n">
-        <v/>
+      <c r="AJ129" s="6" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="AK129" s="6" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1" s="21">
@@ -17589,22 +17587,22 @@
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>04821932</t>
+          <t>0230008416</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="I130" s="6" t="inlineStr">
         <is>
-          <t>Water, DNase, RNase-FREE, 500 mL MP Biomedical</t>
+          <t>Ethyl acetate, 4 x 4 L MP Biomedical</t>
         </is>
       </c>
       <c r="J130" s="6" t="n">
@@ -17612,7 +17610,7 @@
       </c>
       <c r="K130" s="6" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>4 L</t>
         </is>
       </c>
       <c r="L130" s="7" t="n">
@@ -17659,14 +17657,16 @@
       </c>
       <c r="Z130" s="7" t="inlineStr">
         <is>
-          <t>7732-18-5</t>
+          <t>141-78-6</t>
         </is>
       </c>
       <c r="AA130" s="6" t="n">
         <v/>
       </c>
-      <c r="AB130" s="6" t="n">
-        <v/>
+      <c r="AB130" s="6" t="inlineStr">
+        <is>
+          <t>≥99.9%</t>
+        </is>
       </c>
       <c r="AC130" s="6" t="n">
         <v/>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="AE130" s="6" t="inlineStr">
         <is>
-          <t>18.015 g/mol</t>
+          <t>88.106 g/mol</t>
         </is>
       </c>
       <c r="AF130" s="6" t="n">
@@ -17720,22 +17720,22 @@
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>08320961</t>
+          <t>04821915</t>
         </is>
       </c>
       <c r="G131" s="6" t="inlineStr">
         <is>
-          <t>Cellulase YC enzyme retains ve</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="H131" s="6" t="inlineStr">
         <is>
-          <t>Cellulase YC enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase Actually this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="I131" s="6" t="inlineStr">
         <is>
-          <t>Cellulase Y-C (from Trichoderma viride), 10 g MP Biomedical</t>
+          <t>Water, DNase, RNase-free, 1 L MP Biomedical</t>
         </is>
       </c>
       <c r="J131" s="6" t="n">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="K131" s="6" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>1 L</t>
         </is>
       </c>
       <c r="L131" s="7" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="Z131" s="7" t="inlineStr">
         <is>
-          <t>9012-54-8</t>
+          <t>7732-18-5</t>
         </is>
       </c>
       <c r="AA131" s="6" t="n">
@@ -17805,8 +17805,10 @@
       <c r="AD131" s="6" t="n">
         <v/>
       </c>
-      <c r="AE131" s="6" t="n">
-        <v/>
+      <c r="AE131" s="6" t="inlineStr">
+        <is>
+          <t>18.015 g/mol</t>
+        </is>
       </c>
       <c r="AF131" s="6" t="n">
         <v/>
@@ -17820,15 +17822,11 @@
       <c r="AI131" s="6" t="n">
         <v/>
       </c>
-      <c r="AJ131" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
-      </c>
-      <c r="AK131" s="6" t="inlineStr">
-        <is>
-          <t>2C to 8C</t>
-        </is>
+      <c r="AJ131" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AK131" s="6" t="n">
+        <v/>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1" s="21">
@@ -17849,22 +17847,22 @@
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
-          <t>0855285</t>
+          <t>04821932</t>
         </is>
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxi</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="H132" s="6" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated rabbit IgG fraction to bovine albumin and buffer salts</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="I132" s="6" t="inlineStr">
         <is>
-          <t>Anti-bovine albumin rabbit IgG fraction, peroxidase-conjugated, 2 mL MP Biomedical</t>
+          <t>Water, DNase, RNase-FREE, 500 mL MP Biomedical</t>
         </is>
       </c>
       <c r="J132" s="6" t="n">
@@ -17872,7 +17870,7 @@
       </c>
       <c r="K132" s="6" t="inlineStr">
         <is>
-          <t>2 mL</t>
+          <t>500 mL</t>
         </is>
       </c>
       <c r="L132" s="7" t="n">
@@ -17905,32 +17903,28 @@
       <c r="U132" s="6" t="n">
         <v/>
       </c>
-      <c r="V132" s="6" t="inlineStr">
-        <is>
-          <t>Rabbit</t>
-        </is>
+      <c r="V132" s="6" t="n">
+        <v/>
       </c>
       <c r="W132" s="6" t="n">
         <v/>
       </c>
-      <c r="X132" s="6" t="inlineStr">
-        <is>
-          <t>HRP</t>
-        </is>
+      <c r="X132" s="6" t="n">
+        <v/>
       </c>
       <c r="Y132" s="6" t="n">
         <v/>
       </c>
-      <c r="Z132" s="7" t="n">
-        <v/>
+      <c r="Z132" s="7" t="inlineStr">
+        <is>
+          <t>7732-18-5</t>
+        </is>
       </c>
       <c r="AA132" s="6" t="n">
         <v/>
       </c>
-      <c r="AB132" s="6" t="inlineStr">
-        <is>
-          <t>Purified</t>
-        </is>
+      <c r="AB132" s="6" t="n">
+        <v/>
       </c>
       <c r="AC132" s="6" t="n">
         <v/>
@@ -17938,13 +17932,13 @@
       <c r="AD132" s="6" t="n">
         <v/>
       </c>
-      <c r="AE132" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF132" s="6" t="inlineStr">
-        <is>
-          <t>Total Protein: 28.4 mg/mL; Titer: 1:110;000</t>
-        </is>
+      <c r="AE132" s="6" t="inlineStr">
+        <is>
+          <t>18.015 g/mol</t>
+        </is>
+      </c>
+      <c r="AF132" s="6" t="n">
+        <v/>
       </c>
       <c r="AG132" s="6" t="n">
         <v/>
@@ -17957,12 +17951,12 @@
       </c>
       <c r="AJ132" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="AK132" s="6" t="inlineStr">
         <is>
-          <t>2C to 8C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
     </row>
@@ -17984,22 +17978,22 @@
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
-          <t>0855557</t>
+          <t>08320961</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxi</t>
+          <t>Cellulase YC enzyme retains ve</t>
         </is>
       </c>
       <c r="H133" s="6" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated goat IgG fraction to mouse complement C3 and buffer salts</t>
+          <t>Cellulase YC enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase Actually this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials</t>
         </is>
       </c>
       <c r="I133" s="6" t="inlineStr">
         <is>
-          <t>Anti-mouse complement C3 goat IgG fraction, peroxidase-conjugated , 2 mL MP Biomedical</t>
+          <t>Cellulase Y-C (from Trichoderma viride), 10 g MP Biomedical</t>
         </is>
       </c>
       <c r="J133" s="6" t="n">
@@ -18007,7 +18001,7 @@
       </c>
       <c r="K133" s="6" t="inlineStr">
         <is>
-          <t>2 mL</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="L133" s="7" t="n">
@@ -18040,32 +18034,28 @@
       <c r="U133" s="6" t="n">
         <v/>
       </c>
-      <c r="V133" s="6" t="inlineStr">
-        <is>
-          <t>Goat</t>
-        </is>
+      <c r="V133" s="6" t="n">
+        <v/>
       </c>
       <c r="W133" s="6" t="n">
         <v/>
       </c>
-      <c r="X133" s="6" t="inlineStr">
-        <is>
-          <t>HRP</t>
-        </is>
+      <c r="X133" s="6" t="n">
+        <v/>
       </c>
       <c r="Y133" s="6" t="n">
         <v/>
       </c>
-      <c r="Z133" s="7" t="n">
-        <v/>
+      <c r="Z133" s="7" t="inlineStr">
+        <is>
+          <t>9012-54-8</t>
+        </is>
       </c>
       <c r="AA133" s="6" t="n">
         <v/>
       </c>
-      <c r="AB133" s="6" t="inlineStr">
-        <is>
-          <t>Purified</t>
-        </is>
+      <c r="AB133" s="6" t="n">
+        <v/>
       </c>
       <c r="AC133" s="6" t="n">
         <v/>
@@ -18076,10 +18066,8 @@
       <c r="AE133" s="6" t="n">
         <v/>
       </c>
-      <c r="AF133" s="6" t="inlineStr">
-        <is>
-          <t>Total Protein: 19.0 mg/mL; Titer: 1: 78;000</t>
-        </is>
+      <c r="AF133" s="6" t="n">
+        <v/>
       </c>
       <c r="AG133" s="6" t="n">
         <v/>
@@ -18119,194 +18107,386 @@
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
+          <t>0855285</t>
+        </is>
+      </c>
+      <c r="G134" s="6" t="inlineStr">
+        <is>
+          <t>Lyophilized horseradish peroxi</t>
+        </is>
+      </c>
+      <c r="H134" s="6" t="inlineStr">
+        <is>
+          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated rabbit IgG fraction to bovine albumin and buffer salts</t>
+        </is>
+      </c>
+      <c r="I134" s="6" t="inlineStr">
+        <is>
+          <t>Anti-bovine albumin rabbit IgG fraction, peroxidase-conjugated, 2 mL MP Biomedical</t>
+        </is>
+      </c>
+      <c r="J134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="K134" s="6" t="inlineStr">
+        <is>
+          <t>2 mL</t>
+        </is>
+      </c>
+      <c r="L134" s="7" t="n">
+        <v/>
+      </c>
+      <c r="M134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="N134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="O134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="P134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Q134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="R134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="S134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="T134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="U134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="V134" s="6" t="inlineStr">
+        <is>
+          <t>Rabbit</t>
+        </is>
+      </c>
+      <c r="W134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="X134" s="6" t="inlineStr">
+        <is>
+          <t>HRP</t>
+        </is>
+      </c>
+      <c r="Y134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Z134" s="7" t="n">
+        <v/>
+      </c>
+      <c r="AA134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AB134" s="6" t="inlineStr">
+        <is>
+          <t>Purified</t>
+        </is>
+      </c>
+      <c r="AC134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AD134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AE134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AF134" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein: 28.4 mg/mL; Titer: 1:110;000</t>
+        </is>
+      </c>
+      <c r="AG134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AH134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AI134" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AJ134" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+      <c r="AK134" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="13.5" customHeight="1" s="21">
+      <c r="A135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="B135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
+        <is>
+          <t>0855557</t>
+        </is>
+      </c>
+      <c r="G135" s="6" t="inlineStr">
+        <is>
+          <t>Lyophilized horseradish peroxi</t>
+        </is>
+      </c>
+      <c r="H135" s="6" t="inlineStr">
+        <is>
+          <t>Product is the lyophilized powder of horseradish peroxidase HRPconjugated goat IgG fraction to mouse complement C3 and buffer salts</t>
+        </is>
+      </c>
+      <c r="I135" s="6" t="inlineStr">
+        <is>
+          <t>Anti-mouse complement C3 goat IgG fraction, peroxidase-conjugated , 2 mL MP Biomedical</t>
+        </is>
+      </c>
+      <c r="J135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="K135" s="6" t="inlineStr">
+        <is>
+          <t>2 mL</t>
+        </is>
+      </c>
+      <c r="L135" s="7" t="n">
+        <v/>
+      </c>
+      <c r="M135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="N135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="O135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="P135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Q135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="R135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="S135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="T135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="U135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="V135" s="6" t="inlineStr">
+        <is>
+          <t>Goat</t>
+        </is>
+      </c>
+      <c r="W135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="X135" s="6" t="inlineStr">
+        <is>
+          <t>HRP</t>
+        </is>
+      </c>
+      <c r="Y135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Z135" s="7" t="n">
+        <v/>
+      </c>
+      <c r="AA135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AB135" s="6" t="inlineStr">
+        <is>
+          <t>Purified</t>
+        </is>
+      </c>
+      <c r="AC135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AD135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AE135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AF135" s="6" t="inlineStr">
+        <is>
+          <t>Total Protein: 19.0 mg/mL; Titer: 1: 78;000</t>
+        </is>
+      </c>
+      <c r="AG135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AH135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AI135" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AJ135" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+      <c r="AK135" s="6" t="inlineStr">
+        <is>
+          <t>2C to 8C</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="13.5" customHeight="1" s="21">
+      <c r="A136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="B136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="C136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="F136" s="6" t="inlineStr">
+        <is>
           <t>08791501</t>
         </is>
       </c>
-      <c r="G134" s="6" t="inlineStr">
+      <c r="G136" s="6" t="inlineStr">
         <is>
           <t>Crude Phaseolus vulgarisP lect</t>
         </is>
       </c>
-      <c r="H134" s="6" t="inlineStr">
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>Crude Phaseolus vulgarisP lectin PHAP from the Red Kidney Bean Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit dog cat mouse sheep and guinea pig The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals</t>
         </is>
       </c>
-      <c r="I134" s="6" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>Phytohemagglutinin, phaseolus vulgaris, 25 mg MP Biomedical</t>
         </is>
       </c>
-      <c r="J134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K134" s="6" t="inlineStr">
+      <c r="J136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="K136" s="6" t="inlineStr">
         <is>
           <t>25 mg</t>
         </is>
       </c>
-      <c r="L134" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="N134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Q134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="R134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="S134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="T134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="U134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="V134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="W134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="X134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Y134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="Z134" s="7" t="n">
-        <v/>
-      </c>
-      <c r="AA134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AB134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AC134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AD134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AE134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AF134" s="6" t="inlineStr">
+      <c r="L136" s="7" t="n">
+        <v/>
+      </c>
+      <c r="M136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="N136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="O136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="P136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Q136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="R136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="S136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="T136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="U136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="V136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="W136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="X136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Y136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="Z136" s="7" t="n">
+        <v/>
+      </c>
+      <c r="AA136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AB136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AC136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AD136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AE136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AF136" s="6" t="inlineStr">
         <is>
           <t>25 mg/vial</t>
         </is>
       </c>
-      <c r="AG134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AH134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AI134" s="6" t="n">
-        <v/>
-      </c>
-      <c r="AJ134" s="6" t="inlineStr">
+      <c r="AG136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AH136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AI136" s="6" t="n">
+        <v/>
+      </c>
+      <c r="AJ136" s="6" t="inlineStr">
         <is>
           <t>2C to 8C</t>
         </is>
       </c>
-      <c r="AK134" s="6" t="inlineStr">
+      <c r="AK136" s="6" t="inlineStr">
         <is>
           <t>2C to 8C</t>
         </is>
       </c>
-    </row>
-    <row r="135" ht="13.5" customHeight="1" s="21">
-      <c r="A135" s="6" t="n"/>
-      <c r="B135" s="6" t="n"/>
-      <c r="C135" s="6" t="n"/>
-      <c r="D135" s="6" t="n"/>
-      <c r="E135" s="6" t="n"/>
-      <c r="F135" s="6" t="n"/>
-      <c r="G135" s="6" t="n"/>
-      <c r="H135" s="6" t="n"/>
-      <c r="I135" s="6" t="n"/>
-      <c r="J135" s="6" t="n"/>
-      <c r="K135" s="6" t="n"/>
-      <c r="L135" s="7" t="n"/>
-      <c r="M135" s="6" t="n"/>
-      <c r="N135" s="6" t="n"/>
-      <c r="O135" s="6" t="n"/>
-      <c r="P135" s="6" t="n"/>
-      <c r="Q135" s="6" t="n"/>
-      <c r="R135" s="6" t="n"/>
-      <c r="S135" s="6" t="n"/>
-      <c r="T135" s="6" t="n"/>
-      <c r="U135" s="6" t="n"/>
-      <c r="V135" s="6" t="n"/>
-      <c r="W135" s="6" t="n"/>
-      <c r="X135" s="6" t="n"/>
-      <c r="Y135" s="6" t="n"/>
-      <c r="Z135" s="7" t="n"/>
-      <c r="AA135" s="6" t="n"/>
-      <c r="AB135" s="6" t="n"/>
-      <c r="AC135" s="6" t="n"/>
-      <c r="AD135" s="6" t="n"/>
-      <c r="AE135" s="6" t="n"/>
-      <c r="AF135" s="6" t="n"/>
-      <c r="AG135" s="6" t="n"/>
-      <c r="AH135" s="6" t="n"/>
-      <c r="AI135" s="6" t="n"/>
-      <c r="AJ135" s="6" t="n"/>
-      <c r="AK135" s="6" t="n"/>
-    </row>
-    <row r="136" ht="13.5" customHeight="1" s="21">
-      <c r="A136" s="6" t="n"/>
-      <c r="B136" s="6" t="n"/>
-      <c r="C136" s="6" t="n"/>
-      <c r="D136" s="6" t="n"/>
-      <c r="E136" s="6" t="n"/>
-      <c r="F136" s="6" t="n"/>
-      <c r="G136" s="6" t="n"/>
-      <c r="H136" s="6" t="n"/>
-      <c r="I136" s="6" t="n"/>
-      <c r="J136" s="6" t="n"/>
-      <c r="K136" s="6" t="n"/>
-      <c r="L136" s="7" t="n"/>
-      <c r="M136" s="6" t="n"/>
-      <c r="N136" s="6" t="n"/>
-      <c r="O136" s="6" t="n"/>
-      <c r="P136" s="6" t="n"/>
-      <c r="Q136" s="6" t="n"/>
-      <c r="R136" s="6" t="n"/>
-      <c r="S136" s="6" t="n"/>
-      <c r="T136" s="6" t="n"/>
-      <c r="U136" s="6" t="n"/>
-      <c r="V136" s="6" t="n"/>
-      <c r="W136" s="6" t="n"/>
-      <c r="X136" s="6" t="n"/>
-      <c r="Y136" s="6" t="n"/>
-      <c r="Z136" s="7" t="n"/>
-      <c r="AA136" s="6" t="n"/>
-      <c r="AB136" s="6" t="n"/>
-      <c r="AC136" s="6" t="n"/>
-      <c r="AD136" s="6" t="n"/>
-      <c r="AE136" s="6" t="n"/>
-      <c r="AF136" s="6" t="n"/>
-      <c r="AG136" s="6" t="n"/>
-      <c r="AH136" s="6" t="n"/>
-      <c r="AI136" s="6" t="n"/>
-      <c r="AJ136" s="6" t="n"/>
-      <c r="AK136" s="6" t="n"/>
     </row>
     <row r="137" ht="13.5" customHeight="1" s="21">
       <c r="A137" s="6" t="n"/>
